--- a/joshua-docs/02_design/90_db/90_DB設計.xlsx
+++ b/joshua-docs/02_design/90_db/90_DB設計.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\josua-app\git\joshua\joshua-docs\02_design\90_db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\joshua-app\git\joshua\joshua-docs\02_design\90_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0C6C68-E71E-4C5C-B21B-CAFB923023E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78AF5AF-44C3-42AC-9D7E-A1D1374F8EDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1230" windowWidth="21600" windowHeight="12855" tabRatio="411" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="17790" tabRatio="411" activeTab="1" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="309">
   <si>
     <t>PRIMARY_KEY</t>
     <phoneticPr fontId="1"/>
@@ -1314,6 +1314,10 @@
     <rPh sb="9" eb="11">
       <t>ニチジ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020/07/02</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1423,7 +1427,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1449,9 +1453,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -1773,9 +1774,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4943154E-E197-4DDD-ACD8-DEAC3E0A272D}">
   <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
+      <selection pane="bottomLeft" activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3513,8 +3514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B156E69B-A368-43FC-B871-296031B2A5E5}">
   <dimension ref="A1:G93"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3554,7 +3555,7 @@
       <c r="A2" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>106</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -3577,8 +3578,8 @@
       <c r="A3" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>106</v>
+      <c r="B3" s="8" t="s">
+        <v>308</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>295</v>
@@ -3629,7 +3630,7 @@
       <c r="C5" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>107</v>
       </c>
       <c r="E5" s="8" t="s">
@@ -3652,7 +3653,7 @@
       <c r="C6" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>107</v>
       </c>
       <c r="E6" s="8" t="s">
@@ -3790,7 +3791,7 @@
       <c r="C12" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>107</v>
       </c>
       <c r="E12" s="8" t="s">
@@ -3813,7 +3814,7 @@
       <c r="C13" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="9" t="s">
         <v>107</v>
       </c>
       <c r="E13" s="8" t="s">
@@ -3951,7 +3952,7 @@
       <c r="C19" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="9" t="s">
         <v>107</v>
       </c>
       <c r="E19" s="8" t="s">
@@ -3974,7 +3975,7 @@
       <c r="C20" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="9" t="s">
         <v>107</v>
       </c>
       <c r="E20" s="8" t="s">
@@ -4066,7 +4067,7 @@
       <c r="C24" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="9" t="s">
         <v>107</v>
       </c>
       <c r="E24" s="8" t="s">
@@ -4089,7 +4090,7 @@
       <c r="C25" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="9" t="s">
         <v>107</v>
       </c>
       <c r="E25" s="8" t="s">
@@ -4112,7 +4113,7 @@
       <c r="C26" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="9" t="s">
         <v>107</v>
       </c>
       <c r="E26" s="8" t="s">
@@ -4135,7 +4136,7 @@
       <c r="C27" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="9" t="s">
         <v>107</v>
       </c>
       <c r="E27" s="8" t="s">
@@ -4273,7 +4274,7 @@
       <c r="C33" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="9" t="s">
         <v>107</v>
       </c>
       <c r="E33" s="8" t="s">
@@ -4296,7 +4297,7 @@
       <c r="C34" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="9" t="s">
         <v>107</v>
       </c>
       <c r="E34" s="8" t="s">
@@ -4434,7 +4435,7 @@
       <c r="C40" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="9" t="s">
         <v>107</v>
       </c>
       <c r="E40" s="8" t="s">
@@ -4457,7 +4458,7 @@
       <c r="C41" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D41" s="9" t="s">
         <v>107</v>
       </c>
       <c r="E41" s="8" t="s">
@@ -4480,7 +4481,7 @@
       <c r="C42" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D42" s="9" t="s">
         <v>107</v>
       </c>
       <c r="E42" s="8" t="s">
@@ -4595,7 +4596,7 @@
       <c r="C47" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="9" t="s">
         <v>107</v>
       </c>
       <c r="E47" s="8" t="s">
@@ -4618,7 +4619,7 @@
       <c r="C48" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D48" s="9" t="s">
         <v>107</v>
       </c>
       <c r="E48" s="8" t="s">
@@ -4756,7 +4757,7 @@
       <c r="C54" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="D54" s="10" t="s">
+      <c r="D54" s="9" t="s">
         <v>107</v>
       </c>
       <c r="E54" s="8" t="s">
@@ -4779,7 +4780,7 @@
       <c r="C55" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="D55" s="10" t="s">
+      <c r="D55" s="9" t="s">
         <v>107</v>
       </c>
       <c r="E55" s="8" t="s">
@@ -4917,7 +4918,7 @@
       <c r="C61" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="D61" s="10" t="s">
+      <c r="D61" s="9" t="s">
         <v>107</v>
       </c>
       <c r="E61" s="8" t="s">
@@ -4940,7 +4941,7 @@
       <c r="C62" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="D62" s="10" t="s">
+      <c r="D62" s="9" t="s">
         <v>107</v>
       </c>
       <c r="E62" s="8" t="s">
@@ -5078,7 +5079,7 @@
       <c r="C68" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="D68" s="10" t="s">
+      <c r="D68" s="9" t="s">
         <v>107</v>
       </c>
       <c r="E68" s="8" t="s">
@@ -5101,7 +5102,7 @@
       <c r="C69" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="D69" s="10" t="s">
+      <c r="D69" s="9" t="s">
         <v>107</v>
       </c>
       <c r="E69" s="8" t="s">
@@ -5239,7 +5240,7 @@
       <c r="C75" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="D75" s="10" t="s">
+      <c r="D75" s="9" t="s">
         <v>107</v>
       </c>
       <c r="E75" s="8" t="s">
@@ -5262,7 +5263,7 @@
       <c r="C76" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="D76" s="10" t="s">
+      <c r="D76" s="9" t="s">
         <v>107</v>
       </c>
       <c r="E76" s="8" t="s">
@@ -5400,7 +5401,7 @@
       <c r="C82" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="D82" s="10" t="s">
+      <c r="D82" s="9" t="s">
         <v>107</v>
       </c>
       <c r="E82" s="8" t="s">
@@ -5423,7 +5424,7 @@
       <c r="C83" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="D83" s="10" t="s">
+      <c r="D83" s="9" t="s">
         <v>107</v>
       </c>
       <c r="E83" s="8" t="s">
@@ -5446,7 +5447,7 @@
       <c r="C84" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="D84" s="10" t="s">
+      <c r="D84" s="9" t="s">
         <v>107</v>
       </c>
       <c r="E84" s="8" t="s">
@@ -5469,7 +5470,7 @@
       <c r="C85" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="D85" s="10" t="s">
+      <c r="D85" s="9" t="s">
         <v>107</v>
       </c>
       <c r="E85" s="8" t="s">
@@ -5561,7 +5562,7 @@
       <c r="C89" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="D89" s="10" t="s">
+      <c r="D89" s="9" t="s">
         <v>107</v>
       </c>
       <c r="E89" s="8" t="s">
@@ -5584,7 +5585,7 @@
       <c r="C90" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="D90" s="10" t="s">
+      <c r="D90" s="9" t="s">
         <v>107</v>
       </c>
       <c r="E90" s="8" t="s">

--- a/joshua-docs/02_design/90_db/90_DB設計.xlsx
+++ b/joshua-docs/02_design/90_db/90_DB設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\joshua-app\git\joshua\joshua-docs\02_design\90_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78AF5AF-44C3-42AC-9D7E-A1D1374F8EDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4CA326A-D877-43B9-A024-3704A6D412EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="17790" tabRatio="411" activeTab="1" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="-28275" yWindow="2625" windowWidth="26505" windowHeight="12855" tabRatio="411" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">BUSINESS_CALENDAR_MT!$A$1:$G$93</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$L$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$L$80</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TEMPLATE!$A$1:$J$69</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="314">
   <si>
     <t>PRIMARY_KEY</t>
     <phoneticPr fontId="1"/>
@@ -319,23 +319,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>勤怠ユーザマスタ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>WORK_USER_MT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ログインID</t>
-  </si>
-  <si>
-    <t>勤怠ユーザマスタID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SEQ_WORK_USER_MT_ID</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>SEQ_REGULAR_WORK_MT_ID</t>
@@ -352,9 +336,6 @@
     <t>日別勤怠登録情報ID</t>
   </si>
   <si>
-    <t>勤怠ユーザマスタID</t>
-  </si>
-  <si>
     <t>承認ステータス</t>
   </si>
   <si>
@@ -534,10 +515,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>勤怠ユーザマスタを一意に識別するID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>当該レコードの備考情報</t>
     <rPh sb="7" eb="9">
       <t>ビコウ</t>
@@ -1318,6 +1295,57 @@
   </si>
   <si>
     <t>2020/07/02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WORK_USER_MNG_MT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤怠ユーザ管理マスタ</t>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤怠ユーザ詳細マスタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤怠ユーザ管理マスタID</t>
+  </si>
+  <si>
+    <t>勤怠ユーザ詳細マスタID</t>
+  </si>
+  <si>
+    <t>WORK_USER_DETAIL_MT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEQ_WORK_USER_DETAIL_MT_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤怠ユーザ詳細マスタID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤怠ユーザ詳細マスタを一意に識別するID</t>
+    <rPh sb="11" eb="13">
+      <t>イチイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シキベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEQ_WORK_USER_MNG_MT_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤怠ユーザ管理マスタを一意に識別するID</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1325,7 +1353,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1383,6 +1411,22 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1427,7 +1471,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1456,6 +1500,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1772,11 +1822,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4943154E-E197-4DDD-ACD8-DEAC3E0A272D}">
-  <dimension ref="A1:L75"/>
+  <dimension ref="A1:L80"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1862,7 +1912,7 @@
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L2" s="2"/>
     </row>
@@ -1920,7 +1970,7 @@
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="L4" s="2"/>
     </row>
@@ -1948,7 +1998,7 @@
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="L5" s="2"/>
     </row>
@@ -1976,7 +2026,7 @@
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L6" s="2"/>
     </row>
@@ -2004,7 +2054,7 @@
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="L7" s="2"/>
     </row>
@@ -2036,7 +2086,7 @@
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="L8" s="2"/>
     </row>
@@ -2064,7 +2114,7 @@
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="L9" s="2"/>
     </row>
@@ -2096,7 +2146,7 @@
         <v>32</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L10" s="2"/>
     </row>
@@ -2124,7 +2174,7 @@
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="L11" s="2"/>
     </row>
@@ -2152,7 +2202,7 @@
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L12" s="2"/>
     </row>
@@ -2180,13 +2230,13 @@
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>44</v>
@@ -2205,14 +2255,14 @@
         <v>46</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="L14" s="2"/>
     </row>
@@ -2240,7 +2290,7 @@
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="L15" s="2"/>
     </row>
@@ -2268,7 +2318,7 @@
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="L16" s="2"/>
     </row>
@@ -2296,7 +2346,7 @@
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="L17" s="2"/>
     </row>
@@ -2324,7 +2374,7 @@
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="L18" s="2"/>
     </row>
@@ -2352,7 +2402,7 @@
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="L19" s="2"/>
     </row>
@@ -2380,7 +2430,7 @@
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L20" s="2"/>
     </row>
@@ -2408,362 +2458,364 @@
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="L22" s="10"/>
+    </row>
+    <row r="23" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="H23" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="L23" s="10"/>
+    </row>
+    <row r="24" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="L24" s="10"/>
+    </row>
+    <row r="25" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="L25" s="10"/>
+    </row>
+    <row r="26" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="L26" s="10"/>
+    </row>
+    <row r="27" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="L27" s="10"/>
+    </row>
+    <row r="28" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="L28" s="10"/>
+    </row>
+    <row r="29" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="I29" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="L29" s="10"/>
+    </row>
+    <row r="30" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="G30" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="L30" s="10"/>
+    </row>
+    <row r="31" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2" t="s">
+      <c r="G31" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="L31" s="10"/>
+    </row>
+    <row r="32" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="L22" s="2"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A23" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L23" s="2"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A24" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="L24" s="2"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A25" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="L25" s="2"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A26" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I26" s="2" t="s">
+      <c r="G32" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I32" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L26" s="2"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A27" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="L27" s="2"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A28" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="L28" s="2"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A29" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L29" s="2"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A30" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="L30" s="2"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A31" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="L31" s="2"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A32" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H32" s="2" t="s">
+      <c r="J32" s="10"/>
+      <c r="K32" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="I32" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="L32" s="2"/>
+      <c r="L32" s="10"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
+      <c r="C33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
+      <c r="F33" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="G33" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="J33" s="2"/>
       <c r="K33" s="2" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="L33" s="2"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -2771,27 +2823,27 @@
       <c r="F34" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G34" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I34" s="2" t="s">
+      <c r="G34" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="I34" s="10" t="s">
         <v>16</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2" t="s">
-        <v>75</v>
+        <v>313</v>
       </c>
       <c r="L34" s="2"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -2800,26 +2852,26 @@
         <v>13</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>18</v>
+        <v>296</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>22</v>
+        <v>299</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J35" s="2"/>
       <c r="K35" s="2" t="s">
-        <v>74</v>
+        <v>300</v>
       </c>
       <c r="L35" s="2"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -2828,86 +2880,84 @@
         <v>13</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>19</v>
+        <v>297</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>23</v>
+        <v>298</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J36" s="2"/>
       <c r="K36" s="2" t="s">
-        <v>73</v>
+        <v>301</v>
       </c>
       <c r="L36" s="2"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J37" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="K37" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="L37" s="2"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
-      <c r="F38" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="F38" s="2"/>
       <c r="G38" s="2" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J38" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="K38" s="2" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="L38" s="2"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -2916,28 +2966,26 @@
         <v>13</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>289</v>
+        <v>17</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>292</v>
+        <v>21</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>291</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="J39" s="2"/>
       <c r="K39" s="2" t="s">
-        <v>297</v>
+        <v>70</v>
       </c>
       <c r="L39" s="2"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -2946,28 +2994,26 @@
         <v>13</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="J40" s="2"/>
       <c r="K40" s="2" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="L40" s="2"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -2976,54 +3022,58 @@
         <v>13</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J41" s="2"/>
       <c r="K41" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="L41" s="2"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J42" s="2"/>
       <c r="K42" s="2" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="L42" s="2"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -3032,88 +3082,162 @@
         <v>13</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="J43" s="2"/>
       <c r="K43" s="2" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="L43" s="2"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
+      <c r="A44" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
+      <c r="F44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="L44" s="2"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
+      <c r="A45" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
+      <c r="F45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="L45" s="2"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
+      <c r="A46" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
+      <c r="F46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
+      <c r="K46" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="L46" s="2"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
+      <c r="A47" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
+      <c r="F47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
+      <c r="K47" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="L47" s="2"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
+      <c r="A48" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
+      <c r="F48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
+      <c r="K48" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="L48" s="2"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.4">
@@ -3494,14 +3618,84 @@
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
     </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:L75" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
+  <autoFilter ref="A1:L80" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I75" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I80" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
       <formula1>"VARCHAR,INT,DECIMAL,DATE,TIMESTAMP"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:F75 L2:L75" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L80 C2:F80" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
       <formula1>",1"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3514,7 +3708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B156E69B-A368-43FC-B871-296031B2A5E5}">
   <dimension ref="A1:G93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B93"/>
     </sheetView>
   </sheetViews>
@@ -3530,2141 +3724,2141 @@
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="8" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="8" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="8" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="8" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="8" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="8" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="8" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="8" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="8" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="8" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="8" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="8" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="8" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="8" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="8" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="8" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="8" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="8" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="8" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="8" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="8" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="8" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="8" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="8" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="8" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="8" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="8" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="8" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="8" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="8" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="8" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="8" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="8" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" s="8" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" s="8" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39" s="8" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" s="8" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41" s="8" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42" s="8" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43" s="8" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44" s="8" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45" s="8" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46" s="8" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47" s="8" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48" s="8" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A49" s="8" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50" s="8" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A51" s="8" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A52" s="8" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A53" s="8" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>36</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A54" s="8" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A55" s="8" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A56" s="8" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A57" s="8" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A58" s="8" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A59" s="8" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A60" s="8" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A61" s="8" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A62" s="8" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A63" s="8" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A64" s="8" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A65" s="8" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A66" s="8" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A67" s="8" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D67" s="8" t="s">
         <v>36</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A68" s="8" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A69" s="8" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A70" s="8" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A71" s="8" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A72" s="8" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A73" s="8" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>36</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A74" s="8" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>36</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A75" s="8" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A76" s="8" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A77" s="8" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A78" s="8" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A79" s="8" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A80" s="8" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>36</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A81" s="8" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>36</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A82" s="8" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A83" s="8" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G83" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A84" s="8" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A85" s="8" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A86" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A87" s="8" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D87" s="8" t="s">
         <v>36</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A88" s="8" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D88" s="8" t="s">
         <v>36</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A89" s="8" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A90" s="8" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A91" s="8" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A92" s="8" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A93" s="8" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/joshua-docs/02_design/90_db/90_DB設計.xlsx
+++ b/joshua-docs/02_design/90_db/90_DB設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\joshua-app\git\joshua\joshua-docs\02_design\90_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4CA326A-D877-43B9-A024-3704A6D412EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBEF4FD9-4012-49AC-8F06-04139172242C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28275" yWindow="2625" windowWidth="26505" windowHeight="12855" tabRatio="411" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="165" yWindow="3120" windowWidth="23100" windowHeight="12855" tabRatio="411" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">BUSINESS_CALENDAR_MT!$A$1:$G$93</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$L$80</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TEMPLATE!$A$1:$J$69</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">TABLE_LIST!$A$1:$L$80</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="319">
   <si>
     <t>PRIMARY_KEY</t>
     <phoneticPr fontId="1"/>
@@ -1346,6 +1347,26 @@
   </si>
   <si>
     <t>勤怠ユーザ管理マスタを一意に識別するID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Domainクラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jp.co.joshua.common.db.type.WorkAuthStatus</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jp.co.joshua.common.db.type.BusinessFlg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jp.co.joshua.common.db.type.Weekday</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1353,7 +1374,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1372,15 +1393,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
@@ -1415,12 +1427,28 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
-      <family val="2"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
       <family val="3"/>
@@ -1428,7 +1456,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1438,6 +1466,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1471,7 +1505,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1490,23 +1524,32 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1824,645 +1867,645 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4943154E-E197-4DDD-ACD8-DEAC3E0A272D}">
   <dimension ref="A1:L80"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28:D28"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="23.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="53.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="23.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.25" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="12" customWidth="1"/>
+    <col min="7" max="7" width="23.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37" style="12" customWidth="1"/>
+    <col min="9" max="9" width="12.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="53.5" style="12" customWidth="1"/>
+    <col min="12" max="12" width="40" style="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:12" s="9" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="5" t="s">
-        <v>9</v>
+      <c r="L1" s="14" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="6" t="s">
+      <c r="J2" s="10"/>
+      <c r="K2" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="L2" s="2"/>
+      <c r="L2" s="10"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="2"/>
+      <c r="L3" s="10"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2" t="s">
+      <c r="J4" s="10"/>
+      <c r="K4" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="L4" s="2"/>
+      <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2" t="s">
+      <c r="J5" s="10"/>
+      <c r="K5" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="L5" s="2"/>
+      <c r="L5" s="10"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2" t="s">
+      <c r="J6" s="10"/>
+      <c r="K6" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="L6" s="2"/>
+      <c r="L6" s="10"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2" t="s">
+      <c r="J7" s="10"/>
+      <c r="K7" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="L7" s="2"/>
+      <c r="L7" s="10"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2" t="s">
+      <c r="E8" s="10"/>
+      <c r="F8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2" t="s">
+      <c r="J8" s="10"/>
+      <c r="K8" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="L8" s="2"/>
+      <c r="L8" s="10"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2" t="s">
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2" t="s">
+      <c r="J9" s="10"/>
+      <c r="K9" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="L9" s="2"/>
+      <c r="L9" s="10"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="L10" s="2"/>
+      <c r="L10" s="10"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2" t="s">
+      <c r="J11" s="10"/>
+      <c r="K11" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="L11" s="2"/>
+      <c r="L11" s="10"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2" t="s">
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2" t="s">
+      <c r="J12" s="10"/>
+      <c r="K12" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="L12" s="2"/>
+      <c r="L12" s="10"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2" t="s">
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2" t="s">
+      <c r="J13" s="10"/>
+      <c r="K13" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="L13" s="2"/>
+      <c r="L13" s="10"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2" t="s">
+      <c r="E14" s="10"/>
+      <c r="F14" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2" t="s">
+      <c r="J14" s="10"/>
+      <c r="K14" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="L14" s="2"/>
+      <c r="L14" s="10"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2" t="s">
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2" t="s">
+      <c r="J15" s="10"/>
+      <c r="K15" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="L15" s="2"/>
+      <c r="L15" s="10"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2" t="s">
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2" t="s">
+      <c r="J16" s="10"/>
+      <c r="K16" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="L16" s="2"/>
+      <c r="L16" s="10"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2" t="s">
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2" t="s">
+      <c r="J17" s="10"/>
+      <c r="K17" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="L17" s="2"/>
+      <c r="L17" s="10"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2" t="s">
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2" t="s">
+      <c r="J18" s="10"/>
+      <c r="K18" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="L18" s="2"/>
+      <c r="L18" s="10"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2" t="s">
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2" t="s">
+      <c r="J19" s="10"/>
+      <c r="K19" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="L19" s="2"/>
+      <c r="L19" s="10"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2" t="s">
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I20" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2" t="s">
+      <c r="J20" s="10"/>
+      <c r="K20" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="L20" s="2"/>
+      <c r="L20" s="10"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2" t="s">
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I21" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2" t="s">
+      <c r="J21" s="10"/>
+      <c r="K21" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="L21" s="2"/>
-    </row>
-    <row r="22" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="L21" s="10"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" s="10" t="s">
         <v>304</v>
       </c>
@@ -2494,7 +2537,7 @@
       </c>
       <c r="L22" s="10"/>
     </row>
-    <row r="23" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" s="10" t="s">
         <v>304</v>
       </c>
@@ -2522,7 +2565,7 @@
       </c>
       <c r="L23" s="10"/>
     </row>
-    <row r="24" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" s="10" t="s">
         <v>304</v>
       </c>
@@ -2550,7 +2593,7 @@
       </c>
       <c r="L24" s="10"/>
     </row>
-    <row r="25" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" s="10" t="s">
         <v>304</v>
       </c>
@@ -2578,7 +2621,7 @@
       </c>
       <c r="L25" s="10"/>
     </row>
-    <row r="26" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26" s="10" t="s">
         <v>304</v>
       </c>
@@ -2606,7 +2649,7 @@
       </c>
       <c r="L26" s="10"/>
     </row>
-    <row r="27" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" s="10" t="s">
         <v>304</v>
       </c>
@@ -2634,7 +2677,7 @@
       </c>
       <c r="L27" s="10"/>
     </row>
-    <row r="28" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28" s="10" t="s">
         <v>305</v>
       </c>
@@ -2666,7 +2709,7 @@
       </c>
       <c r="L28" s="10"/>
     </row>
-    <row r="29" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29" s="10" t="s">
         <v>305</v>
       </c>
@@ -2694,7 +2737,7 @@
       </c>
       <c r="L29" s="10"/>
     </row>
-    <row r="30" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A30" s="10" t="s">
         <v>305</v>
       </c>
@@ -2722,7 +2765,7 @@
       </c>
       <c r="L30" s="10"/>
     </row>
-    <row r="31" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A31" s="10" t="s">
         <v>305</v>
       </c>
@@ -2750,7 +2793,7 @@
       </c>
       <c r="L31" s="10"/>
     </row>
-    <row r="32" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A32" s="10" t="s">
         <v>305</v>
       </c>
@@ -2779,48 +2822,48 @@
       <c r="L32" s="10"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2" t="s">
+      <c r="E33" s="10"/>
+      <c r="F33" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G33" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="H33" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="I33" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2" t="s">
+      <c r="J33" s="10"/>
+      <c r="K33" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="L33" s="2"/>
+      <c r="L33" s="10"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2" t="s">
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10" t="s">
         <v>13</v>
       </c>
       <c r="G34" s="10" t="s">
@@ -2832,861 +2875,867 @@
       <c r="I34" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2" t="s">
+      <c r="J34" s="10"/>
+      <c r="K34" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="L34" s="2"/>
+      <c r="L34" s="10"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2" t="s">
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G35" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="H35" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="I35" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2" t="s">
+      <c r="J35" s="10"/>
+      <c r="K35" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="L35" s="2"/>
+      <c r="L35" s="10"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2" t="s">
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="G36" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="H36" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="I36" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2" t="s">
+      <c r="J36" s="10"/>
+      <c r="K36" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="L36" s="2"/>
+      <c r="L36" s="10"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2" t="s">
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="G37" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="H37" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="I37" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="J37" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="K37" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="L37" s="13" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A38" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="I38" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J37" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="L37" s="2"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A38" s="2" t="s">
+      <c r="J38" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K38" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="L38" s="10"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A39" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B39" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I38" s="2" t="s">
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="L39" s="10"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A40" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I40" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="L40" s="10"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A41" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I41" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="L41" s="10"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A42" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I42" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="L42" s="10"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A43" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="L43" s="10"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A44" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="J44" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="K44" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="L44" s="13" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A45" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="H45" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="I45" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A39" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2" t="s">
+      <c r="J45" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K45" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="L45" s="13" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A46" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="G46" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="H46" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="I46" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2" t="s">
+      <c r="J46" s="10"/>
+      <c r="K46" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="L39" s="2"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A40" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2" t="s">
+      <c r="L46" s="10"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A47" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="G47" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="H47" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I40" s="2" t="s">
+      <c r="I47" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2" t="s">
+      <c r="J47" s="10"/>
+      <c r="K47" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="L40" s="2"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A41" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2" t="s">
+      <c r="L47" s="10"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A48" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="G48" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="H48" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I41" s="2" t="s">
+      <c r="I48" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2" t="s">
+      <c r="J48" s="10"/>
+      <c r="K48" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="L41" s="2"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A42" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="L42" s="2"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A43" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="L43" s="2"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A44" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="L44" s="2"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A45" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="L45" s="2"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A46" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="L46" s="2"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A47" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="L47" s="2"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A48" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="L48" s="2"/>
+      <c r="L48" s="10"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
+      <c r="A51" s="10"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
+      <c r="A53" s="10"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
+      <c r="A55" s="10"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="10"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
+      <c r="A57" s="10"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="10"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
+      <c r="A58" s="10"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
-      <c r="K59" s="2"/>
-      <c r="L59" s="2"/>
+      <c r="A59" s="10"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="10"/>
+      <c r="L59" s="10"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
+      <c r="A60" s="10"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
+      <c r="A61" s="10"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="10"/>
+      <c r="L61" s="10"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
-      <c r="L62" s="2"/>
+      <c r="A62" s="10"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="10"/>
+      <c r="L62" s="10"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
-      <c r="K63" s="2"/>
-      <c r="L63" s="2"/>
+      <c r="A63" s="10"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="10"/>
+      <c r="L63" s="10"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
-      <c r="K64" s="2"/>
-      <c r="L64" s="2"/>
+      <c r="A64" s="10"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="10"/>
+      <c r="L64" s="10"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
-      <c r="K65" s="2"/>
-      <c r="L65" s="2"/>
+      <c r="A65" s="10"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="10"/>
+      <c r="K65" s="10"/>
+      <c r="L65" s="10"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
-      <c r="K66" s="2"/>
-      <c r="L66" s="2"/>
+      <c r="A66" s="10"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="10"/>
+      <c r="L66" s="10"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
-      <c r="K67" s="2"/>
-      <c r="L67" s="2"/>
+      <c r="A67" s="10"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="10"/>
+      <c r="K67" s="10"/>
+      <c r="L67" s="10"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
-      <c r="K68" s="2"/>
-      <c r="L68" s="2"/>
+      <c r="A68" s="10"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="10"/>
+      <c r="K68" s="10"/>
+      <c r="L68" s="10"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
-      <c r="K69" s="2"/>
-      <c r="L69" s="2"/>
+      <c r="A69" s="10"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="10"/>
+      <c r="L69" s="10"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
-      <c r="K70" s="2"/>
-      <c r="L70" s="2"/>
+      <c r="A70" s="10"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="10"/>
+      <c r="K70" s="10"/>
+      <c r="L70" s="10"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
-      <c r="J71" s="2"/>
-      <c r="K71" s="2"/>
-      <c r="L71" s="2"/>
+      <c r="A71" s="10"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="10"/>
+      <c r="K71" s="10"/>
+      <c r="L71" s="10"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
-      <c r="J72" s="2"/>
-      <c r="K72" s="2"/>
-      <c r="L72" s="2"/>
+      <c r="A72" s="10"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="10"/>
+      <c r="J72" s="10"/>
+      <c r="K72" s="10"/>
+      <c r="L72" s="10"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
-      <c r="I73" s="2"/>
-      <c r="J73" s="2"/>
-      <c r="K73" s="2"/>
-      <c r="L73" s="2"/>
+      <c r="A73" s="10"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
+      <c r="I73" s="10"/>
+      <c r="J73" s="10"/>
+      <c r="K73" s="10"/>
+      <c r="L73" s="10"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
-      <c r="I74" s="2"/>
-      <c r="J74" s="2"/>
-      <c r="K74" s="2"/>
-      <c r="L74" s="2"/>
+      <c r="A74" s="10"/>
+      <c r="B74" s="10"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10"/>
+      <c r="K74" s="10"/>
+      <c r="L74" s="10"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
-      <c r="J75" s="2"/>
-      <c r="K75" s="2"/>
-      <c r="L75" s="2"/>
+      <c r="A75" s="10"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="10"/>
+      <c r="J75" s="10"/>
+      <c r="K75" s="10"/>
+      <c r="L75" s="10"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="2"/>
-      <c r="J76" s="2"/>
-      <c r="K76" s="2"/>
-      <c r="L76" s="2"/>
+      <c r="A76" s="10"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="10"/>
+      <c r="J76" s="10"/>
+      <c r="K76" s="10"/>
+      <c r="L76" s="10"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
-      <c r="J77" s="2"/>
-      <c r="K77" s="2"/>
-      <c r="L77" s="2"/>
+      <c r="A77" s="10"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="10"/>
+      <c r="J77" s="10"/>
+      <c r="K77" s="10"/>
+      <c r="L77" s="10"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="2"/>
-      <c r="J78" s="2"/>
-      <c r="K78" s="2"/>
-      <c r="L78" s="2"/>
+      <c r="A78" s="10"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="10"/>
+      <c r="I78" s="10"/>
+      <c r="J78" s="10"/>
+      <c r="K78" s="10"/>
+      <c r="L78" s="10"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="2"/>
-      <c r="J79" s="2"/>
-      <c r="K79" s="2"/>
-      <c r="L79" s="2"/>
+      <c r="A79" s="10"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10"/>
+      <c r="I79" s="10"/>
+      <c r="J79" s="10"/>
+      <c r="K79" s="10"/>
+      <c r="L79" s="10"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="2"/>
-      <c r="J80" s="2"/>
-      <c r="K80" s="2"/>
-      <c r="L80" s="2"/>
+      <c r="A80" s="10"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="10"/>
+      <c r="I80" s="10"/>
+      <c r="J80" s="10"/>
+      <c r="K80" s="10"/>
+      <c r="L80" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L80" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
@@ -3695,12 +3744,12 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I80" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
       <formula1>"VARCHAR,INT,DECIMAL,DATE,TIMESTAMP"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L80 C2:F80" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:F80" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
       <formula1>",1"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="29" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="26" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3723,2141 +3772,2141 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="5" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G2" s="8" t="s">
+      <c r="D2" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G3" s="8" t="s">
+      <c r="D3" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G4" s="8" t="s">
+      <c r="D4" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="8" t="s">
+      <c r="E5" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G6" s="8" t="s">
+      <c r="E6" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G7" s="8" t="s">
+      <c r="D7" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G8" s="8" t="s">
+      <c r="D8" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G9" s="8" t="s">
+      <c r="D9" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G10" s="8" t="s">
+      <c r="D10" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G11" s="8" t="s">
+      <c r="D11" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G12" s="8" t="s">
+      <c r="E12" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G13" s="8" t="s">
+      <c r="E13" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G14" s="8" t="s">
+      <c r="D14" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G15" s="8" t="s">
+      <c r="D15" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G16" s="8" t="s">
+      <c r="D16" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="8" t="s">
+      <c r="D17" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G18" s="8" t="s">
+      <c r="D18" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E19" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G19" s="8" t="s">
+      <c r="E19" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E20" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G20" s="8" t="s">
+      <c r="E20" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G21" s="8" t="s">
+      <c r="D21" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G22" s="8" t="s">
+      <c r="D22" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G23" s="8" t="s">
+      <c r="D23" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G23" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E24" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G24" s="8" t="s">
+      <c r="E24" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E25" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G25" s="8" t="s">
+      <c r="E25" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E26" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G26" s="8" t="s">
+      <c r="E26" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G26" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E27" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G27" s="8" t="s">
+      <c r="E27" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G27" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="D28" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G28" s="8" t="s">
+      <c r="D28" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G28" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="D29" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G29" s="8" t="s">
+      <c r="D29" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G29" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="D30" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G30" s="8" t="s">
+      <c r="D30" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G30" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="D31" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G31" s="8" t="s">
+      <c r="D31" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G31" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="D32" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G32" s="8" t="s">
+      <c r="D32" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G32" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E33" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G33" s="8" t="s">
+      <c r="E33" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G33" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E34" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G34" s="8" t="s">
+      <c r="E34" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G34" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="D35" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G35" s="8" t="s">
+      <c r="D35" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G35" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="D36" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G36" s="8" t="s">
+      <c r="D36" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G36" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="D37" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G37" s="8" t="s">
+      <c r="D37" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G37" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="D38" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G38" s="8" t="s">
+      <c r="D38" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G38" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="D39" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G39" s="8" t="s">
+      <c r="D39" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G39" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E40" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G40" s="8" t="s">
+      <c r="E40" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G40" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E41" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G41" s="8" t="s">
+      <c r="E41" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G41" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D42" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E42" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G42" s="8" t="s">
+      <c r="E42" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G42" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="D43" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G43" s="8" t="s">
+      <c r="D43" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G43" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="D44" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G44" s="8" t="s">
+      <c r="D44" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G44" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="D45" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G45" s="8" t="s">
+      <c r="D45" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G45" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="D46" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G46" s="8" t="s">
+      <c r="D46" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G46" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D47" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E47" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G47" s="8" t="s">
+      <c r="E47" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G47" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="D48" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E48" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G48" s="8" t="s">
+      <c r="E48" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G48" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="D49" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G49" s="8" t="s">
+      <c r="D49" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G49" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A50" s="8" t="s">
+      <c r="A50" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="D50" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G50" s="8" t="s">
+      <c r="D50" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G50" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="D51" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G51" s="8" t="s">
+      <c r="D51" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G51" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A52" s="8" t="s">
+      <c r="A52" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="D52" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G52" s="8" t="s">
+      <c r="D52" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G52" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E53" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G53" s="8" t="s">
+      <c r="E53" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G53" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A54" s="8" t="s">
+      <c r="A54" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="D54" s="9" t="s">
+      <c r="D54" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E54" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G54" s="8" t="s">
+      <c r="E54" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G54" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A55" s="8" t="s">
+      <c r="A55" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="D55" s="9" t="s">
+      <c r="D55" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E55" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G55" s="8" t="s">
+      <c r="E55" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G55" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A56" s="8" t="s">
+      <c r="A56" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="D56" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G56" s="8" t="s">
+      <c r="D56" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G56" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="D57" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G57" s="8" t="s">
+      <c r="D57" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G57" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A58" s="8" t="s">
+      <c r="A58" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C58" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="D58" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G58" s="8" t="s">
+      <c r="D58" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G58" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A59" s="8" t="s">
+      <c r="A59" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="D59" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G59" s="8" t="s">
+      <c r="D59" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G59" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A60" s="8" t="s">
+      <c r="A60" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="D60" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G60" s="8" t="s">
+      <c r="D60" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G60" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A61" s="8" t="s">
+      <c r="A61" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="D61" s="9" t="s">
+      <c r="D61" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E61" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G61" s="8" t="s">
+      <c r="E61" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G61" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A62" s="8" t="s">
+      <c r="A62" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C62" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="D62" s="9" t="s">
+      <c r="D62" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E62" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F62" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G62" s="8" t="s">
+      <c r="E62" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G62" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A63" s="8" t="s">
+      <c r="A63" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="D63" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F63" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G63" s="8" t="s">
+      <c r="D63" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G63" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A64" s="8" t="s">
+      <c r="A64" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="D64" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F64" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G64" s="8" t="s">
+      <c r="D64" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G64" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A65" s="8" t="s">
+      <c r="A65" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C65" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="D65" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G65" s="8" t="s">
+      <c r="D65" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G65" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A66" s="8" t="s">
+      <c r="A66" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C66" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="D66" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E66" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F66" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G66" s="8" t="s">
+      <c r="D66" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G66" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A67" s="8" t="s">
+      <c r="A67" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C67" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="D67" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E67" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F67" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G67" s="8" t="s">
+      <c r="E67" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G67" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A68" s="8" t="s">
+      <c r="A68" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C68" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="D68" s="9" t="s">
+      <c r="D68" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E68" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F68" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G68" s="8" t="s">
+      <c r="E68" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G68" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A69" s="8" t="s">
+      <c r="A69" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="D69" s="9" t="s">
+      <c r="D69" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E69" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F69" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G69" s="8" t="s">
+      <c r="E69" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G69" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A70" s="8" t="s">
+      <c r="A70" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C70" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="D70" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E70" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F70" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G70" s="8" t="s">
+      <c r="D70" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G70" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A71" s="8" t="s">
+      <c r="A71" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C71" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="D71" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E71" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F71" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G71" s="8" t="s">
+      <c r="D71" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G71" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A72" s="8" t="s">
+      <c r="A72" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="B72" s="8" t="s">
+      <c r="B72" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C72" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="D72" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E72" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F72" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G72" s="8" t="s">
+      <c r="D72" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G72" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A73" s="8" t="s">
+      <c r="A73" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B73" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C73" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="D73" s="8" t="s">
+      <c r="D73" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E73" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F73" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G73" s="8" t="s">
+      <c r="E73" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G73" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A74" s="8" t="s">
+      <c r="A74" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B74" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C74" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="D74" s="8" t="s">
+      <c r="D74" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E74" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F74" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G74" s="8" t="s">
+      <c r="E74" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G74" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A75" s="8" t="s">
+      <c r="A75" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="B75" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C75" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="D75" s="9" t="s">
+      <c r="D75" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E75" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F75" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G75" s="8" t="s">
+      <c r="E75" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G75" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A76" s="8" t="s">
+      <c r="A76" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C76" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="D76" s="9" t="s">
+      <c r="D76" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E76" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F76" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G76" s="8" t="s">
+      <c r="E76" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G76" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A77" s="8" t="s">
+      <c r="A77" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="B77" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C77" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="D77" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F77" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G77" s="8" t="s">
+      <c r="D77" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G77" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A78" s="8" t="s">
+      <c r="A78" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="B78" s="8" t="s">
+      <c r="B78" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C78" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="D78" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E78" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F78" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G78" s="8" t="s">
+      <c r="D78" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G78" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A79" s="8" t="s">
+      <c r="A79" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="B79" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C79" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="D79" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E79" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F79" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G79" s="8" t="s">
+      <c r="D79" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G79" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A80" s="8" t="s">
+      <c r="A80" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B80" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="C80" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="D80" s="8" t="s">
+      <c r="D80" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E80" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F80" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G80" s="8" t="s">
+      <c r="E80" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G80" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A81" s="8" t="s">
+      <c r="A81" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="B81" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C81" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="D81" s="8" t="s">
+      <c r="D81" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E81" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F81" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G81" s="8" t="s">
+      <c r="E81" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G81" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A82" s="8" t="s">
+      <c r="A82" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="B82" s="8" t="s">
+      <c r="B82" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="C82" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="D82" s="9" t="s">
+      <c r="D82" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E82" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F82" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G82" s="8" t="s">
+      <c r="E82" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G82" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="B83" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="C83" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="D83" s="9" t="s">
+      <c r="D83" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E83" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F83" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G83" s="8" t="s">
+      <c r="E83" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G83" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A84" s="8" t="s">
+      <c r="A84" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="B84" s="8" t="s">
+      <c r="B84" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="C84" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="D84" s="9" t="s">
+      <c r="D84" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E84" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F84" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G84" s="8" t="s">
+      <c r="E84" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G84" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A85" s="8" t="s">
+      <c r="A85" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="B85" s="8" t="s">
+      <c r="B85" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="C85" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="D85" s="9" t="s">
+      <c r="D85" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E85" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F85" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G85" s="8" t="s">
+      <c r="E85" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G85" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A86" s="8" t="s">
+      <c r="A86" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="B86" s="8" t="s">
+      <c r="B86" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="C86" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="D86" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E86" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F86" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G86" s="8" t="s">
+      <c r="D86" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G86" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A87" s="8" t="s">
+      <c r="A87" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="B87" s="8" t="s">
+      <c r="B87" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="C87" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="D87" s="8" t="s">
+      <c r="D87" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E87" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F87" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G87" s="8" t="s">
+      <c r="E87" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G87" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A88" s="8" t="s">
+      <c r="A88" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="B88" s="8" t="s">
+      <c r="B88" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="C88" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="D88" s="8" t="s">
+      <c r="D88" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E88" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F88" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G88" s="8" t="s">
+      <c r="E88" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G88" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A89" s="8" t="s">
+      <c r="A89" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="B89" s="8" t="s">
+      <c r="B89" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="C89" s="8" t="s">
+      <c r="C89" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="D89" s="9" t="s">
+      <c r="D89" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E89" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F89" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G89" s="8" t="s">
+      <c r="E89" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G89" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A90" s="8" t="s">
+      <c r="A90" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="B90" s="8" t="s">
+      <c r="B90" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="C90" s="8" t="s">
+      <c r="C90" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="D90" s="9" t="s">
+      <c r="D90" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E90" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F90" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G90" s="8" t="s">
+      <c r="E90" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G90" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A91" s="8" t="s">
+      <c r="A91" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="B91" s="8" t="s">
+      <c r="B91" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="C91" s="8" t="s">
+      <c r="C91" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="D91" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E91" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F91" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G91" s="8" t="s">
+      <c r="D91" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G91" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A92" s="8" t="s">
+      <c r="A92" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="B92" s="8" t="s">
+      <c r="B92" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="C92" s="8" t="s">
+      <c r="C92" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="D92" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E92" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F92" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G92" s="8" t="s">
+      <c r="D92" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G92" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A93" s="8" t="s">
+      <c r="A93" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="B93" s="8" t="s">
+      <c r="B93" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="C93" s="8" t="s">
+      <c r="C93" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="D93" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E93" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F93" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G93" s="8" t="s">
+      <c r="D93" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G93" s="6" t="s">
         <v>99</v>
       </c>
     </row>

--- a/joshua-docs/02_design/90_db/90_DB設計.xlsx
+++ b/joshua-docs/02_design/90_db/90_DB設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\joshua-app\git\joshua\joshua-docs\02_design\90_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBEF4FD9-4012-49AC-8F06-04139172242C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341909D7-C5AA-465F-B7EB-D2AC65767FE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="3120" windowWidth="23100" windowHeight="12855" tabRatio="411" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="-28920" yWindow="1755" windowWidth="29040" windowHeight="16440" tabRatio="411" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
@@ -351,10 +351,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>STATUS</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>NOTE</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1367,6 +1363,10 @@
   </si>
   <si>
     <t>jp.co.joshua.common.db.type.Weekday</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WORK_AUTH_STATUS</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1867,9 +1867,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4943154E-E197-4DDD-ACD8-DEAC3E0A272D}">
   <dimension ref="A1:L80"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K37" sqref="K37"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1924,7 +1924,7 @@
         <v>1</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="37.5" x14ac:dyDescent="0.4">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L2" s="10"/>
     </row>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L4" s="10"/>
     </row>
@@ -2041,7 +2041,7 @@
       </c>
       <c r="J5" s="10"/>
       <c r="K5" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L5" s="10"/>
     </row>
@@ -2069,7 +2069,7 @@
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L6" s="10"/>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="J7" s="10"/>
       <c r="K7" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L7" s="10"/>
     </row>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="J8" s="10"/>
       <c r="K8" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L8" s="10"/>
     </row>
@@ -2157,7 +2157,7 @@
       </c>
       <c r="J9" s="10"/>
       <c r="K9" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L9" s="10"/>
     </row>
@@ -2189,7 +2189,7 @@
         <v>32</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L10" s="10"/>
     </row>
@@ -2217,7 +2217,7 @@
       </c>
       <c r="J11" s="10"/>
       <c r="K11" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L11" s="10"/>
     </row>
@@ -2245,7 +2245,7 @@
       </c>
       <c r="J12" s="10"/>
       <c r="K12" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L12" s="10"/>
     </row>
@@ -2273,13 +2273,13 @@
       </c>
       <c r="J13" s="10"/>
       <c r="K13" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L13" s="10"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>44</v>
@@ -2305,7 +2305,7 @@
       </c>
       <c r="J14" s="10"/>
       <c r="K14" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L14" s="10"/>
     </row>
@@ -2333,7 +2333,7 @@
       </c>
       <c r="J15" s="10"/>
       <c r="K15" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L15" s="10"/>
     </row>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="J16" s="10"/>
       <c r="K16" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L16" s="10"/>
     </row>
@@ -2389,7 +2389,7 @@
       </c>
       <c r="J17" s="10"/>
       <c r="K17" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L17" s="10"/>
     </row>
@@ -2417,7 +2417,7 @@
       </c>
       <c r="J18" s="10"/>
       <c r="K18" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L18" s="10"/>
     </row>
@@ -2445,7 +2445,7 @@
       </c>
       <c r="J19" s="10"/>
       <c r="K19" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L19" s="10"/>
     </row>
@@ -2473,7 +2473,7 @@
       </c>
       <c r="J20" s="10"/>
       <c r="K20" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L20" s="10"/>
     </row>
@@ -2501,16 +2501,16 @@
       </c>
       <c r="J21" s="10"/>
       <c r="K21" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L21" s="10"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>13</v>
@@ -2523,26 +2523,26 @@
         <v>13</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>16</v>
       </c>
       <c r="J22" s="10"/>
       <c r="K22" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L22" s="10"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
@@ -2561,16 +2561,16 @@
       </c>
       <c r="J23" s="10"/>
       <c r="K23" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L23" s="10"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
@@ -2579,26 +2579,26 @@
         <v>13</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>16</v>
       </c>
       <c r="J24" s="10"/>
       <c r="K24" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L24" s="10"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -2617,16 +2617,16 @@
       </c>
       <c r="J25" s="10"/>
       <c r="K25" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L25" s="10"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
@@ -2645,16 +2645,16 @@
       </c>
       <c r="J26" s="10"/>
       <c r="K26" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L26" s="10"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
@@ -2673,16 +2673,16 @@
       </c>
       <c r="J27" s="10"/>
       <c r="K27" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L27" s="10"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>13</v>
@@ -2695,26 +2695,26 @@
         <v>13</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>16</v>
       </c>
       <c r="J28" s="10"/>
       <c r="K28" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L28" s="10"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
@@ -2733,16 +2733,16 @@
       </c>
       <c r="J29" s="10"/>
       <c r="K29" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L29" s="10"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A30" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -2761,16 +2761,16 @@
       </c>
       <c r="J30" s="10"/>
       <c r="K30" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L30" s="10"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A31" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -2789,16 +2789,16 @@
       </c>
       <c r="J31" s="10"/>
       <c r="K31" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L31" s="10"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A32" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
@@ -2817,7 +2817,7 @@
       </c>
       <c r="J32" s="10"/>
       <c r="K32" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L32" s="10"/>
     </row>
@@ -2849,7 +2849,7 @@
       </c>
       <c r="J33" s="10"/>
       <c r="K33" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L33" s="10"/>
     </row>
@@ -2867,17 +2867,17 @@
         <v>13</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I34" s="10" t="s">
         <v>16</v>
       </c>
       <c r="J34" s="10"/>
       <c r="K34" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="L34" s="10"/>
     </row>
@@ -2895,17 +2895,17 @@
         <v>13</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I35" s="10" t="s">
         <v>20</v>
       </c>
       <c r="J35" s="10"/>
       <c r="K35" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L35" s="10"/>
     </row>
@@ -2923,17 +2923,17 @@
         <v>13</v>
       </c>
       <c r="G36" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="H36" s="10" t="s">
         <v>297</v>
-      </c>
-      <c r="H36" s="10" t="s">
-        <v>298</v>
       </c>
       <c r="I36" s="10" t="s">
         <v>20</v>
       </c>
       <c r="J36" s="10"/>
       <c r="K36" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L36" s="10"/>
     </row>
@@ -2954,19 +2954,19 @@
         <v>59</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>63</v>
+        <v>318</v>
       </c>
       <c r="I37" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="J37" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="K37" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="L37" s="13" t="s">
         <v>315</v>
-      </c>
-      <c r="J37" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="K37" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="L37" s="13" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.4">
@@ -2984,7 +2984,7 @@
         <v>60</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I38" s="10" t="s">
         <v>28</v>
@@ -2993,7 +2993,7 @@
         <v>32</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L38" s="10"/>
     </row>
@@ -3021,7 +3021,7 @@
       </c>
       <c r="J39" s="10"/>
       <c r="K39" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L39" s="10"/>
     </row>
@@ -3049,7 +3049,7 @@
       </c>
       <c r="J40" s="10"/>
       <c r="K40" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L40" s="10"/>
     </row>
@@ -3077,16 +3077,16 @@
       </c>
       <c r="J41" s="10"/>
       <c r="K41" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L41" s="10"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A42" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" s="10" t="s">
         <v>82</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>83</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>13</v>
@@ -3099,26 +3099,26 @@
         <v>13</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I42" s="10" t="s">
         <v>16</v>
       </c>
       <c r="J42" s="10"/>
       <c r="K42" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L42" s="10"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A43" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" s="10" t="s">
         <v>82</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>83</v>
       </c>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
@@ -3127,26 +3127,26 @@
         <v>13</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I43" s="10" t="s">
         <v>29</v>
       </c>
       <c r="J43" s="10"/>
       <c r="K43" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L43" s="10"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A44" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" s="10" t="s">
         <v>82</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>83</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
@@ -3155,30 +3155,30 @@
         <v>13</v>
       </c>
       <c r="G44" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="I44" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="H44" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="I44" s="10" t="s">
+      <c r="J44" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="J44" s="10" t="s">
-        <v>285</v>
-      </c>
       <c r="K44" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L44" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A45" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B45" s="10" t="s">
         <v>82</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>83</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
@@ -3187,10 +3187,10 @@
         <v>13</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I45" s="10" t="s">
         <v>28</v>
@@ -3199,18 +3199,18 @@
         <v>36</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L45" s="13" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A46" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" s="10" t="s">
         <v>82</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>83</v>
       </c>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
@@ -3229,16 +3229,16 @@
       </c>
       <c r="J46" s="10"/>
       <c r="K46" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L46" s="10"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A47" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B47" s="10" t="s">
         <v>82</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>83</v>
       </c>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
@@ -3257,16 +3257,16 @@
       </c>
       <c r="J47" s="10"/>
       <c r="K47" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L47" s="10"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A48" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B48" s="10" t="s">
         <v>82</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>83</v>
       </c>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="J48" s="10"/>
       <c r="K48" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L48" s="10"/>
     </row>
@@ -3773,2141 +3773,2141 @@
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>96</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A49" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A51" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A52" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A53" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A54" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A55" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A56" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A57" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A58" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A59" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A60" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A61" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A62" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A63" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A64" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A65" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A66" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A67" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A68" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A69" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A70" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A71" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A72" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A73" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D73" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A74" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A75" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A76" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A77" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A78" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A79" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A80" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D80" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A81" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D81" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A82" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A83" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A84" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A85" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A86" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A87" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D87" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A88" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D88" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A89" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A90" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A91" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A92" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A93" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/joshua-docs/02_design/90_db/90_DB設計.xlsx
+++ b/joshua-docs/02_design/90_db/90_DB設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\joshua-app\git\joshua\joshua-docs\02_design\90_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341909D7-C5AA-465F-B7EB-D2AC65767FE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359A33FC-ED79-4AEF-A4A6-4DFFFCCCAA12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1755" windowWidth="29040" windowHeight="16440" tabRatio="411" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="-18240" yWindow="3765" windowWidth="18060" windowHeight="11085" tabRatio="411" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="323">
   <si>
     <t>PRIMARY_KEY</t>
     <phoneticPr fontId="1"/>
@@ -1367,6 +1367,25 @@
   </si>
   <si>
     <t>WORK_AUTH_STATUS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤怠ユーザ履歴マスタ</t>
+    <rPh sb="5" eb="7">
+      <t>リレキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WORK_USER_HIST_MT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤怠ユーザ履歴マスタID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEQ_WORK_USER_HIST_MT_ID</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1505,7 +1524,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1550,6 +1569,9 @@
     </xf>
     <xf numFmtId="49" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1865,11 +1887,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4943154E-E197-4DDD-ACD8-DEAC3E0A272D}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L80"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H38" sqref="H38"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1927,7 +1950,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" ht="37.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
@@ -1959,7 +1982,7 @@
       </c>
       <c r="L2" s="10"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
         <v>12</v>
       </c>
@@ -1989,7 +2012,7 @@
       </c>
       <c r="L3" s="10"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
         <v>12</v>
       </c>
@@ -2017,7 +2040,7 @@
       </c>
       <c r="L4" s="10"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
         <v>12</v>
       </c>
@@ -2045,7 +2068,7 @@
       </c>
       <c r="L5" s="10"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A6" s="10" t="s">
         <v>12</v>
       </c>
@@ -2073,7 +2096,7 @@
       </c>
       <c r="L6" s="10"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="s">
         <v>12</v>
       </c>
@@ -2101,7 +2124,7 @@
       </c>
       <c r="L7" s="10"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
         <v>37</v>
       </c>
@@ -2133,7 +2156,7 @@
       </c>
       <c r="L8" s="10"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A9" s="10" t="s">
         <v>37</v>
       </c>
@@ -2161,7 +2184,7 @@
       </c>
       <c r="L9" s="10"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A10" s="10" t="s">
         <v>37</v>
       </c>
@@ -2193,7 +2216,7 @@
       </c>
       <c r="L10" s="10"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A11" s="10" t="s">
         <v>37</v>
       </c>
@@ -2221,7 +2244,7 @@
       </c>
       <c r="L11" s="10"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A12" s="10" t="s">
         <v>37</v>
       </c>
@@ -2249,7 +2272,7 @@
       </c>
       <c r="L12" s="10"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A13" s="10" t="s">
         <v>37</v>
       </c>
@@ -2277,7 +2300,7 @@
       </c>
       <c r="L13" s="10"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A14" s="10" t="s">
         <v>77</v>
       </c>
@@ -2309,7 +2332,7 @@
       </c>
       <c r="L14" s="10"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A15" s="10" t="s">
         <v>43</v>
       </c>
@@ -2337,7 +2360,7 @@
       </c>
       <c r="L15" s="10"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A16" s="10" t="s">
         <v>43</v>
       </c>
@@ -2365,7 +2388,7 @@
       </c>
       <c r="L16" s="10"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A17" s="10" t="s">
         <v>43</v>
       </c>
@@ -2393,7 +2416,7 @@
       </c>
       <c r="L17" s="10"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A18" s="10" t="s">
         <v>43</v>
       </c>
@@ -2421,7 +2444,7 @@
       </c>
       <c r="L18" s="10"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A19" s="10" t="s">
         <v>43</v>
       </c>
@@ -2449,7 +2472,7 @@
       </c>
       <c r="L19" s="10"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A20" s="10" t="s">
         <v>43</v>
       </c>
@@ -2477,7 +2500,7 @@
       </c>
       <c r="L20" s="10"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A21" s="10" t="s">
         <v>43</v>
       </c>
@@ -2821,7 +2844,7 @@
       </c>
       <c r="L32" s="10"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A33" s="10" t="s">
         <v>57</v>
       </c>
@@ -2853,7 +2876,7 @@
       </c>
       <c r="L33" s="10"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A34" s="10" t="s">
         <v>57</v>
       </c>
@@ -2881,7 +2904,7 @@
       </c>
       <c r="L34" s="10"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A35" s="10" t="s">
         <v>57</v>
       </c>
@@ -2909,7 +2932,7 @@
       </c>
       <c r="L35" s="10"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A36" s="10" t="s">
         <v>57</v>
       </c>
@@ -2937,7 +2960,7 @@
       </c>
       <c r="L36" s="10"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A37" s="10" t="s">
         <v>57</v>
       </c>
@@ -2969,7 +2992,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A38" s="10" t="s">
         <v>57</v>
       </c>
@@ -2997,7 +3020,7 @@
       </c>
       <c r="L38" s="10"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A39" s="10" t="s">
         <v>57</v>
       </c>
@@ -3025,7 +3048,7 @@
       </c>
       <c r="L39" s="10"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A40" s="10" t="s">
         <v>57</v>
       </c>
@@ -3053,7 +3076,7 @@
       </c>
       <c r="L40" s="10"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A41" s="10" t="s">
         <v>57</v>
       </c>
@@ -3081,7 +3104,7 @@
       </c>
       <c r="L41" s="10"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A42" s="10" t="s">
         <v>81</v>
       </c>
@@ -3113,7 +3136,7 @@
       </c>
       <c r="L42" s="10"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A43" s="10" t="s">
         <v>81</v>
       </c>
@@ -3141,7 +3164,7 @@
       </c>
       <c r="L43" s="10"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A44" s="10" t="s">
         <v>81</v>
       </c>
@@ -3173,7 +3196,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A45" s="10" t="s">
         <v>81</v>
       </c>
@@ -3205,7 +3228,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A46" s="10" t="s">
         <v>81</v>
       </c>
@@ -3233,7 +3256,7 @@
       </c>
       <c r="L46" s="10"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A47" s="10" t="s">
         <v>81</v>
       </c>
@@ -3261,7 +3284,7 @@
       </c>
       <c r="L47" s="10"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A48" s="10" t="s">
         <v>81</v>
       </c>
@@ -3289,117 +3312,233 @@
       </c>
       <c r="L48" s="10"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A49" s="10"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A50" s="10"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
-      <c r="L50" s="10"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A51" s="10"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10"/>
-      <c r="L51" s="10"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A52" s="10"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
-      <c r="L52" s="10"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A53" s="10"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
-      <c r="L53" s="10"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A54" s="10"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="10"/>
-      <c r="K54" s="10"/>
-      <c r="L54" s="10"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A55" s="10"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="10"/>
-      <c r="K55" s="10"/>
-      <c r="L55" s="10"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A56" s="10"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="10"/>
-      <c r="K56" s="10"/>
-      <c r="L56" s="10"/>
+    <row r="49" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="I49" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="L49" s="13"/>
+    </row>
+    <row r="50" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="H50" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="I50" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J50" s="13"/>
+      <c r="K50" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="L50" s="13"/>
+    </row>
+    <row r="51" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="I51" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J51" s="13"/>
+      <c r="K51" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="L51" s="13"/>
+    </row>
+    <row r="52" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I52" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J52" s="13"/>
+      <c r="K52" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="L52" s="13"/>
+    </row>
+    <row r="53" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I53" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J53" s="13"/>
+      <c r="K53" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="L53" s="13"/>
+    </row>
+    <row r="54" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I54" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J54" s="13"/>
+      <c r="K54" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="L54" s="13"/>
+    </row>
+    <row r="55" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H55" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I55" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J55" s="13"/>
+      <c r="K55" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="L55" s="13"/>
+    </row>
+    <row r="56" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H56" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I56" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J56" s="13"/>
+      <c r="K56" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L56" s="13"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A57" s="10"/>
@@ -3485,7 +3624,7 @@
       <c r="K62" s="10"/>
       <c r="L62" s="10"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -3499,7 +3638,7 @@
       <c r="K63" s="10"/>
       <c r="L63" s="10"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A64" s="10"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -3513,7 +3652,7 @@
       <c r="K64" s="10"/>
       <c r="L64" s="10"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A65" s="10"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -3527,7 +3666,7 @@
       <c r="K65" s="10"/>
       <c r="L65" s="10"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A66" s="10"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -3541,7 +3680,7 @@
       <c r="K66" s="10"/>
       <c r="L66" s="10"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A67" s="10"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
@@ -3555,7 +3694,7 @@
       <c r="K67" s="10"/>
       <c r="L67" s="10"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A68" s="10"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -3569,7 +3708,7 @@
       <c r="K68" s="10"/>
       <c r="L68" s="10"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A69" s="10"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -3583,7 +3722,7 @@
       <c r="K69" s="10"/>
       <c r="L69" s="10"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A70" s="10"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
@@ -3597,7 +3736,7 @@
       <c r="K70" s="10"/>
       <c r="L70" s="10"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A71" s="10"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -3611,7 +3750,7 @@
       <c r="K71" s="10"/>
       <c r="L71" s="10"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A72" s="10"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
@@ -3625,7 +3764,7 @@
       <c r="K72" s="10"/>
       <c r="L72" s="10"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A73" s="10"/>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
@@ -3639,7 +3778,7 @@
       <c r="K73" s="10"/>
       <c r="L73" s="10"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A74" s="10"/>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
@@ -3653,7 +3792,7 @@
       <c r="K74" s="10"/>
       <c r="L74" s="10"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A75" s="10"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
@@ -3667,7 +3806,7 @@
       <c r="K75" s="10"/>
       <c r="L75" s="10"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A76" s="10"/>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
@@ -3681,7 +3820,7 @@
       <c r="K76" s="10"/>
       <c r="L76" s="10"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A77" s="10"/>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
@@ -3695,7 +3834,7 @@
       <c r="K77" s="10"/>
       <c r="L77" s="10"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A78" s="10"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
@@ -3709,7 +3848,7 @@
       <c r="K78" s="10"/>
       <c r="L78" s="10"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A79" s="10"/>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
@@ -3723,7 +3862,7 @@
       <c r="K79" s="10"/>
       <c r="L79" s="10"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
       <c r="A80" s="10"/>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
@@ -3738,7 +3877,15 @@
       <c r="L80" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L80" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
+  <autoFilter ref="A1:L80" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="勤怠ユーザ管理マスタ"/>
+        <filter val="勤怠ユーザ詳細マスタ"/>
+        <filter val="勤怠ユーザ履歴マスタ"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I80" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">

--- a/joshua-docs/02_design/90_db/90_DB設計.xlsx
+++ b/joshua-docs/02_design/90_db/90_DB設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\joshua-app\git\joshua\joshua-docs\02_design\90_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359A33FC-ED79-4AEF-A4A6-4DFFFCCCAA12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434511AA-6C55-4DDE-8A93-D116BA4C81EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18240" yWindow="3765" windowWidth="18060" windowHeight="11085" tabRatio="411" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="17790" tabRatio="411" activeTab="1" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1944" uniqueCount="569">
   <si>
     <t>PRIMARY_KEY</t>
     <phoneticPr fontId="1"/>
@@ -1387,6 +1387,752 @@
   <si>
     <t>SEQ_WORK_USER_HIST_MT_ID</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>2020/10/01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020/10/02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020/10/03</t>
+  </si>
+  <si>
+    <t>2020/10/04</t>
+  </si>
+  <si>
+    <t>2020/10/05</t>
+  </si>
+  <si>
+    <t>2020/10/06</t>
+  </si>
+  <si>
+    <t>2020/10/07</t>
+  </si>
+  <si>
+    <t>2020/10/08</t>
+  </si>
+  <si>
+    <t>2020/10/09</t>
+  </si>
+  <si>
+    <t>2020/10/10</t>
+  </si>
+  <si>
+    <t>2020/10/11</t>
+  </si>
+  <si>
+    <t>2020/10/12</t>
+  </si>
+  <si>
+    <t>2020/10/13</t>
+  </si>
+  <si>
+    <t>2020/10/14</t>
+  </si>
+  <si>
+    <t>2020/10/15</t>
+  </si>
+  <si>
+    <t>2020/10/16</t>
+  </si>
+  <si>
+    <t>2020/10/17</t>
+  </si>
+  <si>
+    <t>2020/10/18</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>2020/10/19</t>
+  </si>
+  <si>
+    <t>2020/10/20</t>
+  </si>
+  <si>
+    <t>2020/10/21</t>
+  </si>
+  <si>
+    <t>2020/10/22</t>
+  </si>
+  <si>
+    <t>2020/10/23</t>
+  </si>
+  <si>
+    <t>2020/10/24</t>
+  </si>
+  <si>
+    <t>2020/10/25</t>
+  </si>
+  <si>
+    <t>2020/10/26</t>
+  </si>
+  <si>
+    <t>2020/10/27</t>
+  </si>
+  <si>
+    <t>2020/10/28</t>
+  </si>
+  <si>
+    <t>2020/10/29</t>
+  </si>
+  <si>
+    <t>2020/10/30</t>
+  </si>
+  <si>
+    <t>2020/10/31</t>
+  </si>
+  <si>
+    <t>2020/11/01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020/11/02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020/11/03</t>
+  </si>
+  <si>
+    <t>2020/11/04</t>
+  </si>
+  <si>
+    <t>2020/11/05</t>
+  </si>
+  <si>
+    <t>2020/11/06</t>
+  </si>
+  <si>
+    <t>2020/11/07</t>
+  </si>
+  <si>
+    <t>2020/11/08</t>
+  </si>
+  <si>
+    <t>2020/11/09</t>
+  </si>
+  <si>
+    <t>2020/11/10</t>
+  </si>
+  <si>
+    <t>2020/11/11</t>
+  </si>
+  <si>
+    <t>2020/11/12</t>
+  </si>
+  <si>
+    <t>2020/11/13</t>
+  </si>
+  <si>
+    <t>2020/11/14</t>
+  </si>
+  <si>
+    <t>2020/11/15</t>
+  </si>
+  <si>
+    <t>2020/11/16</t>
+  </si>
+  <si>
+    <t>2020/11/17</t>
+  </si>
+  <si>
+    <t>2020/11/18</t>
+  </si>
+  <si>
+    <t>2020/11/19</t>
+  </si>
+  <si>
+    <t>2020/11/20</t>
+  </si>
+  <si>
+    <t>2020/11/21</t>
+  </si>
+  <si>
+    <t>2020/11/22</t>
+  </si>
+  <si>
+    <t>2020/11/23</t>
+  </si>
+  <si>
+    <t>2020/11/24</t>
+  </si>
+  <si>
+    <t>2020/11/25</t>
+  </si>
+  <si>
+    <t>2020/11/26</t>
+  </si>
+  <si>
+    <t>2020/11/27</t>
+  </si>
+  <si>
+    <t>2020/11/28</t>
+  </si>
+  <si>
+    <t>2020/11/29</t>
+  </si>
+  <si>
+    <t>2020/11/30</t>
+  </si>
+  <si>
+    <t>2020/12/01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020/12/02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020/12/03</t>
+  </si>
+  <si>
+    <t>2020/12/04</t>
+  </si>
+  <si>
+    <t>2020/12/05</t>
+  </si>
+  <si>
+    <t>2020/12/06</t>
+  </si>
+  <si>
+    <t>2020/12/07</t>
+  </si>
+  <si>
+    <t>2020/12/08</t>
+  </si>
+  <si>
+    <t>2020/12/09</t>
+  </si>
+  <si>
+    <t>2020/12/10</t>
+  </si>
+  <si>
+    <t>2020/12/11</t>
+  </si>
+  <si>
+    <t>2020/12/12</t>
+  </si>
+  <si>
+    <t>2020/12/13</t>
+  </si>
+  <si>
+    <t>2020/12/14</t>
+  </si>
+  <si>
+    <t>2020/12/15</t>
+  </si>
+  <si>
+    <t>2020/12/16</t>
+  </si>
+  <si>
+    <t>2020/12/17</t>
+  </si>
+  <si>
+    <t>2020/12/18</t>
+  </si>
+  <si>
+    <t>2020/12/19</t>
+  </si>
+  <si>
+    <t>2020/12/20</t>
+  </si>
+  <si>
+    <t>2020/12/21</t>
+  </si>
+  <si>
+    <t>2020/12/22</t>
+  </si>
+  <si>
+    <t>2020/12/23</t>
+  </si>
+  <si>
+    <t>2020/12/24</t>
+  </si>
+  <si>
+    <t>2020/12/25</t>
+  </si>
+  <si>
+    <t>2020/12/26</t>
+  </si>
+  <si>
+    <t>2020/12/27</t>
+  </si>
+  <si>
+    <t>2020/12/28</t>
+  </si>
+  <si>
+    <t>2020/12/29</t>
+  </si>
+  <si>
+    <t>2020/12/30</t>
+  </si>
+  <si>
+    <t>2020/12/31</t>
+  </si>
+  <si>
+    <t>2021/01/01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/01/02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/01/03</t>
+  </si>
+  <si>
+    <t>2021/01/04</t>
+  </si>
+  <si>
+    <t>2021/01/05</t>
+  </si>
+  <si>
+    <t>2021/01/06</t>
+  </si>
+  <si>
+    <t>2021/01/07</t>
+  </si>
+  <si>
+    <t>2021/01/08</t>
+  </si>
+  <si>
+    <t>2021/01/09</t>
+  </si>
+  <si>
+    <t>2021/01/10</t>
+  </si>
+  <si>
+    <t>2021/01/11</t>
+  </si>
+  <si>
+    <t>2021/01/12</t>
+  </si>
+  <si>
+    <t>2021/01/13</t>
+  </si>
+  <si>
+    <t>2021/01/14</t>
+  </si>
+  <si>
+    <t>2021/01/15</t>
+  </si>
+  <si>
+    <t>2021/01/16</t>
+  </si>
+  <si>
+    <t>2021/01/17</t>
+  </si>
+  <si>
+    <t>2021/01/18</t>
+  </si>
+  <si>
+    <t>2021/01/19</t>
+  </si>
+  <si>
+    <t>2021/01/20</t>
+  </si>
+  <si>
+    <t>2021/01/21</t>
+  </si>
+  <si>
+    <t>2021/01/22</t>
+  </si>
+  <si>
+    <t>2021/01/23</t>
+  </si>
+  <si>
+    <t>2021/01/24</t>
+  </si>
+  <si>
+    <t>2021/01/25</t>
+  </si>
+  <si>
+    <t>2021/01/26</t>
+  </si>
+  <si>
+    <t>2021/01/27</t>
+  </si>
+  <si>
+    <t>2021/01/28</t>
+  </si>
+  <si>
+    <t>2021/01/29</t>
+  </si>
+  <si>
+    <t>2021/01/30</t>
+  </si>
+  <si>
+    <t>2021/01/31</t>
   </si>
 </sst>
 </file>
@@ -1412,14 +2158,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
@@ -1469,6 +2207,15 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1540,38 +2287,38 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1890,1991 +2637,1991 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L80"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="23.125" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.25" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.75" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.75" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="12" customWidth="1"/>
-    <col min="7" max="7" width="23.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37" style="12" customWidth="1"/>
-    <col min="9" max="9" width="12.75" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.75" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="53.5" style="12" customWidth="1"/>
-    <col min="12" max="12" width="40" style="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="12"/>
+    <col min="1" max="1" width="23.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="11" customWidth="1"/>
+    <col min="7" max="7" width="23.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37" style="11" customWidth="1"/>
+    <col min="9" max="9" width="12.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="53.5" style="11" customWidth="1"/>
+    <col min="12" max="12" width="40" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="9" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:12" s="8" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="13" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="37.5" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="11" t="s">
+      <c r="J2" s="9"/>
+      <c r="K2" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="L2" s="10"/>
+      <c r="L2" s="9"/>
     </row>
     <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="10"/>
+      <c r="L3" s="9"/>
     </row>
     <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10" t="s">
+      <c r="J4" s="9"/>
+      <c r="K4" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="L4" s="10"/>
+      <c r="L4" s="9"/>
     </row>
     <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="10" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10" t="s">
+      <c r="J5" s="9"/>
+      <c r="K5" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="L5" s="10"/>
+      <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10" t="s">
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10" t="s">
+      <c r="J6" s="9"/>
+      <c r="K6" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="L6" s="10"/>
+      <c r="L6" s="9"/>
     </row>
     <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10" t="s">
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10" t="s">
+      <c r="J7" s="9"/>
+      <c r="K7" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="L7" s="10"/>
+      <c r="L7" s="9"/>
     </row>
     <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10" t="s">
+      <c r="E8" s="9"/>
+      <c r="F8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10" t="s">
+      <c r="J8" s="9"/>
+      <c r="K8" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="L8" s="10"/>
+      <c r="L8" s="9"/>
     </row>
     <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10" t="s">
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10" t="s">
+      <c r="J9" s="9"/>
+      <c r="K9" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="L9" s="10"/>
+      <c r="L9" s="9"/>
     </row>
     <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10" t="s">
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="K10" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="L10" s="10"/>
+      <c r="L10" s="9"/>
     </row>
     <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="10" t="s">
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10" t="s">
+      <c r="J11" s="9"/>
+      <c r="K11" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="L11" s="10"/>
+      <c r="L11" s="9"/>
     </row>
     <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10" t="s">
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10" t="s">
+      <c r="J12" s="9"/>
+      <c r="K12" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="L12" s="10"/>
+      <c r="L12" s="9"/>
     </row>
     <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10" t="s">
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="I13" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10" t="s">
+      <c r="J13" s="9"/>
+      <c r="K13" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="L13" s="10"/>
+      <c r="L13" s="9"/>
     </row>
     <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10" t="s">
+      <c r="E14" s="9"/>
+      <c r="F14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="I14" s="10" t="s">
+      <c r="I14" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10" t="s">
+      <c r="J14" s="9"/>
+      <c r="K14" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="L14" s="10"/>
+      <c r="L14" s="9"/>
     </row>
     <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10" t="s">
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H15" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="I15" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10" t="s">
+      <c r="J15" s="9"/>
+      <c r="K15" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="L15" s="10"/>
+      <c r="L15" s="9"/>
     </row>
     <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10" t="s">
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="H16" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="I16" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10" t="s">
+      <c r="J16" s="9"/>
+      <c r="K16" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="L16" s="10"/>
+      <c r="L16" s="9"/>
     </row>
     <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10" t="s">
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="I17" s="10" t="s">
+      <c r="I17" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10" t="s">
+      <c r="J17" s="9"/>
+      <c r="K17" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="L17" s="10"/>
+      <c r="L17" s="9"/>
     </row>
     <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10" t="s">
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="H18" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="I18" s="10" t="s">
+      <c r="I18" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10" t="s">
+      <c r="J18" s="9"/>
+      <c r="K18" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="L18" s="10"/>
+      <c r="L18" s="9"/>
     </row>
     <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10" t="s">
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H19" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="I19" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10" t="s">
+      <c r="J19" s="9"/>
+      <c r="K19" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="L19" s="10"/>
+      <c r="L19" s="9"/>
     </row>
     <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10" t="s">
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I20" s="10" t="s">
+      <c r="I20" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10" t="s">
+      <c r="J20" s="9"/>
+      <c r="K20" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="L20" s="10"/>
+      <c r="L20" s="9"/>
     </row>
     <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10" t="s">
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H21" s="10" t="s">
+      <c r="H21" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I21" s="10" t="s">
+      <c r="I21" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10" t="s">
+      <c r="J21" s="9"/>
+      <c r="K21" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="L21" s="10"/>
+      <c r="L21" s="9"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10" t="s">
+      <c r="E22" s="9"/>
+      <c r="F22" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G22" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="H22" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="I22" s="10" t="s">
+      <c r="I22" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10" t="s">
+      <c r="J22" s="9"/>
+      <c r="K22" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="L22" s="10"/>
+      <c r="L22" s="9"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10" t="s">
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="H23" s="10" t="s">
+      <c r="H23" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I23" s="10" t="s">
+      <c r="I23" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10" t="s">
+      <c r="J23" s="9"/>
+      <c r="K23" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="L23" s="10"/>
+      <c r="L23" s="9"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10" t="s">
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="G24" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="H24" s="10" t="s">
+      <c r="H24" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="I24" s="10" t="s">
+      <c r="I24" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10" t="s">
+      <c r="J24" s="9"/>
+      <c r="K24" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="L24" s="10"/>
+      <c r="L24" s="9"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10" t="s">
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="G25" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H25" s="10" t="s">
+      <c r="H25" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I25" s="10" t="s">
+      <c r="I25" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10" t="s">
+      <c r="J25" s="9"/>
+      <c r="K25" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="L25" s="10"/>
+      <c r="L25" s="9"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10" t="s">
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="10" t="s">
+      <c r="G26" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H26" s="10" t="s">
+      <c r="H26" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I26" s="10" t="s">
+      <c r="I26" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10" t="s">
+      <c r="J26" s="9"/>
+      <c r="K26" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="L26" s="10"/>
+      <c r="L26" s="9"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10" t="s">
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="G27" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H27" s="10" t="s">
+      <c r="H27" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I27" s="10" t="s">
+      <c r="I27" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10" t="s">
+      <c r="J27" s="9"/>
+      <c r="K27" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="L27" s="10"/>
+      <c r="L27" s="9"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10" t="s">
+      <c r="E28" s="9"/>
+      <c r="F28" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="G28" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="H28" s="10" t="s">
+      <c r="H28" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="I28" s="10" t="s">
+      <c r="I28" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10" t="s">
+      <c r="J28" s="9"/>
+      <c r="K28" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="L28" s="10"/>
+      <c r="L28" s="9"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10" t="s">
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G29" s="10" t="s">
+      <c r="G29" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H29" s="10" t="s">
+      <c r="H29" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="I29" s="10" t="s">
+      <c r="I29" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10" t="s">
+      <c r="J29" s="9"/>
+      <c r="K29" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="L29" s="10"/>
+      <c r="L29" s="9"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10" t="s">
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="G30" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="10" t="s">
+      <c r="H30" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I30" s="10" t="s">
+      <c r="I30" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10" t="s">
+      <c r="J30" s="9"/>
+      <c r="K30" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="L30" s="10"/>
+      <c r="L30" s="9"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10" t="s">
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="G31" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H31" s="10" t="s">
+      <c r="H31" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I31" s="10" t="s">
+      <c r="I31" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10" t="s">
+      <c r="J31" s="9"/>
+      <c r="K31" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="L31" s="10"/>
+      <c r="L31" s="9"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10" t="s">
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="10" t="s">
+      <c r="G32" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H32" s="10" t="s">
+      <c r="H32" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I32" s="10" t="s">
+      <c r="I32" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10" t="s">
+      <c r="J32" s="9"/>
+      <c r="K32" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="L32" s="10"/>
+      <c r="L32" s="9"/>
     </row>
     <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10" t="s">
+      <c r="E33" s="9"/>
+      <c r="F33" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="10" t="s">
+      <c r="G33" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="H33" s="10" t="s">
+      <c r="H33" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I33" s="10" t="s">
+      <c r="I33" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10" t="s">
+      <c r="J33" s="9"/>
+      <c r="K33" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="L33" s="10"/>
+      <c r="L33" s="9"/>
     </row>
     <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10" t="s">
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G34" s="10" t="s">
+      <c r="G34" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="H34" s="10" t="s">
+      <c r="H34" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="I34" s="10" t="s">
+      <c r="I34" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10" t="s">
+      <c r="J34" s="9"/>
+      <c r="K34" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="L34" s="10"/>
+      <c r="L34" s="9"/>
     </row>
     <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10" t="s">
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G35" s="10" t="s">
+      <c r="G35" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="H35" s="10" t="s">
+      <c r="H35" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="I35" s="10" t="s">
+      <c r="I35" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10" t="s">
+      <c r="J35" s="9"/>
+      <c r="K35" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="L35" s="10"/>
+      <c r="L35" s="9"/>
     </row>
     <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10" t="s">
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G36" s="10" t="s">
+      <c r="G36" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="H36" s="10" t="s">
+      <c r="H36" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="I36" s="10" t="s">
+      <c r="I36" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10" t="s">
+      <c r="J36" s="9"/>
+      <c r="K36" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="L36" s="10"/>
+      <c r="L36" s="9"/>
     </row>
     <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10" t="s">
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G37" s="10" t="s">
+      <c r="G37" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="H37" s="10" t="s">
+      <c r="H37" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="I37" s="10" t="s">
+      <c r="I37" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="J37" s="10" t="s">
+      <c r="J37" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="K37" s="10" t="s">
+      <c r="K37" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="L37" s="13" t="s">
+      <c r="L37" s="12" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10" t="s">
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="H38" s="10" t="s">
+      <c r="H38" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="I38" s="10" t="s">
+      <c r="I38" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J38" s="10" t="s">
+      <c r="J38" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="K38" s="10" t="s">
+      <c r="K38" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="L38" s="10"/>
+      <c r="L38" s="9"/>
     </row>
     <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10" t="s">
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G39" s="10" t="s">
+      <c r="G39" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H39" s="10" t="s">
+      <c r="H39" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I39" s="10" t="s">
+      <c r="I39" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10" t="s">
+      <c r="J39" s="9"/>
+      <c r="K39" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="L39" s="10"/>
+      <c r="L39" s="9"/>
     </row>
     <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10" t="s">
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G40" s="10" t="s">
+      <c r="G40" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H40" s="10" t="s">
+      <c r="H40" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I40" s="10" t="s">
+      <c r="I40" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10" t="s">
+      <c r="J40" s="9"/>
+      <c r="K40" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="L40" s="10"/>
+      <c r="L40" s="9"/>
     </row>
     <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10" t="s">
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="10" t="s">
+      <c r="G41" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H41" s="10" t="s">
+      <c r="H41" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I41" s="10" t="s">
+      <c r="I41" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10" t="s">
+      <c r="J41" s="9"/>
+      <c r="K41" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="L41" s="10"/>
+      <c r="L41" s="9"/>
     </row>
     <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D42" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10" t="s">
+      <c r="E42" s="9"/>
+      <c r="F42" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G42" s="10" t="s">
+      <c r="G42" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H42" s="10" t="s">
+      <c r="H42" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="I42" s="10" t="s">
+      <c r="I42" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10" t="s">
+      <c r="J42" s="9"/>
+      <c r="K42" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="L42" s="10"/>
+      <c r="L42" s="9"/>
     </row>
     <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10" t="s">
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G43" s="10" t="s">
+      <c r="G43" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="H43" s="10" t="s">
+      <c r="H43" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="I43" s="10" t="s">
+      <c r="I43" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10" t="s">
+      <c r="J43" s="9"/>
+      <c r="K43" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="L43" s="10"/>
+      <c r="L43" s="9"/>
     </row>
     <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10" t="s">
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G44" s="10" t="s">
+      <c r="G44" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="H44" s="10" t="s">
+      <c r="H44" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="I44" s="10" t="s">
+      <c r="I44" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="J44" s="10" t="s">
+      <c r="J44" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="K44" s="10" t="s">
+      <c r="K44" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="L44" s="13" t="s">
+      <c r="L44" s="12" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10" t="s">
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G45" s="10" t="s">
+      <c r="G45" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="H45" s="10" t="s">
+      <c r="H45" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="I45" s="10" t="s">
+      <c r="I45" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J45" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="K45" s="10" t="s">
+      <c r="J45" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K45" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="L45" s="13" t="s">
+      <c r="L45" s="12" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10" t="s">
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G46" s="10" t="s">
+      <c r="G46" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H46" s="10" t="s">
+      <c r="H46" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I46" s="10" t="s">
+      <c r="I46" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10" t="s">
+      <c r="J46" s="9"/>
+      <c r="K46" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="L46" s="10"/>
+      <c r="L46" s="9"/>
     </row>
     <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10" t="s">
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G47" s="10" t="s">
+      <c r="G47" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H47" s="10" t="s">
+      <c r="H47" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I47" s="10" t="s">
+      <c r="I47" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10" t="s">
+      <c r="J47" s="9"/>
+      <c r="K47" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="L47" s="10"/>
+      <c r="L47" s="9"/>
     </row>
     <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10" t="s">
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G48" s="10" t="s">
+      <c r="G48" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H48" s="10" t="s">
+      <c r="H48" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I48" s="10" t="s">
+      <c r="I48" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10" t="s">
+      <c r="J48" s="9"/>
+      <c r="K48" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="L48" s="10"/>
-    </row>
-    <row r="49" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="13" t="s">
+      <c r="L48" s="9"/>
+    </row>
+    <row r="49" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C49" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D49" s="13" t="s">
+      <c r="D49" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13" t="s">
+      <c r="E49" s="12"/>
+      <c r="F49" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G49" s="13" t="s">
+      <c r="G49" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="H49" s="13" t="s">
+      <c r="H49" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="I49" s="13" t="s">
+      <c r="I49" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J49" s="13"/>
-      <c r="K49" s="13" t="s">
+      <c r="J49" s="12"/>
+      <c r="K49" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="L49" s="13"/>
-    </row>
-    <row r="50" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="13" t="s">
+      <c r="L49" s="12"/>
+    </row>
+    <row r="50" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13" t="s">
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G50" s="13" t="s">
+      <c r="G50" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="H50" s="13" t="s">
+      <c r="H50" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="I50" s="13" t="s">
+      <c r="I50" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J50" s="13"/>
-      <c r="K50" s="13" t="s">
+      <c r="J50" s="12"/>
+      <c r="K50" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="L50" s="13"/>
-    </row>
-    <row r="51" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="13" t="s">
+      <c r="L50" s="12"/>
+    </row>
+    <row r="51" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13" t="s">
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G51" s="13" t="s">
+      <c r="G51" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="H51" s="13" t="s">
+      <c r="H51" s="12" t="s">
         <v>308</v>
       </c>
-      <c r="I51" s="13" t="s">
+      <c r="I51" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J51" s="13"/>
-      <c r="K51" s="13" t="s">
+      <c r="J51" s="12"/>
+      <c r="K51" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="L51" s="13"/>
-    </row>
-    <row r="52" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="13" t="s">
+      <c r="L51" s="12"/>
+    </row>
+    <row r="52" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13" t="s">
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G52" s="13" t="s">
+      <c r="G52" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="H52" s="13" t="s">
+      <c r="H52" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I52" s="13" t="s">
+      <c r="I52" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J52" s="13"/>
-      <c r="K52" s="13" t="s">
+      <c r="J52" s="12"/>
+      <c r="K52" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="L52" s="13"/>
-    </row>
-    <row r="53" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="13" t="s">
+      <c r="L52" s="12"/>
+    </row>
+    <row r="53" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13" t="s">
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G53" s="13" t="s">
+      <c r="G53" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="H53" s="13" t="s">
+      <c r="H53" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="I53" s="13" t="s">
+      <c r="I53" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="13"/>
-      <c r="K53" s="13" t="s">
+      <c r="J53" s="12"/>
+      <c r="K53" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="L53" s="13"/>
-    </row>
-    <row r="54" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="13" t="s">
+      <c r="L53" s="12"/>
+    </row>
+    <row r="54" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="B54" s="13" t="s">
+      <c r="B54" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13" t="s">
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G54" s="13" t="s">
+      <c r="G54" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H54" s="13" t="s">
+      <c r="H54" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="I54" s="13" t="s">
+      <c r="I54" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J54" s="13"/>
-      <c r="K54" s="13" t="s">
+      <c r="J54" s="12"/>
+      <c r="K54" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="L54" s="13"/>
-    </row>
-    <row r="55" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="13" t="s">
+      <c r="L54" s="12"/>
+    </row>
+    <row r="55" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="B55" s="13" t="s">
+      <c r="B55" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13" t="s">
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G55" s="13" t="s">
+      <c r="G55" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H55" s="13" t="s">
+      <c r="H55" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="I55" s="13" t="s">
+      <c r="I55" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J55" s="13"/>
-      <c r="K55" s="13" t="s">
+      <c r="J55" s="12"/>
+      <c r="K55" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="L55" s="13"/>
-    </row>
-    <row r="56" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="13" t="s">
+      <c r="L55" s="12"/>
+    </row>
+    <row r="56" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="B56" s="13" t="s">
+      <c r="B56" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13" t="s">
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G56" s="13" t="s">
+      <c r="G56" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H56" s="13" t="s">
+      <c r="H56" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="I56" s="13" t="s">
+      <c r="I56" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J56" s="13"/>
-      <c r="K56" s="13" t="s">
+      <c r="J56" s="12"/>
+      <c r="K56" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="L56" s="13"/>
+      <c r="L56" s="12"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A57" s="10"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="10"/>
-      <c r="K57" s="10"/>
-      <c r="L57" s="10"/>
+      <c r="A57" s="9"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A58" s="10"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="10"/>
-      <c r="K58" s="10"/>
-      <c r="L58" s="10"/>
+      <c r="A58" s="9"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A59" s="10"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="10"/>
-      <c r="K59" s="10"/>
-      <c r="L59" s="10"/>
+      <c r="A59" s="9"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A60" s="10"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="10"/>
-      <c r="K60" s="10"/>
-      <c r="L60" s="10"/>
+      <c r="A60" s="9"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A61" s="10"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="10"/>
-      <c r="J61" s="10"/>
-      <c r="K61" s="10"/>
-      <c r="L61" s="10"/>
+      <c r="A61" s="9"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A62" s="10"/>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="10"/>
-      <c r="H62" s="10"/>
-      <c r="I62" s="10"/>
-      <c r="J62" s="10"/>
-      <c r="K62" s="10"/>
-      <c r="L62" s="10"/>
+      <c r="A62" s="9"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
     </row>
     <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="10"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
-      <c r="I63" s="10"/>
-      <c r="J63" s="10"/>
-      <c r="K63" s="10"/>
-      <c r="L63" s="10"/>
+      <c r="A63" s="9"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
     </row>
     <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="10"/>
-      <c r="B64" s="10"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="10"/>
-      <c r="I64" s="10"/>
-      <c r="J64" s="10"/>
-      <c r="K64" s="10"/>
-      <c r="L64" s="10"/>
+      <c r="A64" s="9"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
     </row>
     <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="10"/>
-      <c r="B65" s="10"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
-      <c r="H65" s="10"/>
-      <c r="I65" s="10"/>
-      <c r="J65" s="10"/>
-      <c r="K65" s="10"/>
-      <c r="L65" s="10"/>
+      <c r="A65" s="9"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9"/>
     </row>
     <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="10"/>
-      <c r="B66" s="10"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="10"/>
-      <c r="I66" s="10"/>
-      <c r="J66" s="10"/>
-      <c r="K66" s="10"/>
-      <c r="L66" s="10"/>
+      <c r="A66" s="9"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
     </row>
     <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="10"/>
-      <c r="B67" s="10"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
-      <c r="H67" s="10"/>
-      <c r="I67" s="10"/>
-      <c r="J67" s="10"/>
-      <c r="K67" s="10"/>
-      <c r="L67" s="10"/>
+      <c r="A67" s="9"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="9"/>
     </row>
     <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="10"/>
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="10"/>
-      <c r="I68" s="10"/>
-      <c r="J68" s="10"/>
-      <c r="K68" s="10"/>
-      <c r="L68" s="10"/>
+      <c r="A68" s="9"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="9"/>
     </row>
     <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="10"/>
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
-      <c r="G69" s="10"/>
-      <c r="H69" s="10"/>
-      <c r="I69" s="10"/>
-      <c r="J69" s="10"/>
-      <c r="K69" s="10"/>
-      <c r="L69" s="10"/>
+      <c r="A69" s="9"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="9"/>
     </row>
     <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="10"/>
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
-      <c r="H70" s="10"/>
-      <c r="I70" s="10"/>
-      <c r="J70" s="10"/>
-      <c r="K70" s="10"/>
-      <c r="L70" s="10"/>
+      <c r="A70" s="9"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c r="L70" s="9"/>
     </row>
     <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="10"/>
-      <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10"/>
-      <c r="G71" s="10"/>
-      <c r="H71" s="10"/>
-      <c r="I71" s="10"/>
-      <c r="J71" s="10"/>
-      <c r="K71" s="10"/>
-      <c r="L71" s="10"/>
+      <c r="A71" s="9"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c r="L71" s="9"/>
     </row>
     <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="10"/>
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
-      <c r="G72" s="10"/>
-      <c r="H72" s="10"/>
-      <c r="I72" s="10"/>
-      <c r="J72" s="10"/>
-      <c r="K72" s="10"/>
-      <c r="L72" s="10"/>
+      <c r="A72" s="9"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c r="L72" s="9"/>
     </row>
     <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="10"/>
-      <c r="B73" s="10"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="10"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="10"/>
-      <c r="G73" s="10"/>
-      <c r="H73" s="10"/>
-      <c r="I73" s="10"/>
-      <c r="J73" s="10"/>
-      <c r="K73" s="10"/>
-      <c r="L73" s="10"/>
+      <c r="A73" s="9"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c r="L73" s="9"/>
     </row>
     <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="10"/>
-      <c r="B74" s="10"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10"/>
-      <c r="G74" s="10"/>
-      <c r="H74" s="10"/>
-      <c r="I74" s="10"/>
-      <c r="J74" s="10"/>
-      <c r="K74" s="10"/>
-      <c r="L74" s="10"/>
+      <c r="A74" s="9"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c r="L74" s="9"/>
     </row>
     <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="10"/>
-      <c r="B75" s="10"/>
-      <c r="C75" s="10"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="10"/>
-      <c r="H75" s="10"/>
-      <c r="I75" s="10"/>
-      <c r="J75" s="10"/>
-      <c r="K75" s="10"/>
-      <c r="L75" s="10"/>
+      <c r="A75" s="9"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c r="L75" s="9"/>
     </row>
     <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="10"/>
-      <c r="B76" s="10"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="10"/>
-      <c r="I76" s="10"/>
-      <c r="J76" s="10"/>
-      <c r="K76" s="10"/>
-      <c r="L76" s="10"/>
+      <c r="A76" s="9"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c r="L76" s="9"/>
     </row>
     <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="10"/>
-      <c r="B77" s="10"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="10"/>
-      <c r="G77" s="10"/>
-      <c r="H77" s="10"/>
-      <c r="I77" s="10"/>
-      <c r="J77" s="10"/>
-      <c r="K77" s="10"/>
-      <c r="L77" s="10"/>
+      <c r="A77" s="9"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c r="L77" s="9"/>
     </row>
     <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="10"/>
-      <c r="B78" s="10"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10"/>
-      <c r="G78" s="10"/>
-      <c r="H78" s="10"/>
-      <c r="I78" s="10"/>
-      <c r="J78" s="10"/>
-      <c r="K78" s="10"/>
-      <c r="L78" s="10"/>
+      <c r="A78" s="9"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c r="L78" s="9"/>
     </row>
     <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="10"/>
-      <c r="B79" s="10"/>
-      <c r="C79" s="10"/>
-      <c r="D79" s="10"/>
-      <c r="E79" s="10"/>
-      <c r="F79" s="10"/>
-      <c r="G79" s="10"/>
-      <c r="H79" s="10"/>
-      <c r="I79" s="10"/>
-      <c r="J79" s="10"/>
-      <c r="K79" s="10"/>
-      <c r="L79" s="10"/>
+      <c r="A79" s="9"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="9"/>
     </row>
     <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="10"/>
-      <c r="B80" s="10"/>
-      <c r="C80" s="10"/>
-      <c r="D80" s="10"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="10"/>
-      <c r="G80" s="10"/>
-      <c r="H80" s="10"/>
-      <c r="I80" s="10"/>
-      <c r="J80" s="10"/>
-      <c r="K80" s="10"/>
-      <c r="L80" s="10"/>
+      <c r="A80" s="9"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c r="L80" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L80" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}">
@@ -3902,2158 +4649,4988 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B156E69B-A368-43FC-B871-296031B2A5E5}">
-  <dimension ref="A1:G93"/>
+  <dimension ref="A1:G216"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B93"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D215" sqref="D215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.875" customWidth="1"/>
+    <col min="1" max="1" width="40.25" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
     <col min="3" max="3" width="15.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="15.125" customWidth="1"/>
     <col min="6" max="7" width="19.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="15" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G2" s="6" t="s">
+      <c r="D2" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G3" s="6" t="s">
+      <c r="D3" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" s="6" t="s">
+      <c r="D4" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G5" s="6" t="s">
+      <c r="E5" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G6" s="6" t="s">
+      <c r="E6" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G7" s="6" t="s">
+      <c r="D7" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G8" s="6" t="s">
+      <c r="D8" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G9" s="6" t="s">
+      <c r="D9" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G10" s="6" t="s">
+      <c r="D10" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G11" s="6" t="s">
+      <c r="D11" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G12" s="6" t="s">
+      <c r="E12" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G13" s="6" t="s">
+      <c r="E13" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G14" s="6" t="s">
+      <c r="D14" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G15" s="6" t="s">
+      <c r="D15" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G16" s="6" t="s">
+      <c r="D16" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G17" s="6" t="s">
+      <c r="D17" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G18" s="6" t="s">
+      <c r="D18" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G19" s="6" t="s">
+      <c r="E19" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G20" s="6" t="s">
+      <c r="E20" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G21" s="6" t="s">
+      <c r="D21" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G22" s="6" t="s">
+      <c r="D22" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G23" s="6" t="s">
+      <c r="D23" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G23" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G24" s="6" t="s">
+      <c r="E24" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G25" s="6" t="s">
+      <c r="E25" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G25" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E26" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G26" s="6" t="s">
+      <c r="E26" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E27" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G27" s="6" t="s">
+      <c r="E27" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G27" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G28" s="6" t="s">
+      <c r="D28" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G28" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="D29" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G29" s="6" t="s">
+      <c r="D29" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G29" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G30" s="6" t="s">
+      <c r="D30" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G30" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="D31" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G31" s="6" t="s">
+      <c r="D31" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G31" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="D32" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G32" s="6" t="s">
+      <c r="D32" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G32" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E33" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G33" s="6" t="s">
+      <c r="E33" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G33" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E34" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G34" s="6" t="s">
+      <c r="E34" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G34" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="D35" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G35" s="6" t="s">
+      <c r="D35" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G35" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="D36" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G36" s="6" t="s">
+      <c r="D36" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G36" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="D37" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G37" s="6" t="s">
+      <c r="D37" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G37" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="D38" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G38" s="6" t="s">
+      <c r="D38" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G38" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="D39" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G39" s="6" t="s">
+      <c r="D39" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G39" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E40" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G40" s="6" t="s">
+      <c r="E40" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G40" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E41" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G41" s="6" t="s">
+      <c r="E41" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G41" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E42" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G42" s="6" t="s">
+      <c r="E42" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G42" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="D43" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G43" s="6" t="s">
+      <c r="D43" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G43" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="D44" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G44" s="6" t="s">
+      <c r="D44" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G44" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="D45" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G45" s="6" t="s">
+      <c r="D45" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G45" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="D46" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G46" s="6" t="s">
+      <c r="D46" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G46" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E47" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G47" s="6" t="s">
+      <c r="E47" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G47" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E48" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G48" s="6" t="s">
+      <c r="E48" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G48" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="D49" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G49" s="6" t="s">
+      <c r="D49" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G49" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="D50" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G50" s="6" t="s">
+      <c r="D50" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G50" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="D51" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G51" s="6" t="s">
+      <c r="D51" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G51" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="D52" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G52" s="6" t="s">
+      <c r="D52" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G52" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="D53" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G53" s="6" t="s">
+      <c r="D53" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G53" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D54" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E54" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G54" s="6" t="s">
+      <c r="E54" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G54" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A55" s="6" t="s">
+      <c r="A55" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C55" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="D55" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E55" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G55" s="6" t="s">
+      <c r="E55" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G55" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A56" s="6" t="s">
+      <c r="A56" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C56" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="D56" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G56" s="6" t="s">
+      <c r="D56" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G56" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A57" s="6" t="s">
+      <c r="A57" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="D57" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G57" s="6" t="s">
+      <c r="D57" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G57" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="D58" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G58" s="6" t="s">
+      <c r="D58" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G58" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A59" s="6" t="s">
+      <c r="A59" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="D59" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G59" s="6" t="s">
+      <c r="D59" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G59" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C60" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="D60" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G60" s="6" t="s">
+      <c r="D60" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G60" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A61" s="6" t="s">
+      <c r="A61" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C61" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="D61" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E61" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F61" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G61" s="6" t="s">
+      <c r="E61" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G61" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A62" s="6" t="s">
+      <c r="A62" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C62" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="D62" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E62" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G62" s="6" t="s">
+      <c r="E62" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G62" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A63" s="6" t="s">
+      <c r="A63" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C63" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="D63" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F63" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G63" s="6" t="s">
+      <c r="D63" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G63" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A64" s="6" t="s">
+      <c r="A64" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="C64" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="D64" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F64" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G64" s="6" t="s">
+      <c r="D64" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G64" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A65" s="6" t="s">
+      <c r="A65" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="C65" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="D65" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F65" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G65" s="6" t="s">
+      <c r="D65" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G65" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A66" s="6" t="s">
+      <c r="A66" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C66" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="D66" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G66" s="6" t="s">
+      <c r="D66" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G66" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A67" s="6" t="s">
+      <c r="A67" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="C67" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="D67" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G67" s="6" t="s">
+      <c r="D67" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G67" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A68" s="6" t="s">
+      <c r="A68" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="C68" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="D68" s="7" t="s">
+      <c r="D68" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E68" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F68" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G68" s="6" t="s">
+      <c r="E68" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G68" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A69" s="6" t="s">
+      <c r="A69" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="C69" s="6" t="s">
+      <c r="C69" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="D69" s="7" t="s">
+      <c r="D69" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E69" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F69" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G69" s="6" t="s">
+      <c r="E69" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G69" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A70" s="6" t="s">
+      <c r="A70" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="C70" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="D70" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F70" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G70" s="6" t="s">
+      <c r="D70" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G70" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A71" s="6" t="s">
+      <c r="A71" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="C71" s="6" t="s">
+      <c r="C71" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="D71" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G71" s="6" t="s">
+      <c r="D71" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G71" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A72" s="6" t="s">
+      <c r="A72" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="C72" s="6" t="s">
+      <c r="C72" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="D72" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F72" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G72" s="6" t="s">
+      <c r="D72" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G72" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A73" s="6" t="s">
+      <c r="A73" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="C73" s="6" t="s">
+      <c r="C73" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="D73" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G73" s="6" t="s">
+      <c r="D73" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G73" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A74" s="6" t="s">
+      <c r="A74" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="C74" s="6" t="s">
+      <c r="C74" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="D74" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G74" s="6" t="s">
+      <c r="D74" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G74" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A75" s="6" t="s">
+      <c r="A75" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="C75" s="6" t="s">
+      <c r="C75" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="D75" s="7" t="s">
+      <c r="D75" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E75" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F75" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G75" s="6" t="s">
+      <c r="E75" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G75" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A76" s="6" t="s">
+      <c r="A76" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="C76" s="6" t="s">
+      <c r="C76" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="D76" s="7" t="s">
+      <c r="D76" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E76" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F76" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G76" s="6" t="s">
+      <c r="E76" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G76" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A77" s="6" t="s">
+      <c r="A77" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B77" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="C77" s="6" t="s">
+      <c r="C77" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="D77" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F77" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G77" s="6" t="s">
+      <c r="D77" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G77" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A78" s="6" t="s">
+      <c r="A78" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B78" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="C78" s="6" t="s">
+      <c r="C78" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="D78" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F78" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G78" s="6" t="s">
+      <c r="D78" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G78" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A79" s="6" t="s">
+      <c r="A79" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="B79" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="C79" s="6" t="s">
+      <c r="C79" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="D79" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F79" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G79" s="6" t="s">
+      <c r="D79" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G79" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A80" s="6" t="s">
+      <c r="A80" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B80" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="C80" s="6" t="s">
+      <c r="C80" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="D80" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F80" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G80" s="6" t="s">
+      <c r="D80" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G80" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A81" s="6" t="s">
+      <c r="A81" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="B81" s="6" t="s">
+      <c r="B81" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="C81" s="6" t="s">
+      <c r="C81" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="D81" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E81" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F81" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G81" s="6" t="s">
+      <c r="D81" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G81" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A82" s="6" t="s">
+      <c r="A82" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B82" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="C82" s="6" t="s">
+      <c r="C82" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="D82" s="7" t="s">
+      <c r="D82" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E82" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F82" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G82" s="6" t="s">
+      <c r="E82" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G82" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A83" s="6" t="s">
+      <c r="A83" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="B83" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="C83" s="6" t="s">
+      <c r="C83" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="D83" s="7" t="s">
+      <c r="D83" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E83" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F83" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G83" s="6" t="s">
+      <c r="E83" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G83" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A84" s="6" t="s">
+      <c r="A84" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="B84" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="C84" s="6" t="s">
+      <c r="C84" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="D84" s="7" t="s">
+      <c r="D84" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E84" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F84" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G84" s="6" t="s">
+      <c r="E84" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G84" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A85" s="6" t="s">
+      <c r="A85" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="B85" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="C85" s="6" t="s">
+      <c r="C85" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="D85" s="7" t="s">
+      <c r="D85" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E85" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F85" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G85" s="6" t="s">
+      <c r="E85" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G85" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A86" s="6" t="s">
+      <c r="A86" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="B86" s="6" t="s">
+      <c r="B86" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C86" s="6" t="s">
+      <c r="C86" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="D86" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E86" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F86" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G86" s="6" t="s">
+      <c r="D86" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G86" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A87" s="6" t="s">
+      <c r="A87" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="B87" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="C87" s="6" t="s">
+      <c r="C87" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="D87" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E87" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F87" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G87" s="6" t="s">
+      <c r="D87" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G87" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A88" s="6" t="s">
+      <c r="A88" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="B88" s="6" t="s">
+      <c r="B88" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="C88" s="6" t="s">
+      <c r="C88" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="D88" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E88" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F88" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G88" s="6" t="s">
+      <c r="D88" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G88" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A89" s="6" t="s">
+      <c r="A89" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="B89" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="C89" s="6" t="s">
+      <c r="C89" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="D89" s="7" t="s">
+      <c r="D89" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E89" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F89" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G89" s="6" t="s">
+      <c r="E89" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G89" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A90" s="6" t="s">
+      <c r="A90" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="B90" s="6" t="s">
+      <c r="B90" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="C90" s="6" t="s">
+      <c r="C90" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="D90" s="7" t="s">
+      <c r="D90" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E90" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F90" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G90" s="6" t="s">
+      <c r="E90" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G90" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A91" s="6" t="s">
+      <c r="A91" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="B91" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="C91" s="6" t="s">
+      <c r="C91" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="D91" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F91" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G91" s="6" t="s">
+      <c r="D91" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G91" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A92" s="6" t="s">
+      <c r="A92" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="B92" s="6" t="s">
+      <c r="B92" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="C92" s="6" t="s">
+      <c r="C92" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="D92" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E92" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F92" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G92" s="6" t="s">
+      <c r="D92" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G92" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A93" s="6" t="s">
+      <c r="A93" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="B93" s="6" t="s">
+      <c r="B93" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="C93" s="6" t="s">
+      <c r="C93" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="D93" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E93" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F93" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G93" s="6" t="s">
+      <c r="D93" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A94" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A95" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A96" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A97" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A98" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A99" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A100" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A101" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A102" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A103" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G103" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A104" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G104" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A105" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G105" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A106" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G106" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A107" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A108" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G108" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A109" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G109" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A110" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G110" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A111" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G111" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A112" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G112" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A113" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G113" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A114" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G114" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A115" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G115" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A116" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G116" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A117" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G117" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A118" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G118" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A119" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G119" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A120" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G120" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A121" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G121" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A122" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G122" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A123" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G123" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A124" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G124" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A125" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F125" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G125" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A126" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G126" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A127" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G127" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A128" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G128" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A129" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F129" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G129" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A130" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F130" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G130" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A131" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F131" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G131" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A132" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G132" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A133" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F133" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G133" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A134" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F134" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G134" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A135" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F135" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G135" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A136" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F136" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G136" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A137" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G137" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A138" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F138" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G138" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A139" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F139" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G139" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A140" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F140" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G140" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A141" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E141" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F141" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G141" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A142" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F142" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G142" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A143" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E143" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F143" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G143" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A144" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F144" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G144" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A145" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D145" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E145" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F145" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G145" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A146" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D146" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E146" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F146" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G146" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A147" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D147" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E147" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F147" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G147" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A148" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E148" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F148" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G148" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A149" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E149" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F149" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G149" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A150" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E150" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F150" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G150" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A151" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E151" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F151" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G151" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A152" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D152" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E152" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F152" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G152" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A153" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D153" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E153" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F153" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G153" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A154" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D154" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E154" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F154" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G154" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A155" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E155" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F155" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G155" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A156" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E156" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F156" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G156" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A157" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D157" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E157" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F157" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G157" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A158" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E158" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F158" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G158" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A159" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D159" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E159" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F159" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G159" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A160" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D160" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E160" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F160" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G160" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A161" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E161" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F161" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G161" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A162" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D162" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E162" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F162" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G162" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A163" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D163" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E163" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F163" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G163" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A164" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D164" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E164" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F164" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G164" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A165" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D165" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E165" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F165" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G165" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A166" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D166" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E166" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F166" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G166" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A167" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D167" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E167" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F167" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G167" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A168" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D168" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E168" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F168" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G168" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A169" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D169" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E169" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F169" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G169" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A170" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D170" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E170" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F170" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G170" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A171" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D171" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E171" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F171" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G171" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A172" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D172" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E172" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F172" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G172" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A173" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D173" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E173" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F173" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G173" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A174" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D174" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E174" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F174" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G174" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A175" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D175" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E175" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F175" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G175" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A176" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D176" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E176" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F176" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G176" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A177" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D177" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E177" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F177" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G177" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A178" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D178" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E178" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F178" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G178" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A179" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D179" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E179" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F179" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G179" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A180" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D180" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E180" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F180" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G180" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A181" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D181" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E181" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F181" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G181" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A182" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D182" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E182" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F182" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G182" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A183" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D183" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E183" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F183" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G183" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A184" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D184" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E184" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F184" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G184" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A185" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D185" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E185" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F185" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G185" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A186" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D186" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E186" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F186" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G186" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A187" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D187" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E187" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F187" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G187" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A188" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D188" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E188" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F188" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G188" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A189" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D189" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E189" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F189" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G189" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A190" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D190" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E190" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F190" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G190" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A191" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D191" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E191" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F191" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G191" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A192" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="C192" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D192" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E192" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F192" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G192" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A193" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="C193" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D193" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E193" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F193" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G193" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A194" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D194" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E194" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F194" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G194" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A195" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="C195" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D195" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E195" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F195" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G195" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A196" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="C196" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D196" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E196" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F196" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G196" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A197" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D197" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E197" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F197" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G197" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A198" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D198" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E198" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F198" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G198" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A199" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D199" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E199" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F199" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G199" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A200" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D200" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E200" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F200" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G200" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A201" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="C201" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D201" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E201" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F201" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G201" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A202" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D202" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E202" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F202" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G202" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A203" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="C203" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D203" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E203" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F203" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G203" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A204" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D204" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E204" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F204" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G204" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A205" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="C205" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D205" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E205" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F205" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G205" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A206" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="C206" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D206" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E206" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F206" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G206" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A207" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="B207" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="C207" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D207" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E207" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F207" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G207" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A208" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D208" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E208" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F208" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G208" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A209" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="C209" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D209" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E209" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F209" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G209" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A210" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D210" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E210" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F210" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G210" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A211" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="C211" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D211" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E211" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F211" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G211" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A212" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="C212" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D212" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E212" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F212" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G212" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A213" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D213" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E213" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F213" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G213" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A214" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D214" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E214" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F214" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G214" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A215" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="B215" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="C215" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D215" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E215" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F215" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G215" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A216" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="C216" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D216" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E216" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F216" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G216" s="5" t="s">
         <v>98</v>
       </c>
     </row>

--- a/joshua-docs/02_design/90_db/90_DB設計.xlsx
+++ b/joshua-docs/02_design/90_db/90_DB設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\joshua-app\git\joshua\joshua-docs\02_design\90_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434511AA-6C55-4DDE-8A93-D116BA4C81EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D765812E-BE85-41DF-B4B4-4BF6DCF69559}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="17790" tabRatio="411" activeTab="1" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="17790" tabRatio="411" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">BUSINESS_CALENDAR_MT!$A$1:$G$93</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$L$80</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$L$77</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TEMPLATE!$A$1:$J$69</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">TABLE_LIST!$A$1:$L$80</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">TABLE_LIST!$A$1:$L$77</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1944" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1953" uniqueCount="574">
   <si>
     <t>PRIMARY_KEY</t>
     <phoneticPr fontId="1"/>
@@ -2134,12 +2134,38 @@
   <si>
     <t>2021/01/31</t>
   </si>
+  <si>
+    <t>APP_AUTH</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリの権限</t>
+    <rPh sb="4" eb="6">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jp.co.joshua.common.db.type.AppAuth</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリ権限</t>
+    <rPh sb="3" eb="5">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2198,15 +2224,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -2311,13 +2328,13 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2634,12 +2651,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4943154E-E197-4DDD-ACD8-DEAC3E0A272D}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:L80"/>
+  <dimension ref="A1:L77"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2693,11 +2709,11 @@
       <c r="K1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="15" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="37.5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A2" s="9" t="s">
         <v>12</v>
       </c>
@@ -2729,7 +2745,7 @@
       </c>
       <c r="L2" s="9"/>
     </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="9" t="s">
         <v>12</v>
       </c>
@@ -2759,7 +2775,7 @@
       </c>
       <c r="L3" s="9"/>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="9" t="s">
         <v>12</v>
       </c>
@@ -2787,35 +2803,39 @@
       </c>
       <c r="L4" s="9"/>
     </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="L5" s="9"/>
-    </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>569</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>571</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="9" t="s">
         <v>12</v>
       </c>
@@ -2826,24 +2846,24 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="9" t="s">
         <v>12</v>
       </c>
@@ -2857,81 +2877,81 @@
         <v>13</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>20</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L7" s="9"/>
     </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="9" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>13</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L8" s="9"/>
     </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
+      <c r="C9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="L9" s="9"/>
     </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="9" t="s">
         <v>37</v>
       </c>
@@ -2940,30 +2960,26 @@
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="L10" s="9"/>
     </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="9" t="s">
         <v>37</v>
       </c>
@@ -2972,26 +2988,30 @@
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
+      <c r="E11" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="F11" s="9" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="K11" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L11" s="9"/>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="9" t="s">
         <v>37</v>
       </c>
@@ -3002,24 +3022,24 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L12" s="9"/>
     </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="9" t="s">
         <v>37</v>
       </c>
@@ -3033,81 +3053,81 @@
         <v>13</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I13" s="9" t="s">
         <v>20</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L13" s="9"/>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="9" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>13</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J14" s="9"/>
       <c r="K14" s="9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L14" s="9"/>
     </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" s="9" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
+      <c r="C15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J15" s="9"/>
       <c r="K15" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L15" s="9"/>
     </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" s="9" t="s">
         <v>43</v>
       </c>
@@ -3121,21 +3141,21 @@
         <v>13</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J16" s="9"/>
       <c r="K16" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L16" s="9"/>
     </row>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" s="9" t="s">
         <v>43</v>
       </c>
@@ -3149,21 +3169,21 @@
         <v>13</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J17" s="9"/>
       <c r="K17" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L17" s="9"/>
     </row>
-    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="9" t="s">
         <v>43</v>
       </c>
@@ -3177,21 +3197,21 @@
         <v>13</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J18" s="9"/>
       <c r="K18" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L18" s="9"/>
     </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="9" t="s">
         <v>43</v>
       </c>
@@ -3205,21 +3225,21 @@
         <v>13</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="I19" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J19" s="9"/>
       <c r="K19" s="9" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="L19" s="9"/>
     </row>
-    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="9" t="s">
         <v>43</v>
       </c>
@@ -3233,21 +3253,21 @@
         <v>13</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J20" s="9"/>
       <c r="K20" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L20" s="9"/>
     </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" s="9" t="s">
         <v>43</v>
       </c>
@@ -3261,49 +3281,45 @@
         <v>13</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I21" s="9" t="s">
         <v>20</v>
       </c>
       <c r="J21" s="9"/>
       <c r="K21" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L21" s="9"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" s="9" t="s">
-        <v>303</v>
+        <v>43</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>13</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>305</v>
+        <v>19</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>311</v>
+        <v>23</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J22" s="9"/>
       <c r="K22" s="9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L22" s="9"/>
     </row>
@@ -3314,24 +3330,28 @@
       <c r="B23" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
+      <c r="C23" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="E23" s="9"/>
       <c r="F23" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>55</v>
+        <v>305</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>15</v>
+        <v>311</v>
       </c>
       <c r="I23" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J23" s="9"/>
       <c r="K23" s="9" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="L23" s="9"/>
     </row>
@@ -3349,17 +3369,17 @@
         <v>13</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>306</v>
+        <v>55</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>308</v>
+        <v>15</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J24" s="9"/>
       <c r="K24" s="9" t="s">
-        <v>310</v>
+        <v>65</v>
       </c>
       <c r="L24" s="9"/>
     </row>
@@ -3377,17 +3397,17 @@
         <v>13</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>17</v>
+        <v>306</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>21</v>
+        <v>308</v>
       </c>
       <c r="I25" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J25" s="9"/>
       <c r="K25" s="9" t="s">
-        <v>69</v>
+        <v>310</v>
       </c>
       <c r="L25" s="9"/>
     </row>
@@ -3405,17 +3425,17 @@
         <v>13</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J26" s="9"/>
       <c r="K26" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L26" s="9"/>
     </row>
@@ -3433,49 +3453,45 @@
         <v>13</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I27" s="9" t="s">
         <v>20</v>
       </c>
       <c r="J27" s="9"/>
       <c r="K27" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L27" s="9"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>13</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>309</v>
+        <v>19</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>308</v>
+        <v>23</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J28" s="9"/>
       <c r="K28" s="9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L28" s="9"/>
     </row>
@@ -3486,24 +3502,28 @@
       <c r="B29" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
+      <c r="C29" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="E29" s="9"/>
       <c r="F29" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>45</v>
+        <v>309</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>56</v>
+        <v>308</v>
       </c>
       <c r="I29" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J29" s="9"/>
       <c r="K29" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="L29" s="9"/>
     </row>
@@ -3521,17 +3541,17 @@
         <v>13</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="I30" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J30" s="9"/>
       <c r="K30" s="9" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="L30" s="9"/>
     </row>
@@ -3549,17 +3569,17 @@
         <v>13</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J31" s="9"/>
       <c r="K31" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L31" s="9"/>
     </row>
@@ -3577,81 +3597,81 @@
         <v>13</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I32" s="9" t="s">
         <v>20</v>
       </c>
       <c r="J32" s="9"/>
       <c r="K32" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L32" s="9"/>
     </row>
-    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A33" s="9" t="s">
-        <v>57</v>
+        <v>304</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>13</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
       <c r="E33" s="9"/>
       <c r="F33" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J33" s="9"/>
       <c r="K33" s="9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L33" s="9"/>
     </row>
-    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A34" s="9" t="s">
         <v>57</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
+      <c r="C34" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="E34" s="9"/>
       <c r="F34" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>305</v>
+        <v>58</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>311</v>
+        <v>62</v>
       </c>
       <c r="I34" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J34" s="9"/>
       <c r="K34" s="9" t="s">
-        <v>312</v>
+        <v>71</v>
       </c>
       <c r="L34" s="9"/>
     </row>
-    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A35" s="9" t="s">
         <v>57</v>
       </c>
@@ -3665,21 +3685,21 @@
         <v>13</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J35" s="9"/>
       <c r="K35" s="9" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="L35" s="9"/>
     </row>
-    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A36" s="9" t="s">
         <v>57</v>
       </c>
@@ -3693,21 +3713,21 @@
         <v>13</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I36" s="9" t="s">
         <v>20</v>
       </c>
       <c r="J36" s="9"/>
       <c r="K36" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L36" s="9"/>
     </row>
-    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A37" s="9" t="s">
         <v>57</v>
       </c>
@@ -3721,25 +3741,21 @@
         <v>13</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>59</v>
+        <v>296</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="J37" s="9" t="s">
-        <v>64</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="J37" s="9"/>
       <c r="K37" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="L37" s="12" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+        <v>300</v>
+      </c>
+      <c r="L37" s="9"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A38" s="9" t="s">
         <v>57</v>
       </c>
@@ -3749,25 +3765,29 @@
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
+      <c r="F38" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="G38" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>63</v>
+        <v>318</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>28</v>
+        <v>314</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="L38" s="9"/>
-    </row>
-    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+        <v>80</v>
+      </c>
+      <c r="L38" s="9" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A39" s="9" t="s">
         <v>57</v>
       </c>
@@ -3777,25 +3797,25 @@
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
-      <c r="F39" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="F39" s="9"/>
       <c r="G39" s="9" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J39" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="K39" s="9" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="L39" s="9"/>
     </row>
-    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A40" s="9" t="s">
         <v>57</v>
       </c>
@@ -3809,21 +3829,21 @@
         <v>13</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J40" s="9"/>
       <c r="K40" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L40" s="9"/>
     </row>
-    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A41" s="9" t="s">
         <v>57</v>
       </c>
@@ -3837,81 +3857,81 @@
         <v>13</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I41" s="9" t="s">
         <v>20</v>
       </c>
       <c r="J41" s="9"/>
       <c r="K41" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L41" s="9"/>
     </row>
-    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A42" s="9" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>13</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J42" s="9"/>
       <c r="K42" s="9" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="L42" s="9"/>
     </row>
-    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A43" s="9" t="s">
         <v>81</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
+      <c r="C43" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="E43" s="9"/>
       <c r="F43" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="J43" s="9"/>
       <c r="K43" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L43" s="9"/>
     </row>
-    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A44" s="9" t="s">
         <v>81</v>
       </c>
@@ -3925,25 +3945,21 @@
         <v>13</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>282</v>
+        <v>84</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>285</v>
+        <v>89</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="J44" s="9" t="s">
-        <v>284</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="J44" s="9"/>
       <c r="K44" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="L44" s="12" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+        <v>87</v>
+      </c>
+      <c r="L44" s="9"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A45" s="9" t="s">
         <v>81</v>
       </c>
@@ -3957,25 +3973,25 @@
         <v>13</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>85</v>
+        <v>282</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>91</v>
+        <v>285</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>28</v>
+        <v>283</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>36</v>
+        <v>284</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="L45" s="12" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+        <v>290</v>
+      </c>
+      <c r="L45" s="9" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A46" s="9" t="s">
         <v>81</v>
       </c>
@@ -3989,21 +4005,25 @@
         <v>13</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J46" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="J46" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="K46" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="L46" s="9"/>
-    </row>
-    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+        <v>88</v>
+      </c>
+      <c r="L46" s="9" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A47" s="9" t="s">
         <v>81</v>
       </c>
@@ -4017,21 +4037,21 @@
         <v>13</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J47" s="9"/>
       <c r="K47" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L47" s="9"/>
     </row>
-    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A48" s="9" t="s">
         <v>81</v>
       </c>
@@ -4045,81 +4065,81 @@
         <v>13</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I48" s="9" t="s">
         <v>20</v>
       </c>
       <c r="J48" s="9"/>
       <c r="K48" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L48" s="9"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A49" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="L48" s="9"/>
-    </row>
-    <row r="49" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" s="12" t="s">
-        <v>321</v>
-      </c>
-      <c r="H49" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="I49" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="J49" s="12"/>
-      <c r="K49" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="L49" s="12"/>
-    </row>
-    <row r="50" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="L49" s="9"/>
+    </row>
+    <row r="50" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A50" s="12" t="s">
         <v>319</v>
       </c>
       <c r="B50" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
+      <c r="C50" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>13</v>
+      </c>
       <c r="E50" s="12"/>
       <c r="F50" s="12" t="s">
         <v>13</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="I50" s="12" t="s">
         <v>16</v>
       </c>
       <c r="J50" s="12"/>
       <c r="K50" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="L50" s="12"/>
-    </row>
-    <row r="51" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.4">
+        <v>71</v>
+      </c>
+      <c r="L50" s="9"/>
+    </row>
+    <row r="51" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A51" s="12" t="s">
         <v>319</v>
       </c>
@@ -4133,21 +4153,21 @@
         <v>13</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="I51" s="12" t="s">
         <v>16</v>
       </c>
       <c r="J51" s="12"/>
       <c r="K51" s="12" t="s">
-        <v>310</v>
-      </c>
-      <c r="L51" s="12"/>
-    </row>
-    <row r="52" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.4">
+        <v>312</v>
+      </c>
+      <c r="L51" s="9"/>
+    </row>
+    <row r="52" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A52" s="12" t="s">
         <v>319</v>
       </c>
@@ -4161,21 +4181,21 @@
         <v>13</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>55</v>
+        <v>306</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>15</v>
+        <v>308</v>
       </c>
       <c r="I52" s="12" t="s">
         <v>16</v>
       </c>
       <c r="J52" s="12"/>
       <c r="K52" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="L52" s="12"/>
-    </row>
-    <row r="53" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.4">
+        <v>310</v>
+      </c>
+      <c r="L52" s="9"/>
+    </row>
+    <row r="53" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A53" s="12" t="s">
         <v>319</v>
       </c>
@@ -4189,21 +4209,21 @@
         <v>13</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="I53" s="12" t="s">
         <v>16</v>
       </c>
       <c r="J53" s="12"/>
       <c r="K53" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="L53" s="12"/>
-    </row>
-    <row r="54" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.4">
+        <v>65</v>
+      </c>
+      <c r="L53" s="9"/>
+    </row>
+    <row r="54" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A54" s="12" t="s">
         <v>319</v>
       </c>
@@ -4217,21 +4237,21 @@
         <v>13</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="I54" s="12" t="s">
         <v>16</v>
       </c>
       <c r="J54" s="12"/>
       <c r="K54" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="L54" s="12"/>
-    </row>
-    <row r="55" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.4">
+        <v>78</v>
+      </c>
+      <c r="L54" s="9"/>
+    </row>
+    <row r="55" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A55" s="12" t="s">
         <v>319</v>
       </c>
@@ -4245,21 +4265,21 @@
         <v>13</v>
       </c>
       <c r="G55" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I55" s="12" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J55" s="12"/>
       <c r="K55" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="L55" s="12"/>
-    </row>
-    <row r="56" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.4">
+        <v>69</v>
+      </c>
+      <c r="L55" s="9"/>
+    </row>
+    <row r="56" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A56" s="12" t="s">
         <v>319</v>
       </c>
@@ -4273,32 +4293,46 @@
         <v>13</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I56" s="12" t="s">
         <v>20</v>
       </c>
       <c r="J56" s="12"/>
       <c r="K56" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="L56" s="9"/>
+    </row>
+    <row r="57" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H57" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I57" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="L56" s="12"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A57" s="9"/>
-      <c r="B57" s="9"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="9"/>
-      <c r="K57" s="9"/>
       <c r="L57" s="9"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.4">
@@ -4371,7 +4405,7 @@
       <c r="K62" s="9"/>
       <c r="L62" s="9"/>
     </row>
-    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A63" s="9"/>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
@@ -4385,7 +4419,7 @@
       <c r="K63" s="9"/>
       <c r="L63" s="9"/>
     </row>
-    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A64" s="9"/>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
@@ -4399,7 +4433,7 @@
       <c r="K64" s="9"/>
       <c r="L64" s="9"/>
     </row>
-    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A65" s="9"/>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
@@ -4413,7 +4447,7 @@
       <c r="K65" s="9"/>
       <c r="L65" s="9"/>
     </row>
-    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A66" s="9"/>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
@@ -4427,7 +4461,7 @@
       <c r="K66" s="9"/>
       <c r="L66" s="9"/>
     </row>
-    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A67" s="9"/>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
@@ -4441,7 +4475,7 @@
       <c r="K67" s="9"/>
       <c r="L67" s="9"/>
     </row>
-    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A68" s="9"/>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
@@ -4455,7 +4489,7 @@
       <c r="K68" s="9"/>
       <c r="L68" s="9"/>
     </row>
-    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A69" s="9"/>
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
@@ -4469,7 +4503,7 @@
       <c r="K69" s="9"/>
       <c r="L69" s="9"/>
     </row>
-    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A70" s="9"/>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
@@ -4483,7 +4517,7 @@
       <c r="K70" s="9"/>
       <c r="L70" s="9"/>
     </row>
-    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A71" s="9"/>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
@@ -4497,7 +4531,7 @@
       <c r="K71" s="9"/>
       <c r="L71" s="9"/>
     </row>
-    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A72" s="9"/>
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
@@ -4511,7 +4545,7 @@
       <c r="K72" s="9"/>
       <c r="L72" s="9"/>
     </row>
-    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A73" s="9"/>
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
@@ -4525,7 +4559,7 @@
       <c r="K73" s="9"/>
       <c r="L73" s="9"/>
     </row>
-    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A74" s="9"/>
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
@@ -4539,7 +4573,7 @@
       <c r="K74" s="9"/>
       <c r="L74" s="9"/>
     </row>
-    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A75" s="9"/>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
@@ -4553,7 +4587,7 @@
       <c r="K75" s="9"/>
       <c r="L75" s="9"/>
     </row>
-    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A76" s="9"/>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
@@ -4567,7 +4601,7 @@
       <c r="K76" s="9"/>
       <c r="L76" s="9"/>
     </row>
-    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A77" s="9"/>
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
@@ -4581,64 +4615,14 @@
       <c r="K77" s="9"/>
       <c r="L77" s="9"/>
     </row>
-    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="9"/>
-      <c r="B78" s="9"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="9"/>
-      <c r="I78" s="9"/>
-      <c r="J78" s="9"/>
-      <c r="K78" s="9"/>
-      <c r="L78" s="9"/>
-    </row>
-    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="9"/>
-      <c r="B79" s="9"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="9"/>
-      <c r="I79" s="9"/>
-      <c r="J79" s="9"/>
-      <c r="K79" s="9"/>
-      <c r="L79" s="9"/>
-    </row>
-    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="9"/>
-      <c r="B80" s="9"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
-      <c r="H80" s="9"/>
-      <c r="I80" s="9"/>
-      <c r="J80" s="9"/>
-      <c r="K80" s="9"/>
-      <c r="L80" s="9"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:L80" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="勤怠ユーザ管理マスタ"/>
-        <filter val="勤怠ユーザ詳細マスタ"/>
-        <filter val="勤怠ユーザ履歴マスタ"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:L77" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I80" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I77" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
       <formula1>"VARCHAR,INT,DECIMAL,DATE,TIMESTAMP"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:F80" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:F77" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
       <formula1>",1"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4651,7 +4635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B156E69B-A368-43FC-B871-296031B2A5E5}">
   <dimension ref="A1:G216"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D215" sqref="D215"/>
     </sheetView>
@@ -4667,25 +4651,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>96</v>
       </c>
     </row>

--- a/joshua-docs/02_design/90_db/90_DB設計.xlsx
+++ b/joshua-docs/02_design/90_db/90_DB設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\joshua-app\git\joshua\joshua-docs\02_design\90_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D765812E-BE85-41DF-B4B4-4BF6DCF69559}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BF0789-64F6-4273-AC18-26E8BDD25D24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="17790" tabRatio="411" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="7785" yWindow="900" windowWidth="19140" windowHeight="16815" tabRatio="411" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">BUSINESS_CALENDAR_MT!$A$1:$G$93</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$L$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$L$78</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TEMPLATE!$A$1:$J$69</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">TABLE_LIST!$A$1:$L$77</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">TABLE_LIST!$A$1:$L$78</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1953" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1961" uniqueCount="582">
   <si>
     <t>PRIMARY_KEY</t>
     <phoneticPr fontId="1"/>
@@ -210,14 +210,6 @@
     <t>DATE</t>
   </si>
   <si>
-    <t>メールアドレス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MAIL_ADDRESS</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>256</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -241,25 +233,6 @@
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メールユーザ情報</t>
-    <rPh sb="6" eb="8">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MAIL_USER_DATA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メールユーザID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SEQ_MAIL_USER_ID</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2157,6 +2130,65 @@
     <t>アプリ権限</t>
     <rPh sb="3" eb="5">
       <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PRIVATE_DATA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ個別情報ID</t>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+  </si>
+  <si>
+    <t>ユーザ名</t>
+  </si>
+  <si>
+    <t>バージョン情報</t>
+  </si>
+  <si>
+    <t>登録日時</t>
+  </si>
+  <si>
+    <t>更新日時</t>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリで表示するユーザ名</t>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEQ_PRIVATE_DATA_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEQ_LOGIN_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MAIL_ADDRESS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>USER_NAME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個別ユーザ情報</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2651,11 +2683,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4943154E-E197-4DDD-ACD8-DEAC3E0A272D}">
-  <dimension ref="A1:L77"/>
+  <dimension ref="A1:L78"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D61" sqref="D61"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2692,13 +2724,13 @@
         <v>10</v>
       </c>
       <c r="F1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="H1" s="7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>6</v>
@@ -2710,7 +2742,7 @@
         <v>1</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="37.5" x14ac:dyDescent="0.4">
@@ -2741,7 +2773,7 @@
       </c>
       <c r="J2" s="9"/>
       <c r="K2" s="10" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="L2" s="9"/>
     </row>
@@ -2768,10 +2800,10 @@
         <v>28</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L3" s="9"/>
     </row>
@@ -2799,40 +2831,40 @@
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="L4" s="9"/>
     </row>
-    <row r="5" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="12" t="s">
-        <v>573</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>569</v>
-      </c>
-      <c r="I5" s="12" t="s">
+      <c r="G5" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="I5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="12" t="s">
-        <v>571</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>570</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>572</v>
+      <c r="J5" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
@@ -2846,7 +2878,7 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>17</v>
@@ -2859,7 +2891,7 @@
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="L6" s="9"/>
     </row>
@@ -2887,7 +2919,7 @@
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="L7" s="9"/>
     </row>
@@ -2915,252 +2947,254 @@
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="L8" s="9"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A9" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="9" t="s">
+    <row r="9" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="12" t="s">
+        <v>581</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>568</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9" t="s">
+      <c r="E9" s="12"/>
+      <c r="F9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="9" t="s">
+      <c r="G9" s="12" t="s">
+        <v>569</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>577</v>
+      </c>
+      <c r="I9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="L9" s="9"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A10" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9" t="s">
+      <c r="J9" s="12"/>
+      <c r="K9" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="L9" s="12"/>
+    </row>
+    <row r="10" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="12" t="s">
+        <v>581</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>568</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="9" t="s">
+      <c r="G10" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>578</v>
+      </c>
+      <c r="I10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="L10" s="9"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A11" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9" t="s">
+      <c r="J10" s="12"/>
+      <c r="K10" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="L10" s="12"/>
+    </row>
+    <row r="11" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="12" t="s">
+        <v>581</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>568</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>579</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" s="9" t="s">
+      <c r="K11" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="L11" s="12"/>
+    </row>
+    <row r="12" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="12" t="s">
+        <v>581</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>568</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>571</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>580</v>
+      </c>
+      <c r="I12" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="L11" s="9"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A12" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="9" t="s">
+      <c r="J12" s="12" t="s">
+        <v>575</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>576</v>
+      </c>
+      <c r="L12" s="12"/>
+    </row>
+    <row r="13" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="12" t="s">
+        <v>581</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>568</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="I13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="L12" s="9"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A13" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9" t="s">
+      <c r="J13" s="12"/>
+      <c r="K13" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="L13" s="12"/>
+    </row>
+    <row r="14" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="12" t="s">
+        <v>581</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>568</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="9" t="s">
+      <c r="G14" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="I14" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L13" s="9"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A14" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14" s="9" t="s">
+      <c r="J14" s="12"/>
+      <c r="K14" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="L14" s="12"/>
+    </row>
+    <row r="15" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="12" t="s">
+        <v>581</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>568</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>574</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="L14" s="9"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A15" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="L15" s="9"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="L15" s="12"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" s="9" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
+        <v>38</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J16" s="9"/>
       <c r="K16" s="9" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="L16" s="9"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -3169,26 +3203,26 @@
         <v>13</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="I17" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J17" s="9"/>
       <c r="K17" s="9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="L17" s="9"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -3197,26 +3231,26 @@
         <v>13</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J18" s="9"/>
       <c r="K18" s="9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="L18" s="9"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -3225,26 +3259,26 @@
         <v>13</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="I19" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J19" s="9"/>
       <c r="K19" s="9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="L19" s="9"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -3253,26 +3287,26 @@
         <v>13</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="I20" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J20" s="9"/>
       <c r="K20" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L20" s="9"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -3281,26 +3315,26 @@
         <v>13</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J21" s="9"/>
       <c r="K21" s="9" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="L21" s="9"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -3309,70 +3343,70 @@
         <v>13</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>20</v>
       </c>
       <c r="J22" s="9"/>
       <c r="K22" s="9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="L22" s="9"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" s="9" t="s">
-        <v>303</v>
+        <v>37</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>13</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>305</v>
+        <v>19</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>311</v>
+        <v>23</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J23" s="9"/>
       <c r="K23" s="9" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="L23" s="9"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" s="9" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
+        <v>296</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>55</v>
+        <v>299</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>15</v>
+        <v>305</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>16</v>
@@ -3385,10 +3419,10 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" s="9" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -3397,26 +3431,26 @@
         <v>13</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>306</v>
+        <v>49</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>308</v>
+        <v>15</v>
       </c>
       <c r="I25" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J25" s="9"/>
       <c r="K25" s="9" t="s">
-        <v>310</v>
+        <v>59</v>
       </c>
       <c r="L25" s="9"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26" s="9" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -3425,26 +3459,26 @@
         <v>13</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>17</v>
+        <v>300</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>21</v>
+        <v>302</v>
       </c>
       <c r="I26" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J26" s="9"/>
       <c r="K26" s="9" t="s">
-        <v>69</v>
+        <v>304</v>
       </c>
       <c r="L26" s="9"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" s="9" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -3453,26 +3487,26 @@
         <v>13</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J27" s="9"/>
       <c r="K27" s="9" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="L27" s="9"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28" s="9" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -3481,86 +3515,86 @@
         <v>13</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I28" s="9" t="s">
         <v>20</v>
       </c>
       <c r="J28" s="9"/>
       <c r="K28" s="9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="L28" s="9"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29" s="9" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>13</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>309</v>
+        <v>19</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>308</v>
+        <v>23</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J29" s="9"/>
       <c r="K29" s="9" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="L29" s="9"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A30" s="9" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
+        <v>301</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="E30" s="9"/>
       <c r="F30" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>45</v>
+        <v>303</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>56</v>
+        <v>302</v>
       </c>
       <c r="I30" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J30" s="9"/>
       <c r="K30" s="9" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="L30" s="9"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A31" s="9" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
@@ -3569,26 +3603,26 @@
         <v>13</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I31" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J31" s="9"/>
       <c r="K31" s="9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L31" s="9"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A32" s="9" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -3597,26 +3631,26 @@
         <v>13</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J32" s="9"/>
       <c r="K32" s="9" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="L32" s="9"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A33" s="9" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -3625,86 +3659,86 @@
         <v>13</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I33" s="9" t="s">
         <v>20</v>
       </c>
       <c r="J33" s="9"/>
       <c r="K33" s="9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="L33" s="9"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A34" s="9" t="s">
-        <v>57</v>
+        <v>298</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>13</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J34" s="9"/>
       <c r="K34" s="9" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="L34" s="9"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A35" s="9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
+        <v>55</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="E35" s="9"/>
       <c r="F35" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>305</v>
+        <v>52</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>311</v>
+        <v>56</v>
       </c>
       <c r="I35" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J35" s="9"/>
       <c r="K35" s="9" t="s">
-        <v>312</v>
+        <v>65</v>
       </c>
       <c r="L35" s="9"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A36" s="9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -3713,26 +3747,26 @@
         <v>13</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J36" s="9"/>
       <c r="K36" s="9" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="L36" s="9"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A37" s="9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
@@ -3741,26 +3775,26 @@
         <v>13</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="I37" s="9" t="s">
         <v>20</v>
       </c>
       <c r="J37" s="9"/>
       <c r="K37" s="9" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="L37" s="9"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A38" s="9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
@@ -3769,86 +3803,86 @@
         <v>13</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>59</v>
+        <v>290</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>318</v>
+        <v>291</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="J38" s="9" t="s">
-        <v>64</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="J38" s="9"/>
       <c r="K38" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="L38" s="9" t="s">
-        <v>315</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="L38" s="9"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A39" s="9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
+      <c r="F39" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="G39" s="9" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>63</v>
+        <v>312</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>28</v>
+        <v>308</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="L39" s="9"/>
+        <v>74</v>
+      </c>
+      <c r="L39" s="9" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A40" s="9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
-      <c r="F40" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="F40" s="9"/>
       <c r="G40" s="9" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J40" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="K40" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L40" s="9"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A41" s="9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
@@ -3857,26 +3891,26 @@
         <v>13</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J41" s="9"/>
       <c r="K41" s="9" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="L41" s="9"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A42" s="9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
@@ -3885,86 +3919,86 @@
         <v>13</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I42" s="9" t="s">
         <v>20</v>
       </c>
       <c r="J42" s="9"/>
       <c r="K42" s="9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="L42" s="9"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A43" s="9" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>13</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J43" s="9"/>
       <c r="K43" s="9" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="L43" s="9"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A44" s="9" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
+        <v>76</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="E44" s="9"/>
       <c r="F44" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="J44" s="9"/>
       <c r="K44" s="9" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="L44" s="9"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A45" s="9" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
@@ -3973,30 +4007,26 @@
         <v>13</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>282</v>
+        <v>78</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>285</v>
+        <v>83</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="J45" s="9" t="s">
-        <v>284</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="J45" s="9"/>
       <c r="K45" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="L45" s="9" t="s">
-        <v>317</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="L45" s="9"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A46" s="9" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
@@ -4005,30 +4035,30 @@
         <v>13</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>85</v>
+        <v>276</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>91</v>
+        <v>279</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>28</v>
+        <v>277</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>36</v>
+        <v>278</v>
       </c>
       <c r="K46" s="9" t="s">
-        <v>88</v>
+        <v>284</v>
       </c>
       <c r="L46" s="9" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A47" s="9" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
@@ -4037,26 +4067,30 @@
         <v>13</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J47" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="J47" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="K47" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="L47" s="9"/>
+        <v>82</v>
+      </c>
+      <c r="L47" s="9" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A48" s="9" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
@@ -4065,26 +4099,26 @@
         <v>13</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J48" s="9"/>
       <c r="K48" s="9" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="L48" s="9"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A49" s="9" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
@@ -4093,260 +4127,274 @@
         <v>13</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I49" s="9" t="s">
         <v>20</v>
       </c>
       <c r="J49" s="9"/>
       <c r="K49" s="9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="L49" s="9"/>
     </row>
-    <row r="50" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="C50" s="12" t="s">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A50" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D50" s="12" t="s">
+      <c r="G50" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I50" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="L50" s="9"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A51" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="C51" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12" t="s">
+      <c r="D51" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G50" s="12" t="s">
-        <v>321</v>
-      </c>
-      <c r="H50" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="I50" s="12" t="s">
+      <c r="E51" s="9"/>
+      <c r="F51" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="I51" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="J50" s="12"/>
-      <c r="K50" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="L50" s="9"/>
-    </row>
-    <row r="51" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12" t="s">
+      <c r="J51" s="9"/>
+      <c r="K51" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="L51" s="9"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A52" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G51" s="12" t="s">
+      <c r="G52" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="H52" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="H51" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="I51" s="12" t="s">
+      <c r="I52" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="J51" s="12"/>
-      <c r="K51" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="L51" s="9"/>
-    </row>
-    <row r="52" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12" t="s">
+      <c r="J52" s="9"/>
+      <c r="K52" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="L52" s="9"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A53" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G52" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="H52" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="I52" s="12" t="s">
+      <c r="G53" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="I53" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="J52" s="12"/>
-      <c r="K52" s="12" t="s">
-        <v>310</v>
-      </c>
-      <c r="L52" s="9"/>
-    </row>
-    <row r="53" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12" t="s">
+      <c r="J53" s="9"/>
+      <c r="K53" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="L53" s="9"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A54" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G53" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="H53" s="12" t="s">
+      <c r="G54" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H54" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I53" s="12" t="s">
+      <c r="I54" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="12"/>
-      <c r="K53" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="L53" s="9"/>
-    </row>
-    <row r="54" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12" t="s">
+      <c r="J54" s="9"/>
+      <c r="K54" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="L54" s="9"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A55" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G54" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H54" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="I54" s="12" t="s">
+      <c r="G55" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I55" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="J54" s="12"/>
-      <c r="K54" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="L54" s="9"/>
-    </row>
-    <row r="55" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12" t="s">
+      <c r="J55" s="9"/>
+      <c r="K55" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="L55" s="9"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A56" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G55" s="12" t="s">
+      <c r="G56" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H55" s="12" t="s">
+      <c r="H56" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I55" s="12" t="s">
+      <c r="I56" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="J55" s="12"/>
-      <c r="K55" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="L55" s="9"/>
-    </row>
-    <row r="56" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12" t="s">
+      <c r="J56" s="9"/>
+      <c r="K56" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L56" s="9"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A57" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G56" s="12" t="s">
+      <c r="G57" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H56" s="12" t="s">
+      <c r="H57" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I56" s="12" t="s">
+      <c r="I57" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J56" s="12"/>
-      <c r="K56" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="L56" s="9"/>
-    </row>
-    <row r="57" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="B57" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G57" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H57" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I57" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J57" s="12"/>
-      <c r="K57" s="12" t="s">
-        <v>67</v>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="L57" s="9"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A58" s="9"/>
-      <c r="B58" s="9"/>
+      <c r="A58" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>314</v>
+      </c>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
+      <c r="F58" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I58" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="J58" s="9"/>
-      <c r="K58" s="9"/>
+      <c r="K58" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="L58" s="9"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.4">
@@ -4615,14 +4663,28 @@
       <c r="K77" s="9"/>
       <c r="L77" s="9"/>
     </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A78" s="9"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c r="L78" s="9"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:L77" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
+  <autoFilter ref="A1:L78" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I77" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I78" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
       <formula1>"VARCHAR,INT,DECIMAL,DATE,TIMESTAMP"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:F77" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:F78" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
       <formula1>",1"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4652,4970 +4714,4970 @@
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A1" s="14" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D1" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>90</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="5" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="5" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="5" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="5" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="5" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="5" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="5" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="5" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="5" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="5" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="5" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="5" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="5" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="5" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="5" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="5" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="5" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="5" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" s="5" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" s="5" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39" s="5" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" s="5" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41" s="5" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42" s="5" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43" s="5" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44" s="5" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45" s="5" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46" s="5" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47" s="5" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48" s="5" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A49" s="5" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50" s="5" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A51" s="5" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A52" s="5" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A53" s="5" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A54" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A55" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A56" s="5" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A57" s="5" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A58" s="5" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A59" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A60" s="5" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A61" s="5" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A62" s="5" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A63" s="5" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A64" s="5" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A65" s="5" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A66" s="5" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A67" s="5" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A68" s="5" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A69" s="5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A70" s="5" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A71" s="5" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A72" s="5" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A73" s="5" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A74" s="5" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A75" s="5" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A76" s="5" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A77" s="5" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A78" s="5" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A79" s="5" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A80" s="5" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A81" s="5" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A82" s="5" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A83" s="5" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A84" s="5" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A85" s="5" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A86" s="5" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A87" s="5" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A88" s="5" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A89" s="5" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A90" s="5" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A91" s="5" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A92" s="5" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A93" s="5" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A94" s="5" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A95" s="5" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A96" s="5" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A97" s="5" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A98" s="5" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A99" s="5" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A100" s="5" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A101" s="5" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A102" s="5" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A103" s="5" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A104" s="5" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A105" s="5" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A106" s="5" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A107" s="5" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A108" s="5" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A109" s="5" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A110" s="5" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A111" s="5" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A112" s="5" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A113" s="5" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A114" s="5" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A115" s="5" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A116" s="5" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A117" s="5" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A118" s="5" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G118" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A119" s="5" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A120" s="5" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A121" s="5" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A122" s="5" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G122" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A123" s="5" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A124" s="5" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G124" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A125" s="5" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G125" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A126" s="5" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G126" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A127" s="5" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G127" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A128" s="5" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G128" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A129" s="5" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A130" s="5" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G130" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A131" s="5" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G131" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A132" s="5" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G132" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A133" s="5" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G133" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A134" s="5" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G134" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A135" s="5" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G135" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A136" s="5" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G136" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A137" s="5" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G137" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A138" s="5" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G138" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A139" s="5" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G139" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A140" s="5" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G140" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A141" s="5" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G141" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A142" s="5" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G142" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A143" s="5" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G143" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A144" s="5" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G144" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A145" s="5" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G145" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A146" s="5" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G146" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A147" s="5" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G147" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A148" s="5" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G148" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A149" s="5" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G149" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A150" s="5" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G150" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A151" s="5" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G151" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A152" s="5" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G152" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A153" s="5" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G153" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A154" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G154" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A155" s="5" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G155" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A156" s="5" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G156" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A157" s="5" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G157" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A158" s="5" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F158" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G158" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A159" s="5" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F159" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G159" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A160" s="5" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G160" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A161" s="5" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F161" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G161" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A162" s="5" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F162" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G162" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A163" s="5" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F163" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G163" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A164" s="5" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F164" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G164" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A165" s="5" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F165" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G165" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A166" s="5" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F166" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G166" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A167" s="5" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F167" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G167" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A168" s="5" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F168" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G168" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A169" s="5" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E169" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F169" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G169" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A170" s="5" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F170" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G170" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A171" s="5" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F171" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G171" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A172" s="5" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F172" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G172" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A173" s="5" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E173" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F173" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G173" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A174" s="5" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F174" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G174" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A175" s="5" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F175" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G175" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A176" s="5" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F176" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G176" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A177" s="5" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F177" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G177" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A178" s="5" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E178" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F178" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G178" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A179" s="5" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F179" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G179" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A180" s="5" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E180" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F180" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G180" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A181" s="5" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E181" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F181" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G181" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A182" s="5" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F182" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G182" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A183" s="5" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E183" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F183" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G183" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A184" s="5" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E184" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F184" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G184" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A185" s="5" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E185" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F185" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G185" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A186" s="5" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E186" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F186" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G186" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A187" s="5" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E187" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F187" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G187" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A188" s="5" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E188" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F188" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G188" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A189" s="5" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D189" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E189" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F189" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G189" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A190" s="5" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E190" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F190" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G190" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A191" s="5" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E191" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F191" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G191" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A192" s="5" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E192" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F192" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G192" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A193" s="5" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D193" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E193" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F193" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G193" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A194" s="5" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E194" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F194" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G194" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A195" s="5" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D195" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E195" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F195" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G195" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A196" s="5" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E196" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F196" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G196" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A197" s="5" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E197" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F197" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G197" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A198" s="5" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D198" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E198" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F198" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G198" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A199" s="5" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E199" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F199" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G199" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A200" s="5" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E200" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F200" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G200" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A201" s="5" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D201" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E201" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F201" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G201" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A202" s="5" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E202" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F202" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G202" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A203" s="5" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E203" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F203" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G203" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A204" s="5" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E204" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F204" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G204" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A205" s="5" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E205" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F205" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G205" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A206" s="5" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E206" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F206" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G206" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A207" s="5" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D207" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E207" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F207" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G207" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A208" s="5" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E208" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F208" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G208" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A209" s="5" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D209" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E209" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F209" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G209" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A210" s="5" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D210" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E210" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F210" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G210" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A211" s="5" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D211" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E211" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F211" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G211" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A212" s="5" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D212" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E212" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F212" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G212" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A213" s="5" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E213" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F213" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G213" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A214" s="5" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D214" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E214" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F214" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G214" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A215" s="5" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D215" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E215" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F215" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G215" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A216" s="5" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D216" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E216" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F216" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G216" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/joshua-docs/02_design/90_db/90_DB設計.xlsx
+++ b/joshua-docs/02_design/90_db/90_DB設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\joshua-app\git\joshua\joshua-docs\02_design\90_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746BFBC3-733E-471F-B58E-953B8433FAE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214D7D38-881C-43F0-B8FF-941754519051}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="675" windowWidth="24105" windowHeight="13905" tabRatio="411" activeTab="2" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="17790" tabRatio="761" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
@@ -21,9 +21,9 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">BUSINESS_CALENDAR_MT!$A$1:$G$93</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">REGULAR_WORK_MT!$A$1:$H$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$L$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$L$82</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TEMPLATE!$A$1:$J$69</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">TABLE_LIST!$A$1:$L$78</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">TABLE_LIST!$A$1:$L$82</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -34,8 +34,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>okazaki</author>
+  </authors>
+  <commentList>
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{1D73A2F7-FAC4-4F03-9FFF-08607D2FC9B1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>okazaki:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+FQCNで指定すること</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2001" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2029" uniqueCount="601">
   <si>
     <t>PRIMARY_KEY</t>
     <phoneticPr fontId="1"/>
@@ -2218,12 +2254,96 @@
     <t>10</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ACTUAL_TIME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業時間</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残業時間</t>
+    <rPh sb="0" eb="2">
+      <t>ザンギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>深夜残業時間</t>
+    <rPh sb="0" eb="2">
+      <t>シンヤ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>ザンギョウジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>休日出勤作業時間</t>
+    <rPh sb="0" eb="2">
+      <t>キュウジツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュッキン</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>サギョウジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t>当該レコードの作業時間</t>
+    <rPh sb="7" eb="11">
+      <t>サギョウジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当該レコードの残業時間</t>
+    <rPh sb="7" eb="11">
+      <t>ザンギョウジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当該レコードの深夜残業時間</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当該レコードの休日出勤作業時間</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HOLODAY_WORK_TIME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OVER_TIME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LATE_OVER_TIME</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2281,6 +2401,29 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2331,7 +2474,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2372,6 +2515,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2687,16 +2836,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4943154E-E197-4DDD-ACD8-DEAC3E0A272D}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:L78"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4943154E-E197-4DDD-ACD8-DEAC3E0A272D}">
+  <dimension ref="A1:L82"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H16" sqref="H16:H23"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="23.125" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.25" style="12" bestFit="1" customWidth="1"/>
@@ -2713,7 +2861,7 @@
     <col min="13" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="9" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" s="9" customFormat="1" ht="29.25" customHeight="1">
       <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
@@ -2751,7 +2899,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="37.5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" ht="37.5">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
@@ -2783,7 +2931,7 @@
       </c>
       <c r="L2" s="10"/>
     </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12">
       <c r="A3" s="10" t="s">
         <v>12</v>
       </c>
@@ -2813,7 +2961,7 @@
       </c>
       <c r="L3" s="10"/>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12">
       <c r="A4" s="10" t="s">
         <v>12</v>
       </c>
@@ -2841,7 +2989,7 @@
       </c>
       <c r="L4" s="10"/>
     </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12">
       <c r="A5" s="10" t="s">
         <v>12</v>
       </c>
@@ -2873,7 +3021,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12">
       <c r="A6" s="10" t="s">
         <v>12</v>
       </c>
@@ -2901,7 +3049,7 @@
       </c>
       <c r="L6" s="10"/>
     </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12">
       <c r="A7" s="10" t="s">
         <v>12</v>
       </c>
@@ -2929,7 +3077,7 @@
       </c>
       <c r="L7" s="10"/>
     </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12">
       <c r="A8" s="10" t="s">
         <v>12</v>
       </c>
@@ -2957,7 +3105,7 @@
       </c>
       <c r="L8" s="10"/>
     </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12">
       <c r="A9" s="10" t="s">
         <v>580</v>
       </c>
@@ -2989,7 +3137,7 @@
       </c>
       <c r="L9" s="10"/>
     </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12">
       <c r="A10" s="10" t="s">
         <v>580</v>
       </c>
@@ -3017,7 +3165,7 @@
       </c>
       <c r="L10" s="10"/>
     </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12">
       <c r="A11" s="10" t="s">
         <v>580</v>
       </c>
@@ -3049,7 +3197,7 @@
       </c>
       <c r="L11" s="10"/>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12">
       <c r="A12" s="10" t="s">
         <v>580</v>
       </c>
@@ -3079,7 +3227,7 @@
       </c>
       <c r="L12" s="10"/>
     </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12">
       <c r="A13" s="10" t="s">
         <v>580</v>
       </c>
@@ -3107,7 +3255,7 @@
       </c>
       <c r="L13" s="10"/>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12">
       <c r="A14" s="10" t="s">
         <v>580</v>
       </c>
@@ -3135,7 +3283,7 @@
       </c>
       <c r="L14" s="10"/>
     </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12">
       <c r="A15" s="10" t="s">
         <v>580</v>
       </c>
@@ -3163,7 +3311,7 @@
       </c>
       <c r="L15" s="10"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12">
       <c r="A16" s="10" t="s">
         <v>70</v>
       </c>
@@ -3195,7 +3343,7 @@
       </c>
       <c r="L16" s="10"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12">
       <c r="A17" s="10" t="s">
         <v>36</v>
       </c>
@@ -3223,7 +3371,7 @@
       </c>
       <c r="L17" s="10"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12">
       <c r="A18" s="10" t="s">
         <v>36</v>
       </c>
@@ -3251,7 +3399,7 @@
       </c>
       <c r="L18" s="10"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12">
       <c r="A19" s="10" t="s">
         <v>36</v>
       </c>
@@ -3279,7 +3427,7 @@
       </c>
       <c r="L19" s="10"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12">
       <c r="A20" s="10" t="s">
         <v>36</v>
       </c>
@@ -3307,7 +3455,7 @@
       </c>
       <c r="L20" s="10"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12">
       <c r="A21" s="10" t="s">
         <v>36</v>
       </c>
@@ -3335,7 +3483,7 @@
       </c>
       <c r="L21" s="10"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12">
       <c r="A22" s="10" t="s">
         <v>36</v>
       </c>
@@ -3363,7 +3511,7 @@
       </c>
       <c r="L22" s="10"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12">
       <c r="A23" s="10" t="s">
         <v>36</v>
       </c>
@@ -3391,7 +3539,7 @@
       </c>
       <c r="L23" s="10"/>
     </row>
-    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12">
       <c r="A24" s="10" t="s">
         <v>296</v>
       </c>
@@ -3423,7 +3571,7 @@
       </c>
       <c r="L24" s="10"/>
     </row>
-    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12">
       <c r="A25" s="10" t="s">
         <v>296</v>
       </c>
@@ -3451,7 +3599,7 @@
       </c>
       <c r="L25" s="10"/>
     </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12">
       <c r="A26" s="10" t="s">
         <v>296</v>
       </c>
@@ -3479,7 +3627,7 @@
       </c>
       <c r="L26" s="10"/>
     </row>
-    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:12">
       <c r="A27" s="10" t="s">
         <v>296</v>
       </c>
@@ -3507,7 +3655,7 @@
       </c>
       <c r="L27" s="10"/>
     </row>
-    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12">
       <c r="A28" s="10" t="s">
         <v>296</v>
       </c>
@@ -3535,7 +3683,7 @@
       </c>
       <c r="L28" s="10"/>
     </row>
-    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:12">
       <c r="A29" s="10" t="s">
         <v>296</v>
       </c>
@@ -3563,7 +3711,7 @@
       </c>
       <c r="L29" s="10"/>
     </row>
-    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:12">
       <c r="A30" s="10" t="s">
         <v>297</v>
       </c>
@@ -3595,7 +3743,7 @@
       </c>
       <c r="L30" s="10"/>
     </row>
-    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:12">
       <c r="A31" s="10" t="s">
         <v>297</v>
       </c>
@@ -3623,7 +3771,7 @@
       </c>
       <c r="L31" s="10"/>
     </row>
-    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:12">
       <c r="A32" s="10" t="s">
         <v>297</v>
       </c>
@@ -3651,7 +3799,7 @@
       </c>
       <c r="L32" s="10"/>
     </row>
-    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:12">
       <c r="A33" s="10" t="s">
         <v>297</v>
       </c>
@@ -3679,7 +3827,7 @@
       </c>
       <c r="L33" s="10"/>
     </row>
-    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:12">
       <c r="A34" s="10" t="s">
         <v>297</v>
       </c>
@@ -3707,7 +3855,7 @@
       </c>
       <c r="L34" s="10"/>
     </row>
-    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:12">
       <c r="A35" s="10" t="s">
         <v>50</v>
       </c>
@@ -3739,7 +3887,7 @@
       </c>
       <c r="L35" s="10"/>
     </row>
-    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:12">
       <c r="A36" s="10" t="s">
         <v>50</v>
       </c>
@@ -3767,7 +3915,7 @@
       </c>
       <c r="L36" s="10"/>
     </row>
-    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:12">
       <c r="A37" s="10" t="s">
         <v>50</v>
       </c>
@@ -3795,7 +3943,7 @@
       </c>
       <c r="L37" s="10"/>
     </row>
-    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:12">
       <c r="A38" s="10" t="s">
         <v>50</v>
       </c>
@@ -3823,123 +3971,119 @@
       </c>
       <c r="L38" s="10"/>
     </row>
-    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="10" t="s">
+    <row r="39" spans="1:12" s="15" customFormat="1">
+      <c r="A39" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
       <c r="F39" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G39" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="H39" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="I39" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="J39" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="K39" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="L39" s="10" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="10" t="s">
+      <c r="G39" s="14" t="s">
+        <v>589</v>
+      </c>
+      <c r="H39" s="14" t="s">
+        <v>588</v>
+      </c>
+      <c r="I39" s="14" t="s">
+        <v>593</v>
+      </c>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="L39" s="14"/>
+    </row>
+    <row r="40" spans="1:12" s="15" customFormat="1">
+      <c r="A40" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="H40" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="I40" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J40" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="K40" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="L40" s="10"/>
-    </row>
-    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="10" t="s">
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>590</v>
+      </c>
+      <c r="H40" s="14" t="s">
+        <v>599</v>
+      </c>
+      <c r="I40" s="14" t="s">
+        <v>593</v>
+      </c>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14" t="s">
+        <v>595</v>
+      </c>
+      <c r="L40" s="14"/>
+    </row>
+    <row r="41" spans="1:12" s="15" customFormat="1">
+      <c r="A41" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
       <c r="F41" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H41" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I41" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="L41" s="10"/>
-    </row>
-    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="10" t="s">
+      <c r="G41" s="14" t="s">
+        <v>591</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="I41" s="14" t="s">
+        <v>593</v>
+      </c>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14" t="s">
+        <v>596</v>
+      </c>
+      <c r="L41" s="14"/>
+    </row>
+    <row r="42" spans="1:12" s="15" customFormat="1">
+      <c r="A42" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
       <c r="F42" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G42" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H42" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I42" s="10" t="s">
-        <v>581</v>
-      </c>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="L42" s="10"/>
-    </row>
-    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G42" s="14" t="s">
+        <v>592</v>
+      </c>
+      <c r="H42" s="14" t="s">
+        <v>598</v>
+      </c>
+      <c r="I42" s="14" t="s">
+        <v>593</v>
+      </c>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14" t="s">
+        <v>597</v>
+      </c>
+      <c r="L42" s="14"/>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="10" t="s">
         <v>50</v>
       </c>
@@ -3953,58 +4097,58 @@
         <v>13</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>22</v>
+        <v>311</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>581</v>
-      </c>
-      <c r="J43" s="10"/>
+        <v>307</v>
+      </c>
+      <c r="J43" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="K43" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="L43" s="10"/>
-    </row>
-    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+        <v>73</v>
+      </c>
+      <c r="L43" s="10" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="10" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>13</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
       <c r="E44" s="10"/>
-      <c r="F44" s="10" t="s">
-        <v>13</v>
-      </c>
+      <c r="F44" s="10"/>
       <c r="G44" s="10" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J44" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="J44" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="K44" s="10" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="L44" s="10"/>
     </row>
-    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:12">
       <c r="A45" s="10" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
@@ -4013,26 +4157,26 @@
         <v>13</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="J45" s="10"/>
       <c r="K45" s="10" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="L45" s="10"/>
     </row>
-    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:12">
       <c r="A46" s="10" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
@@ -4041,30 +4185,26 @@
         <v>13</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>275</v>
+        <v>18</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>278</v>
+        <v>21</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="J46" s="10" t="s">
-        <v>277</v>
-      </c>
+        <v>581</v>
+      </c>
+      <c r="J46" s="10"/>
       <c r="K46" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="L46" s="10" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+      <c r="L46" s="10"/>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="10" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
@@ -4073,53 +4213,53 @@
         <v>13</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J47" s="10" t="s">
-        <v>33</v>
-      </c>
+        <v>581</v>
+      </c>
+      <c r="J47" s="10"/>
       <c r="K47" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="L47" s="10" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+      <c r="L47" s="10"/>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="10" t="s">
         <v>74</v>
       </c>
       <c r="B48" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
+      <c r="C48" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="E48" s="10"/>
       <c r="F48" s="10" t="s">
         <v>13</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="I48" s="10" t="s">
         <v>16</v>
       </c>
       <c r="J48" s="10"/>
       <c r="K48" s="10" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="L48" s="10"/>
     </row>
-    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:12">
       <c r="A49" s="10" t="s">
         <v>74</v>
       </c>
@@ -4133,21 +4273,21 @@
         <v>13</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>581</v>
+        <v>28</v>
       </c>
       <c r="J49" s="10"/>
       <c r="K49" s="10" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="L49" s="10"/>
     </row>
-    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:12">
       <c r="A50" s="10" t="s">
         <v>74</v>
       </c>
@@ -4161,58 +4301,62 @@
         <v>13</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>19</v>
+        <v>275</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>22</v>
+        <v>278</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>581</v>
-      </c>
-      <c r="J50" s="10"/>
+        <v>276</v>
+      </c>
+      <c r="J50" s="10" t="s">
+        <v>277</v>
+      </c>
       <c r="K50" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="L50" s="10"/>
-    </row>
-    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+        <v>283</v>
+      </c>
+      <c r="L50" s="10" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="10" t="s">
-        <v>312</v>
+        <v>74</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>13</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10" t="s">
         <v>13</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>314</v>
+        <v>78</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>315</v>
+        <v>84</v>
       </c>
       <c r="I51" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J51" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="J51" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="K51" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="L51" s="10"/>
-    </row>
-    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+        <v>81</v>
+      </c>
+      <c r="L51" s="10" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="10" t="s">
-        <v>312</v>
+        <v>74</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>313</v>
+        <v>75</v>
       </c>
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
@@ -4221,26 +4365,26 @@
         <v>13</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>298</v>
+        <v>17</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>304</v>
+        <v>20</v>
       </c>
       <c r="I52" s="10" t="s">
         <v>16</v>
       </c>
       <c r="J52" s="10"/>
       <c r="K52" s="10" t="s">
-        <v>305</v>
+        <v>62</v>
       </c>
       <c r="L52" s="10"/>
     </row>
-    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:12">
       <c r="A53" s="10" t="s">
-        <v>312</v>
+        <v>74</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>313</v>
+        <v>75</v>
       </c>
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
@@ -4249,26 +4393,26 @@
         <v>13</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>299</v>
+        <v>18</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>301</v>
+        <v>21</v>
       </c>
       <c r="I53" s="10" t="s">
-        <v>16</v>
+        <v>581</v>
       </c>
       <c r="J53" s="10"/>
       <c r="K53" s="10" t="s">
-        <v>303</v>
+        <v>61</v>
       </c>
       <c r="L53" s="10"/>
     </row>
-    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:12">
       <c r="A54" s="10" t="s">
-        <v>312</v>
+        <v>74</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>313</v>
+        <v>75</v>
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
@@ -4277,49 +4421,53 @@
         <v>13</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I54" s="10" t="s">
-        <v>16</v>
+        <v>581</v>
       </c>
       <c r="J54" s="10"/>
       <c r="K54" s="10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L54" s="10"/>
     </row>
-    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:12">
       <c r="A55" s="10" t="s">
         <v>312</v>
       </c>
       <c r="B55" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
+      <c r="C55" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="E55" s="10"/>
       <c r="F55" s="10" t="s">
         <v>13</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>38</v>
+        <v>314</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>49</v>
+        <v>315</v>
       </c>
       <c r="I55" s="10" t="s">
         <v>16</v>
       </c>
       <c r="J55" s="10"/>
       <c r="K55" s="10" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="L55" s="10"/>
     </row>
-    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:12">
       <c r="A56" s="10" t="s">
         <v>312</v>
       </c>
@@ -4333,21 +4481,21 @@
         <v>13</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>17</v>
+        <v>298</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>20</v>
+        <v>304</v>
       </c>
       <c r="I56" s="10" t="s">
         <v>16</v>
       </c>
       <c r="J56" s="10"/>
       <c r="K56" s="10" t="s">
-        <v>62</v>
+        <v>305</v>
       </c>
       <c r="L56" s="10"/>
     </row>
-    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:12">
       <c r="A57" s="10" t="s">
         <v>312</v>
       </c>
@@ -4361,21 +4509,21 @@
         <v>13</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>18</v>
+        <v>299</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>21</v>
+        <v>301</v>
       </c>
       <c r="I57" s="10" t="s">
-        <v>581</v>
+        <v>16</v>
       </c>
       <c r="J57" s="10"/>
       <c r="K57" s="10" t="s">
-        <v>61</v>
+        <v>303</v>
       </c>
       <c r="L57" s="10"/>
     </row>
-    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:12">
       <c r="A58" s="10" t="s">
         <v>312</v>
       </c>
@@ -4389,77 +4537,133 @@
         <v>13</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="I58" s="10" t="s">
-        <v>581</v>
+        <v>16</v>
       </c>
       <c r="J58" s="10"/>
       <c r="K58" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L58" s="10"/>
     </row>
-    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="10"/>
-      <c r="B59" s="10"/>
+    <row r="59" spans="1:12">
+      <c r="A59" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>313</v>
+      </c>
       <c r="C59" s="10"/>
       <c r="D59" s="10"/>
       <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10"/>
+      <c r="F59" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H59" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I59" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="J59" s="10"/>
-      <c r="K59" s="10"/>
+      <c r="K59" s="10" t="s">
+        <v>71</v>
+      </c>
       <c r="L59" s="10"/>
     </row>
-    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="10"/>
-      <c r="B60" s="10"/>
+    <row r="60" spans="1:12">
+      <c r="A60" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>313</v>
+      </c>
       <c r="C60" s="10"/>
       <c r="D60" s="10"/>
       <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
+      <c r="F60" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H60" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I60" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="J60" s="10"/>
-      <c r="K60" s="10"/>
+      <c r="K60" s="10" t="s">
+        <v>62</v>
+      </c>
       <c r="L60" s="10"/>
     </row>
-    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="10"/>
-      <c r="B61" s="10"/>
+    <row r="61" spans="1:12">
+      <c r="A61" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>313</v>
+      </c>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
       <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="10"/>
+      <c r="F61" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H61" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I61" s="10" t="s">
+        <v>581</v>
+      </c>
       <c r="J61" s="10"/>
-      <c r="K61" s="10"/>
+      <c r="K61" s="10" t="s">
+        <v>61</v>
+      </c>
       <c r="L61" s="10"/>
     </row>
-    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="10"/>
-      <c r="B62" s="10"/>
+    <row r="62" spans="1:12">
+      <c r="A62" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>313</v>
+      </c>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
       <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="10"/>
-      <c r="H62" s="10"/>
-      <c r="I62" s="10"/>
+      <c r="F62" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H62" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I62" s="10" t="s">
+        <v>581</v>
+      </c>
       <c r="J62" s="10"/>
-      <c r="K62" s="10"/>
+      <c r="K62" s="10" t="s">
+        <v>60</v>
+      </c>
       <c r="L62" s="10"/>
     </row>
-    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:12">
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -4473,7 +4677,7 @@
       <c r="K63" s="10"/>
       <c r="L63" s="10"/>
     </row>
-    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:12">
       <c r="A64" s="10"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -4487,7 +4691,7 @@
       <c r="K64" s="10"/>
       <c r="L64" s="10"/>
     </row>
-    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:12">
       <c r="A65" s="10"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -4501,7 +4705,7 @@
       <c r="K65" s="10"/>
       <c r="L65" s="10"/>
     </row>
-    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:12">
       <c r="A66" s="10"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -4515,7 +4719,7 @@
       <c r="K66" s="10"/>
       <c r="L66" s="10"/>
     </row>
-    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:12">
       <c r="A67" s="10"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
@@ -4529,7 +4733,7 @@
       <c r="K67" s="10"/>
       <c r="L67" s="10"/>
     </row>
-    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:12">
       <c r="A68" s="10"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -4543,7 +4747,7 @@
       <c r="K68" s="10"/>
       <c r="L68" s="10"/>
     </row>
-    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:12">
       <c r="A69" s="10"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -4557,7 +4761,7 @@
       <c r="K69" s="10"/>
       <c r="L69" s="10"/>
     </row>
-    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:12">
       <c r="A70" s="10"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
@@ -4571,7 +4775,7 @@
       <c r="K70" s="10"/>
       <c r="L70" s="10"/>
     </row>
-    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:12">
       <c r="A71" s="10"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -4585,7 +4789,7 @@
       <c r="K71" s="10"/>
       <c r="L71" s="10"/>
     </row>
-    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:12">
       <c r="A72" s="10"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
@@ -4599,7 +4803,7 @@
       <c r="K72" s="10"/>
       <c r="L72" s="10"/>
     </row>
-    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:12">
       <c r="A73" s="10"/>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
@@ -4613,7 +4817,7 @@
       <c r="K73" s="10"/>
       <c r="L73" s="10"/>
     </row>
-    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:12">
       <c r="A74" s="10"/>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
@@ -4627,7 +4831,7 @@
       <c r="K74" s="10"/>
       <c r="L74" s="10"/>
     </row>
-    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:12">
       <c r="A75" s="10"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
@@ -4641,7 +4845,7 @@
       <c r="K75" s="10"/>
       <c r="L75" s="10"/>
     </row>
-    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:12">
       <c r="A76" s="10"/>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
@@ -4655,7 +4859,7 @@
       <c r="K76" s="10"/>
       <c r="L76" s="10"/>
     </row>
-    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:12">
       <c r="A77" s="10"/>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
@@ -4669,7 +4873,7 @@
       <c r="K77" s="10"/>
       <c r="L77" s="10"/>
     </row>
-    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:12">
       <c r="A78" s="10"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
@@ -4683,25 +4887,76 @@
       <c r="K78" s="10"/>
       <c r="L78" s="10"/>
     </row>
+    <row r="79" spans="1:12">
+      <c r="A79" s="10"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10"/>
+      <c r="I79" s="10"/>
+      <c r="J79" s="10"/>
+      <c r="K79" s="10"/>
+      <c r="L79" s="10"/>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" s="10"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="10"/>
+      <c r="I80" s="10"/>
+      <c r="J80" s="10"/>
+      <c r="K80" s="10"/>
+      <c r="L80" s="10"/>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81" s="10"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10"/>
+      <c r="I81" s="10"/>
+      <c r="J81" s="10"/>
+      <c r="K81" s="10"/>
+      <c r="L81" s="10"/>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82" s="10"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="10"/>
+      <c r="I82" s="10"/>
+      <c r="J82" s="10"/>
+      <c r="K82" s="10"/>
+      <c r="L82" s="10"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:L78" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="REGULAR_WORK_MT"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:L82" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I78" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I82" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
       <formula1>"VARCHAR,INT,DECIMAL,DATE,TIME,DATETIME"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:F78" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:F82" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
       <formula1>",1"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="26" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4711,10 +4966,10 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="6" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="40.25" customWidth="1"/>
     <col min="2" max="2" width="14.375" customWidth="1"/>
@@ -4724,7 +4979,7 @@
     <col min="6" max="7" width="19.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="19.5">
       <c r="A1" s="7" t="s">
         <v>85</v>
       </c>
@@ -4747,7 +5002,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7">
       <c r="A2" s="5" t="s">
         <v>90</v>
       </c>
@@ -4770,7 +5025,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
         <v>94</v>
       </c>
@@ -4793,7 +5048,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7">
       <c r="A4" s="5" t="s">
         <v>95</v>
       </c>
@@ -4816,7 +5071,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7">
       <c r="A5" s="5" t="s">
         <v>96</v>
       </c>
@@ -4839,7 +5094,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7">
       <c r="A6" s="5" t="s">
         <v>97</v>
       </c>
@@ -4862,7 +5117,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7">
       <c r="A7" s="5" t="s">
         <v>98</v>
       </c>
@@ -4885,7 +5140,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7">
       <c r="A8" s="5" t="s">
         <v>99</v>
       </c>
@@ -4908,7 +5163,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7">
       <c r="A9" s="5" t="s">
         <v>100</v>
       </c>
@@ -4931,7 +5186,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7">
       <c r="A10" s="5" t="s">
         <v>101</v>
       </c>
@@ -4954,7 +5209,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7">
       <c r="A11" s="5" t="s">
         <v>102</v>
       </c>
@@ -4977,7 +5232,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7">
       <c r="A12" s="5" t="s">
         <v>103</v>
       </c>
@@ -5000,7 +5255,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7">
       <c r="A13" s="5" t="s">
         <v>104</v>
       </c>
@@ -5023,7 +5278,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7">
       <c r="A14" s="5" t="s">
         <v>105</v>
       </c>
@@ -5046,7 +5301,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
         <v>106</v>
       </c>
@@ -5069,7 +5324,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7">
       <c r="A16" s="5" t="s">
         <v>107</v>
       </c>
@@ -5092,7 +5347,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7">
       <c r="A17" s="5" t="s">
         <v>108</v>
       </c>
@@ -5115,7 +5370,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7">
       <c r="A18" s="5" t="s">
         <v>109</v>
       </c>
@@ -5138,7 +5393,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7">
       <c r="A19" s="5" t="s">
         <v>110</v>
       </c>
@@ -5161,7 +5416,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7">
       <c r="A20" s="5" t="s">
         <v>111</v>
       </c>
@@ -5184,7 +5439,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7">
       <c r="A21" s="5" t="s">
         <v>112</v>
       </c>
@@ -5207,7 +5462,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7">
       <c r="A22" s="5" t="s">
         <v>113</v>
       </c>
@@ -5230,7 +5485,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7">
       <c r="A23" s="5" t="s">
         <v>114</v>
       </c>
@@ -5253,7 +5508,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7">
       <c r="A24" s="5" t="s">
         <v>115</v>
       </c>
@@ -5276,7 +5531,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7">
       <c r="A25" s="5" t="s">
         <v>116</v>
       </c>
@@ -5299,7 +5554,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7">
       <c r="A26" s="5" t="s">
         <v>117</v>
       </c>
@@ -5322,7 +5577,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7">
       <c r="A27" s="5" t="s">
         <v>118</v>
       </c>
@@ -5345,7 +5600,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7">
       <c r="A28" s="5" t="s">
         <v>119</v>
       </c>
@@ -5368,7 +5623,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7">
       <c r="A29" s="5" t="s">
         <v>120</v>
       </c>
@@ -5391,7 +5646,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7">
       <c r="A30" s="5" t="s">
         <v>161</v>
       </c>
@@ -5414,7 +5669,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7">
       <c r="A31" s="5" t="s">
         <v>162</v>
       </c>
@@ -5437,7 +5692,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7">
       <c r="A32" s="5" t="s">
         <v>163</v>
       </c>
@@ -5460,7 +5715,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7">
       <c r="A33" s="5" t="s">
         <v>164</v>
       </c>
@@ -5483,7 +5738,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7">
       <c r="A34" s="5" t="s">
         <v>165</v>
       </c>
@@ -5506,7 +5761,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7">
       <c r="A35" s="5" t="s">
         <v>166</v>
       </c>
@@ -5529,7 +5784,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7">
       <c r="A36" s="5" t="s">
         <v>167</v>
       </c>
@@ -5552,7 +5807,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7">
       <c r="A37" s="5" t="s">
         <v>168</v>
       </c>
@@ -5575,7 +5830,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7">
       <c r="A38" s="5" t="s">
         <v>169</v>
       </c>
@@ -5598,7 +5853,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7">
       <c r="A39" s="5" t="s">
         <v>170</v>
       </c>
@@ -5621,7 +5876,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7">
       <c r="A40" s="5" t="s">
         <v>171</v>
       </c>
@@ -5644,7 +5899,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7">
       <c r="A41" s="5" t="s">
         <v>172</v>
       </c>
@@ -5667,7 +5922,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7">
       <c r="A42" s="5" t="s">
         <v>173</v>
       </c>
@@ -5690,7 +5945,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7">
       <c r="A43" s="5" t="s">
         <v>174</v>
       </c>
@@ -5713,7 +5968,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7">
       <c r="A44" s="5" t="s">
         <v>195</v>
       </c>
@@ -5736,7 +5991,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7">
       <c r="A45" s="5" t="s">
         <v>196</v>
       </c>
@@ -5759,7 +6014,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7">
       <c r="A46" s="5" t="s">
         <v>197</v>
       </c>
@@ -5782,7 +6037,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7">
       <c r="A47" s="5" t="s">
         <v>198</v>
       </c>
@@ -5805,7 +6060,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7">
       <c r="A48" s="5" t="s">
         <v>199</v>
       </c>
@@ -5828,7 +6083,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:7">
       <c r="A49" s="5" t="s">
         <v>200</v>
       </c>
@@ -5851,7 +6106,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:7">
       <c r="A50" s="5" t="s">
         <v>201</v>
       </c>
@@ -5874,7 +6129,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:7">
       <c r="A51" s="5" t="s">
         <v>202</v>
       </c>
@@ -5897,7 +6152,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:7">
       <c r="A52" s="5" t="s">
         <v>203</v>
       </c>
@@ -5920,7 +6175,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:7">
       <c r="A53" s="5" t="s">
         <v>204</v>
       </c>
@@ -5943,7 +6198,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:7">
       <c r="A54" s="5" t="s">
         <v>205</v>
       </c>
@@ -5966,7 +6221,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:7">
       <c r="A55" s="5" t="s">
         <v>206</v>
       </c>
@@ -5989,7 +6244,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:7">
       <c r="A56" s="5" t="s">
         <v>207</v>
       </c>
@@ -6012,7 +6267,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:7">
       <c r="A57" s="5" t="s">
         <v>208</v>
       </c>
@@ -6035,7 +6290,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:7">
       <c r="A58" s="5" t="s">
         <v>209</v>
       </c>
@@ -6058,7 +6313,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:7">
       <c r="A59" s="5" t="s">
         <v>210</v>
       </c>
@@ -6081,7 +6336,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:7">
       <c r="A60" s="5" t="s">
         <v>211</v>
       </c>
@@ -6104,7 +6359,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:7">
       <c r="A61" s="5" t="s">
         <v>212</v>
       </c>
@@ -6127,7 +6382,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:7">
       <c r="A62" s="5" t="s">
         <v>213</v>
       </c>
@@ -6150,7 +6405,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:7">
       <c r="A63" s="5" t="s">
         <v>214</v>
       </c>
@@ -6173,7 +6428,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:7">
       <c r="A64" s="5" t="s">
         <v>215</v>
       </c>
@@ -6196,7 +6451,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:7">
       <c r="A65" s="5" t="s">
         <v>216</v>
       </c>
@@ -6219,7 +6474,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:7">
       <c r="A66" s="5" t="s">
         <v>217</v>
       </c>
@@ -6242,7 +6497,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:7">
       <c r="A67" s="5" t="s">
         <v>218</v>
       </c>
@@ -6265,7 +6520,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:7">
       <c r="A68" s="5" t="s">
         <v>219</v>
       </c>
@@ -6288,7 +6543,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:7">
       <c r="A69" s="5" t="s">
         <v>220</v>
       </c>
@@ -6311,7 +6566,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:7">
       <c r="A70" s="5" t="s">
         <v>221</v>
       </c>
@@ -6334,7 +6589,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:7">
       <c r="A71" s="5" t="s">
         <v>222</v>
       </c>
@@ -6357,7 +6612,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:7">
       <c r="A72" s="5" t="s">
         <v>223</v>
       </c>
@@ -6380,7 +6635,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:7">
       <c r="A73" s="5" t="s">
         <v>224</v>
       </c>
@@ -6403,7 +6658,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:7">
       <c r="A74" s="5" t="s">
         <v>225</v>
       </c>
@@ -6426,7 +6681,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:7">
       <c r="A75" s="5" t="s">
         <v>226</v>
       </c>
@@ -6449,7 +6704,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:7">
       <c r="A76" s="5" t="s">
         <v>227</v>
       </c>
@@ -6472,7 +6727,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:7">
       <c r="A77" s="5" t="s">
         <v>228</v>
       </c>
@@ -6495,7 +6750,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:7">
       <c r="A78" s="5" t="s">
         <v>229</v>
       </c>
@@ -6518,7 +6773,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:7">
       <c r="A79" s="5" t="s">
         <v>230</v>
       </c>
@@ -6541,7 +6796,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:7">
       <c r="A80" s="5" t="s">
         <v>231</v>
       </c>
@@ -6564,7 +6819,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:7">
       <c r="A81" s="5" t="s">
         <v>232</v>
       </c>
@@ -6587,7 +6842,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:7">
       <c r="A82" s="5" t="s">
         <v>233</v>
       </c>
@@ -6610,7 +6865,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:7">
       <c r="A83" s="5" t="s">
         <v>234</v>
       </c>
@@ -6633,7 +6888,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:7">
       <c r="A84" s="5" t="s">
         <v>235</v>
       </c>
@@ -6656,7 +6911,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:7">
       <c r="A85" s="5" t="s">
         <v>236</v>
       </c>
@@ -6679,7 +6934,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:7">
       <c r="A86" s="5" t="s">
         <v>237</v>
       </c>
@@ -6702,7 +6957,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:7">
       <c r="A87" s="5" t="s">
         <v>238</v>
       </c>
@@ -6725,7 +6980,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:7">
       <c r="A88" s="5" t="s">
         <v>239</v>
       </c>
@@ -6748,7 +7003,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:7">
       <c r="A89" s="5" t="s">
         <v>240</v>
       </c>
@@ -6771,7 +7026,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:7">
       <c r="A90" s="5" t="s">
         <v>241</v>
       </c>
@@ -6794,7 +7049,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:7">
       <c r="A91" s="5" t="s">
         <v>242</v>
       </c>
@@ -6817,7 +7072,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:7">
       <c r="A92" s="5" t="s">
         <v>243</v>
       </c>
@@ -6840,7 +7095,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:7">
       <c r="A93" s="5" t="s">
         <v>244</v>
       </c>
@@ -6863,7 +7118,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:7">
       <c r="A94" s="5" t="s">
         <v>316</v>
       </c>
@@ -6886,7 +7141,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:7">
       <c r="A95" s="5" t="s">
         <v>317</v>
       </c>
@@ -6909,7 +7164,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:7">
       <c r="A96" s="5" t="s">
         <v>318</v>
       </c>
@@ -6932,7 +7187,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:7">
       <c r="A97" s="5" t="s">
         <v>319</v>
       </c>
@@ -6955,7 +7210,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:7">
       <c r="A98" s="5" t="s">
         <v>320</v>
       </c>
@@ -6978,7 +7233,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:7">
       <c r="A99" s="5" t="s">
         <v>321</v>
       </c>
@@ -7001,7 +7256,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:7">
       <c r="A100" s="5" t="s">
         <v>322</v>
       </c>
@@ -7024,7 +7279,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:7">
       <c r="A101" s="5" t="s">
         <v>323</v>
       </c>
@@ -7047,7 +7302,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:7">
       <c r="A102" s="5" t="s">
         <v>324</v>
       </c>
@@ -7070,7 +7325,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:7">
       <c r="A103" s="5" t="s">
         <v>325</v>
       </c>
@@ -7093,7 +7348,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:7">
       <c r="A104" s="5" t="s">
         <v>326</v>
       </c>
@@ -7116,7 +7371,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:7">
       <c r="A105" s="5" t="s">
         <v>327</v>
       </c>
@@ -7139,7 +7394,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:7">
       <c r="A106" s="5" t="s">
         <v>328</v>
       </c>
@@ -7162,7 +7417,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:7">
       <c r="A107" s="5" t="s">
         <v>329</v>
       </c>
@@ -7185,7 +7440,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:7">
       <c r="A108" s="5" t="s">
         <v>330</v>
       </c>
@@ -7208,7 +7463,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:7">
       <c r="A109" s="5" t="s">
         <v>331</v>
       </c>
@@ -7231,7 +7486,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:7">
       <c r="A110" s="5" t="s">
         <v>332</v>
       </c>
@@ -7254,7 +7509,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:7">
       <c r="A111" s="5" t="s">
         <v>333</v>
       </c>
@@ -7277,7 +7532,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:7">
       <c r="A112" s="5" t="s">
         <v>352</v>
       </c>
@@ -7300,7 +7555,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:7">
       <c r="A113" s="5" t="s">
         <v>353</v>
       </c>
@@ -7323,7 +7578,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:7">
       <c r="A114" s="5" t="s">
         <v>354</v>
       </c>
@@ -7346,7 +7601,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:7">
       <c r="A115" s="5" t="s">
         <v>355</v>
       </c>
@@ -7369,7 +7624,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:7">
       <c r="A116" s="5" t="s">
         <v>356</v>
       </c>
@@ -7392,7 +7647,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:7">
       <c r="A117" s="5" t="s">
         <v>357</v>
       </c>
@@ -7415,7 +7670,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:7">
       <c r="A118" s="5" t="s">
         <v>358</v>
       </c>
@@ -7438,7 +7693,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:7">
       <c r="A119" s="5" t="s">
         <v>359</v>
       </c>
@@ -7461,7 +7716,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:7">
       <c r="A120" s="5" t="s">
         <v>360</v>
       </c>
@@ -7484,7 +7739,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:7">
       <c r="A121" s="5" t="s">
         <v>361</v>
       </c>
@@ -7507,7 +7762,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:7">
       <c r="A122" s="5" t="s">
         <v>362</v>
       </c>
@@ -7530,7 +7785,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:7">
       <c r="A123" s="5" t="s">
         <v>363</v>
       </c>
@@ -7553,7 +7808,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:7">
       <c r="A124" s="5" t="s">
         <v>364</v>
       </c>
@@ -7576,7 +7831,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:7">
       <c r="A125" s="5" t="s">
         <v>365</v>
       </c>
@@ -7599,7 +7854,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:7">
       <c r="A126" s="5" t="s">
         <v>366</v>
       </c>
@@ -7622,7 +7877,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:7">
       <c r="A127" s="5" t="s">
         <v>367</v>
       </c>
@@ -7645,7 +7900,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:7">
       <c r="A128" s="5" t="s">
         <v>368</v>
       </c>
@@ -7668,7 +7923,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:7">
       <c r="A129" s="5" t="s">
         <v>369</v>
       </c>
@@ -7691,7 +7946,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:7">
       <c r="A130" s="5" t="s">
         <v>370</v>
       </c>
@@ -7714,7 +7969,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:7">
       <c r="A131" s="5" t="s">
         <v>371</v>
       </c>
@@ -7737,7 +7992,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:7">
       <c r="A132" s="5" t="s">
         <v>372</v>
       </c>
@@ -7760,7 +8015,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:7">
       <c r="A133" s="5" t="s">
         <v>373</v>
       </c>
@@ -7783,7 +8038,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:7">
       <c r="A134" s="5" t="s">
         <v>374</v>
       </c>
@@ -7806,7 +8061,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:7">
       <c r="A135" s="5" t="s">
         <v>375</v>
       </c>
@@ -7829,7 +8084,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:7">
       <c r="A136" s="5" t="s">
         <v>376</v>
       </c>
@@ -7852,7 +8107,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:7">
       <c r="A137" s="5" t="s">
         <v>377</v>
       </c>
@@ -7875,7 +8130,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:7">
       <c r="A138" s="5" t="s">
         <v>378</v>
       </c>
@@ -7898,7 +8153,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:7">
       <c r="A139" s="5" t="s">
         <v>379</v>
       </c>
@@ -7921,7 +8176,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:7">
       <c r="A140" s="5" t="s">
         <v>380</v>
       </c>
@@ -7944,7 +8199,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:7">
       <c r="A141" s="5" t="s">
         <v>381</v>
       </c>
@@ -7967,7 +8222,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:7">
       <c r="A142" s="5" t="s">
         <v>382</v>
       </c>
@@ -7990,7 +8245,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:7">
       <c r="A143" s="5" t="s">
         <v>383</v>
       </c>
@@ -8013,7 +8268,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:7">
       <c r="A144" s="5" t="s">
         <v>384</v>
       </c>
@@ -8036,7 +8291,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:7">
       <c r="A145" s="5" t="s">
         <v>385</v>
       </c>
@@ -8059,7 +8314,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:7">
       <c r="A146" s="5" t="s">
         <v>386</v>
       </c>
@@ -8082,7 +8337,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:7">
       <c r="A147" s="5" t="s">
         <v>387</v>
       </c>
@@ -8105,7 +8360,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:7">
       <c r="A148" s="5" t="s">
         <v>388</v>
       </c>
@@ -8128,7 +8383,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:7">
       <c r="A149" s="5" t="s">
         <v>389</v>
       </c>
@@ -8151,7 +8406,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:7">
       <c r="A150" s="5" t="s">
         <v>390</v>
       </c>
@@ -8174,7 +8429,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:7">
       <c r="A151" s="5" t="s">
         <v>391</v>
       </c>
@@ -8197,7 +8452,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:7">
       <c r="A152" s="5" t="s">
         <v>392</v>
       </c>
@@ -8220,7 +8475,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:7">
       <c r="A153" s="5" t="s">
         <v>393</v>
       </c>
@@ -8243,7 +8498,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:7">
       <c r="A154" s="5" t="s">
         <v>394</v>
       </c>
@@ -8266,7 +8521,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:7">
       <c r="A155" s="5" t="s">
         <v>395</v>
       </c>
@@ -8289,7 +8544,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:7">
       <c r="A156" s="5" t="s">
         <v>396</v>
       </c>
@@ -8312,7 +8567,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:7">
       <c r="A157" s="5" t="s">
         <v>397</v>
       </c>
@@ -8335,7 +8590,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:7">
       <c r="A158" s="5" t="s">
         <v>398</v>
       </c>
@@ -8358,7 +8613,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:7">
       <c r="A159" s="5" t="s">
         <v>399</v>
       </c>
@@ -8381,7 +8636,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:7">
       <c r="A160" s="5" t="s">
         <v>400</v>
       </c>
@@ -8404,7 +8659,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:7">
       <c r="A161" s="5" t="s">
         <v>401</v>
       </c>
@@ -8427,7 +8682,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:7">
       <c r="A162" s="5" t="s">
         <v>402</v>
       </c>
@@ -8450,7 +8705,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:7">
       <c r="A163" s="5" t="s">
         <v>403</v>
       </c>
@@ -8473,7 +8728,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:7">
       <c r="A164" s="5" t="s">
         <v>404</v>
       </c>
@@ -8496,7 +8751,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:7">
       <c r="A165" s="5" t="s">
         <v>405</v>
       </c>
@@ -8519,7 +8774,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:7">
       <c r="A166" s="5" t="s">
         <v>406</v>
       </c>
@@ -8542,7 +8797,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:7">
       <c r="A167" s="5" t="s">
         <v>407</v>
       </c>
@@ -8565,7 +8820,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:7">
       <c r="A168" s="5" t="s">
         <v>408</v>
       </c>
@@ -8588,7 +8843,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:7">
       <c r="A169" s="5" t="s">
         <v>409</v>
       </c>
@@ -8611,7 +8866,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:7">
       <c r="A170" s="5" t="s">
         <v>410</v>
       </c>
@@ -8634,7 +8889,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:7">
       <c r="A171" s="5" t="s">
         <v>411</v>
       </c>
@@ -8657,7 +8912,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:7">
       <c r="A172" s="5" t="s">
         <v>412</v>
       </c>
@@ -8680,7 +8935,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:7">
       <c r="A173" s="5" t="s">
         <v>413</v>
       </c>
@@ -8703,7 +8958,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:7">
       <c r="A174" s="5" t="s">
         <v>414</v>
       </c>
@@ -8726,7 +8981,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:7">
       <c r="A175" s="5" t="s">
         <v>415</v>
       </c>
@@ -8749,7 +9004,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:7">
       <c r="A176" s="5" t="s">
         <v>416</v>
       </c>
@@ -8772,7 +9027,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:7">
       <c r="A177" s="5" t="s">
         <v>417</v>
       </c>
@@ -8795,7 +9050,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:7">
       <c r="A178" s="5" t="s">
         <v>418</v>
       </c>
@@ -8818,7 +9073,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:7">
       <c r="A179" s="5" t="s">
         <v>419</v>
       </c>
@@ -8841,7 +9096,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:7">
       <c r="A180" s="5" t="s">
         <v>420</v>
       </c>
@@ -8864,7 +9119,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:7">
       <c r="A181" s="5" t="s">
         <v>421</v>
       </c>
@@ -8887,7 +9142,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:7">
       <c r="A182" s="5" t="s">
         <v>422</v>
       </c>
@@ -8910,7 +9165,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:7">
       <c r="A183" s="5" t="s">
         <v>423</v>
       </c>
@@ -8933,7 +9188,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:7">
       <c r="A184" s="5" t="s">
         <v>424</v>
       </c>
@@ -8956,7 +9211,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:7">
       <c r="A185" s="5" t="s">
         <v>425</v>
       </c>
@@ -8979,7 +9234,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:7">
       <c r="A186" s="5" t="s">
         <v>426</v>
       </c>
@@ -9002,7 +9257,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:7">
       <c r="A187" s="5" t="s">
         <v>427</v>
       </c>
@@ -9025,7 +9280,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:7">
       <c r="A188" s="5" t="s">
         <v>428</v>
       </c>
@@ -9048,7 +9303,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:7">
       <c r="A189" s="5" t="s">
         <v>429</v>
       </c>
@@ -9071,7 +9326,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:7">
       <c r="A190" s="5" t="s">
         <v>430</v>
       </c>
@@ -9094,7 +9349,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:7">
       <c r="A191" s="5" t="s">
         <v>431</v>
       </c>
@@ -9117,7 +9372,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:7">
       <c r="A192" s="5" t="s">
         <v>432</v>
       </c>
@@ -9140,7 +9395,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:7">
       <c r="A193" s="5" t="s">
         <v>433</v>
       </c>
@@ -9163,7 +9418,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:7">
       <c r="A194" s="5" t="s">
         <v>434</v>
       </c>
@@ -9186,7 +9441,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:7">
       <c r="A195" s="5" t="s">
         <v>435</v>
       </c>
@@ -9209,7 +9464,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:7">
       <c r="A196" s="5" t="s">
         <v>436</v>
       </c>
@@ -9232,7 +9487,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:7">
       <c r="A197" s="5" t="s">
         <v>437</v>
       </c>
@@ -9255,7 +9510,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:7">
       <c r="A198" s="5" t="s">
         <v>438</v>
       </c>
@@ -9278,7 +9533,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:7">
       <c r="A199" s="5" t="s">
         <v>439</v>
       </c>
@@ -9301,7 +9556,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:7">
       <c r="A200" s="5" t="s">
         <v>440</v>
       </c>
@@ -9324,7 +9579,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:7">
       <c r="A201" s="5" t="s">
         <v>441</v>
       </c>
@@ -9347,7 +9602,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:7">
       <c r="A202" s="5" t="s">
         <v>442</v>
       </c>
@@ -9370,7 +9625,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:7">
       <c r="A203" s="5" t="s">
         <v>443</v>
       </c>
@@ -9393,7 +9648,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:7">
       <c r="A204" s="5" t="s">
         <v>444</v>
       </c>
@@ -9416,7 +9671,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:7">
       <c r="A205" s="5" t="s">
         <v>445</v>
       </c>
@@ -9439,7 +9694,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:7">
       <c r="A206" s="5" t="s">
         <v>446</v>
       </c>
@@ -9462,7 +9717,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:7">
       <c r="A207" s="5" t="s">
         <v>447</v>
       </c>
@@ -9485,7 +9740,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:7">
       <c r="A208" s="5" t="s">
         <v>448</v>
       </c>
@@ -9508,7 +9763,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:7">
       <c r="A209" s="5" t="s">
         <v>449</v>
       </c>
@@ -9531,7 +9786,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:7">
       <c r="A210" s="5" t="s">
         <v>450</v>
       </c>
@@ -9554,7 +9809,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:7">
       <c r="A211" s="5" t="s">
         <v>451</v>
       </c>
@@ -9577,7 +9832,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:7">
       <c r="A212" s="5" t="s">
         <v>452</v>
       </c>
@@ -9600,7 +9855,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:7">
       <c r="A213" s="5" t="s">
         <v>453</v>
       </c>
@@ -9623,7 +9878,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:7">
       <c r="A214" s="5" t="s">
         <v>454</v>
       </c>
@@ -9646,7 +9901,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:7">
       <c r="A215" s="5" t="s">
         <v>455</v>
       </c>
@@ -9669,7 +9924,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:7">
       <c r="A216" s="5" t="s">
         <v>456</v>
       </c>
@@ -9704,12 +9959,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF93B400-BCA2-4B4C-81FC-BA85DF744E22}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="6" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="33.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
@@ -9721,7 +9976,7 @@
     <col min="8" max="8" width="18.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8">
       <c r="A1" s="13" t="s">
         <v>49</v>
       </c>
@@ -9747,7 +10002,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8">
       <c r="A2" s="5" t="s">
         <v>33</v>
       </c>
@@ -9773,7 +10028,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8">
       <c r="A3" s="5" t="s">
         <v>57</v>
       </c>
@@ -9799,7 +10054,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8">
       <c r="A4" s="5" t="s">
         <v>95</v>
       </c>
@@ -9825,7 +10080,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8">
       <c r="A5" s="5" t="s">
         <v>96</v>
       </c>
@@ -9870,7 +10125,7 @@
       <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="2" width="27.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.75" style="1" bestFit="1" customWidth="1"/>
@@ -9884,7 +10139,7 @@
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" s="4" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -9916,7 +10171,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -9928,7 +10183,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -9940,7 +10195,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -9952,7 +10207,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -9964,7 +10219,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -9976,7 +10231,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -9988,7 +10243,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -10000,7 +10255,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -10012,7 +10267,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -10024,7 +10279,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -10036,7 +10291,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -10048,7 +10303,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -10060,7 +10315,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -10072,7 +10327,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -10084,7 +10339,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -10096,7 +10351,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -10108,7 +10363,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -10120,7 +10375,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -10132,7 +10387,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -10144,7 +10399,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -10156,7 +10411,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -10168,7 +10423,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -10180,7 +10435,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -10192,7 +10447,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -10204,7 +10459,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -10216,7 +10471,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -10228,7 +10483,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -10240,7 +10495,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -10252,7 +10507,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -10264,7 +10519,7 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:10">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -10276,7 +10531,7 @@
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:10">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -10288,7 +10543,7 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:10">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -10300,7 +10555,7 @@
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:10">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -10312,7 +10567,7 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:10">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -10324,7 +10579,7 @@
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:10">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -10336,7 +10591,7 @@
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:10">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -10348,7 +10603,7 @@
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:10">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -10360,7 +10615,7 @@
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:10">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -10372,7 +10627,7 @@
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:10">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -10384,7 +10639,7 @@
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:10">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -10396,7 +10651,7 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:10">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -10408,7 +10663,7 @@
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:10">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -10420,7 +10675,7 @@
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:10">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -10432,7 +10687,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:10">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -10444,7 +10699,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:10">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -10456,7 +10711,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:10">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -10468,7 +10723,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:10">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -10480,7 +10735,7 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:10">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -10492,7 +10747,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:10">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -10504,7 +10759,7 @@
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:10">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -10516,7 +10771,7 @@
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:10">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -10528,7 +10783,7 @@
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:10">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -10540,7 +10795,7 @@
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:10">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -10552,7 +10807,7 @@
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:10">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -10564,7 +10819,7 @@
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:10">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -10576,7 +10831,7 @@
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:10">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -10588,7 +10843,7 @@
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:10">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -10600,7 +10855,7 @@
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:10">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -10612,7 +10867,7 @@
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:10">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -10624,7 +10879,7 @@
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:10">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -10636,7 +10891,7 @@
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:10">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -10648,7 +10903,7 @@
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:10">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -10660,7 +10915,7 @@
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:10">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -10672,7 +10927,7 @@
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:10">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -10684,7 +10939,7 @@
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:10">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -10696,7 +10951,7 @@
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:10">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -10708,7 +10963,7 @@
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:10">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -10720,7 +10975,7 @@
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:10">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>

--- a/joshua-docs/02_design/90_db/90_DB設計.xlsx
+++ b/joshua-docs/02_design/90_db/90_DB設計.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\joshua-app\git\joshua\joshua-docs\02_design\90_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214D7D38-881C-43F0-B8FF-941754519051}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBDC7F81-D575-4806-A358-EB9FC87E8500}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="17790" tabRatio="761" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
@@ -21,9 +21,9 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">BUSINESS_CALENDAR_MT!$A$1:$G$93</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">REGULAR_WORK_MT!$A$1:$H$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$L$82</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$L$71</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TEMPLATE!$A$1:$J$69</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">TABLE_LIST!$A$1:$L$82</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">TABLE_LIST!$A$1:$L$71</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -2327,15 +2327,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>HOLODAY_WORK_TIME</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>OVER_TIME</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>LATE_OVER_TIME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HOLIDAY_WORK_TIME</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2837,11 +2837,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4943154E-E197-4DDD-ACD8-DEAC3E0A272D}">
-  <dimension ref="A1:L82"/>
+  <dimension ref="A1:L71"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H32" sqref="H32"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4016,7 +4016,7 @@
         <v>590</v>
       </c>
       <c r="H40" s="14" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="I40" s="14" t="s">
         <v>593</v>
@@ -4044,7 +4044,7 @@
         <v>591</v>
       </c>
       <c r="H41" s="14" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="I41" s="14" t="s">
         <v>593</v>
@@ -4072,7 +4072,7 @@
         <v>592</v>
       </c>
       <c r="H42" s="14" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="I42" s="14" t="s">
         <v>593</v>
@@ -4789,168 +4789,14 @@
       <c r="K71" s="10"/>
       <c r="L71" s="10"/>
     </row>
-    <row r="72" spans="1:12">
-      <c r="A72" s="10"/>
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
-      <c r="G72" s="10"/>
-      <c r="H72" s="10"/>
-      <c r="I72" s="10"/>
-      <c r="J72" s="10"/>
-      <c r="K72" s="10"/>
-      <c r="L72" s="10"/>
-    </row>
-    <row r="73" spans="1:12">
-      <c r="A73" s="10"/>
-      <c r="B73" s="10"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="10"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="10"/>
-      <c r="G73" s="10"/>
-      <c r="H73" s="10"/>
-      <c r="I73" s="10"/>
-      <c r="J73" s="10"/>
-      <c r="K73" s="10"/>
-      <c r="L73" s="10"/>
-    </row>
-    <row r="74" spans="1:12">
-      <c r="A74" s="10"/>
-      <c r="B74" s="10"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10"/>
-      <c r="G74" s="10"/>
-      <c r="H74" s="10"/>
-      <c r="I74" s="10"/>
-      <c r="J74" s="10"/>
-      <c r="K74" s="10"/>
-      <c r="L74" s="10"/>
-    </row>
-    <row r="75" spans="1:12">
-      <c r="A75" s="10"/>
-      <c r="B75" s="10"/>
-      <c r="C75" s="10"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="10"/>
-      <c r="H75" s="10"/>
-      <c r="I75" s="10"/>
-      <c r="J75" s="10"/>
-      <c r="K75" s="10"/>
-      <c r="L75" s="10"/>
-    </row>
-    <row r="76" spans="1:12">
-      <c r="A76" s="10"/>
-      <c r="B76" s="10"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="10"/>
-      <c r="I76" s="10"/>
-      <c r="J76" s="10"/>
-      <c r="K76" s="10"/>
-      <c r="L76" s="10"/>
-    </row>
-    <row r="77" spans="1:12">
-      <c r="A77" s="10"/>
-      <c r="B77" s="10"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="10"/>
-      <c r="G77" s="10"/>
-      <c r="H77" s="10"/>
-      <c r="I77" s="10"/>
-      <c r="J77" s="10"/>
-      <c r="K77" s="10"/>
-      <c r="L77" s="10"/>
-    </row>
-    <row r="78" spans="1:12">
-      <c r="A78" s="10"/>
-      <c r="B78" s="10"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10"/>
-      <c r="G78" s="10"/>
-      <c r="H78" s="10"/>
-      <c r="I78" s="10"/>
-      <c r="J78" s="10"/>
-      <c r="K78" s="10"/>
-      <c r="L78" s="10"/>
-    </row>
-    <row r="79" spans="1:12">
-      <c r="A79" s="10"/>
-      <c r="B79" s="10"/>
-      <c r="C79" s="10"/>
-      <c r="D79" s="10"/>
-      <c r="E79" s="10"/>
-      <c r="F79" s="10"/>
-      <c r="G79" s="10"/>
-      <c r="H79" s="10"/>
-      <c r="I79" s="10"/>
-      <c r="J79" s="10"/>
-      <c r="K79" s="10"/>
-      <c r="L79" s="10"/>
-    </row>
-    <row r="80" spans="1:12">
-      <c r="A80" s="10"/>
-      <c r="B80" s="10"/>
-      <c r="C80" s="10"/>
-      <c r="D80" s="10"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="10"/>
-      <c r="G80" s="10"/>
-      <c r="H80" s="10"/>
-      <c r="I80" s="10"/>
-      <c r="J80" s="10"/>
-      <c r="K80" s="10"/>
-      <c r="L80" s="10"/>
-    </row>
-    <row r="81" spans="1:12">
-      <c r="A81" s="10"/>
-      <c r="B81" s="10"/>
-      <c r="C81" s="10"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="10"/>
-      <c r="G81" s="10"/>
-      <c r="H81" s="10"/>
-      <c r="I81" s="10"/>
-      <c r="J81" s="10"/>
-      <c r="K81" s="10"/>
-      <c r="L81" s="10"/>
-    </row>
-    <row r="82" spans="1:12">
-      <c r="A82" s="10"/>
-      <c r="B82" s="10"/>
-      <c r="C82" s="10"/>
-      <c r="D82" s="10"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="10"/>
-      <c r="G82" s="10"/>
-      <c r="H82" s="10"/>
-      <c r="I82" s="10"/>
-      <c r="J82" s="10"/>
-      <c r="K82" s="10"/>
-      <c r="L82" s="10"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:L82" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
+  <autoFilter ref="A1:L71" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I82" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I71" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
       <formula1>"VARCHAR,INT,DECIMAL,DATE,TIME,DATETIME"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:F82" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:F71" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
       <formula1>",1"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4964,9 +4810,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B156E69B-A368-43FC-B871-296031B2A5E5}">
   <dimension ref="A1:G216"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="18.75"/>
@@ -9961,7 +9807,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="18.75"/>

--- a/joshua-docs/02_design/90_db/90_DB設計.xlsx
+++ b/joshua-docs/02_design/90_db/90_DB設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\joshua-app\git\joshua\joshua-docs\02_design\90_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBDC7F81-D575-4806-A358-EB9FC87E8500}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781BAB0A-5773-4487-89E4-E7EF77C44E4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="17790" tabRatio="761" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="9450" yWindow="1230" windowWidth="17370" windowHeight="13905" tabRatio="761" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
@@ -21,9 +21,9 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">BUSINESS_CALENDAR_MT!$A$1:$G$93</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">REGULAR_WORK_MT!$A$1:$H$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$L$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$L$89</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TEMPLATE!$A$1:$J$69</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">TABLE_LIST!$A$1:$L$71</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">TABLE_LIST!$A$1:$L$89</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2029" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2082" uniqueCount="613">
   <si>
     <t>PRIMARY_KEY</t>
     <phoneticPr fontId="1"/>
@@ -2336,6 +2336,63 @@
   </si>
   <si>
     <t>HOLIDAY_WORK_TIME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メモユーザ情報</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NOTE_USER_DATA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メモユーザ情報ID</t>
+  </si>
+  <si>
+    <t>件名</t>
+  </si>
+  <si>
+    <t>S3キー</t>
+  </si>
+  <si>
+    <t>TITLE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S3_KEY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEQ_NOTE_USER_DATA_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メモの件名</t>
+    <rPh sb="3" eb="5">
+      <t>ケンメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザが保存したS3ファイルを識別するキー</t>
+    <rPh sb="4" eb="6">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シキベツ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2837,11 +2894,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4943154E-E197-4DDD-ACD8-DEAC3E0A272D}">
-  <dimension ref="A1:L71"/>
+  <dimension ref="A1:L89"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H43" sqref="H43"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3971,117 +4028,117 @@
       </c>
       <c r="L38" s="10"/>
     </row>
-    <row r="39" spans="1:12" s="15" customFormat="1">
-      <c r="A39" s="14" t="s">
+    <row r="39" spans="1:12">
+      <c r="A39" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
       <c r="F39" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G39" s="14" t="s">
+      <c r="G39" s="10" t="s">
         <v>589</v>
       </c>
-      <c r="H39" s="14" t="s">
+      <c r="H39" s="10" t="s">
         <v>588</v>
       </c>
-      <c r="I39" s="14" t="s">
+      <c r="I39" s="10" t="s">
         <v>593</v>
       </c>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14" t="s">
+      <c r="J39" s="10"/>
+      <c r="K39" s="10" t="s">
         <v>594</v>
       </c>
-      <c r="L39" s="14"/>
-    </row>
-    <row r="40" spans="1:12" s="15" customFormat="1">
-      <c r="A40" s="14" t="s">
+      <c r="L39" s="10"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
       <c r="F40" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G40" s="14" t="s">
+      <c r="G40" s="10" t="s">
         <v>590</v>
       </c>
-      <c r="H40" s="14" t="s">
+      <c r="H40" s="10" t="s">
         <v>598</v>
       </c>
-      <c r="I40" s="14" t="s">
+      <c r="I40" s="10" t="s">
         <v>593</v>
       </c>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14" t="s">
+      <c r="J40" s="10"/>
+      <c r="K40" s="10" t="s">
         <v>595</v>
       </c>
-      <c r="L40" s="14"/>
-    </row>
-    <row r="41" spans="1:12" s="15" customFormat="1">
-      <c r="A41" s="14" t="s">
+      <c r="L40" s="10"/>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
       <c r="F41" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="14" t="s">
+      <c r="G41" s="10" t="s">
         <v>591</v>
       </c>
-      <c r="H41" s="14" t="s">
+      <c r="H41" s="10" t="s">
         <v>599</v>
       </c>
-      <c r="I41" s="14" t="s">
+      <c r="I41" s="10" t="s">
         <v>593</v>
       </c>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14" t="s">
+      <c r="J41" s="10"/>
+      <c r="K41" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="L41" s="14"/>
-    </row>
-    <row r="42" spans="1:12" s="15" customFormat="1">
-      <c r="A42" s="14" t="s">
+      <c r="L41" s="10"/>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
       <c r="F42" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G42" s="14" t="s">
+      <c r="G42" s="10" t="s">
         <v>592</v>
       </c>
-      <c r="H42" s="14" t="s">
+      <c r="H42" s="10" t="s">
         <v>600</v>
       </c>
-      <c r="I42" s="14" t="s">
+      <c r="I42" s="10" t="s">
         <v>593</v>
       </c>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14" t="s">
+      <c r="J42" s="10"/>
+      <c r="K42" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="L42" s="14"/>
+      <c r="L42" s="10"/>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="10" t="s">
@@ -4663,140 +4720,498 @@
       </c>
       <c r="L62" s="10"/>
     </row>
-    <row r="63" spans="1:12">
-      <c r="A63" s="10"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
-      <c r="I63" s="10"/>
-      <c r="J63" s="10"/>
-      <c r="K63" s="10"/>
-      <c r="L63" s="10"/>
-    </row>
-    <row r="64" spans="1:12">
-      <c r="A64" s="10"/>
-      <c r="B64" s="10"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="10"/>
-      <c r="I64" s="10"/>
-      <c r="J64" s="10"/>
-      <c r="K64" s="10"/>
-      <c r="L64" s="10"/>
-    </row>
-    <row r="65" spans="1:12">
-      <c r="A65" s="10"/>
-      <c r="B65" s="10"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
-      <c r="H65" s="10"/>
-      <c r="I65" s="10"/>
-      <c r="J65" s="10"/>
-      <c r="K65" s="10"/>
-      <c r="L65" s="10"/>
-    </row>
-    <row r="66" spans="1:12">
-      <c r="A66" s="10"/>
-      <c r="B66" s="10"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="10"/>
-      <c r="I66" s="10"/>
-      <c r="J66" s="10"/>
-      <c r="K66" s="10"/>
-      <c r="L66" s="10"/>
-    </row>
-    <row r="67" spans="1:12">
-      <c r="A67" s="10"/>
-      <c r="B67" s="10"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
-      <c r="H67" s="10"/>
-      <c r="I67" s="10"/>
-      <c r="J67" s="10"/>
-      <c r="K67" s="10"/>
-      <c r="L67" s="10"/>
-    </row>
-    <row r="68" spans="1:12">
-      <c r="A68" s="10"/>
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="10"/>
-      <c r="I68" s="10"/>
-      <c r="J68" s="10"/>
-      <c r="K68" s="10"/>
-      <c r="L68" s="10"/>
-    </row>
-    <row r="69" spans="1:12">
-      <c r="A69" s="10"/>
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
-      <c r="G69" s="10"/>
-      <c r="H69" s="10"/>
-      <c r="I69" s="10"/>
-      <c r="J69" s="10"/>
-      <c r="K69" s="10"/>
-      <c r="L69" s="10"/>
-    </row>
-    <row r="70" spans="1:12">
-      <c r="A70" s="10"/>
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
-      <c r="H70" s="10"/>
-      <c r="I70" s="10"/>
-      <c r="J70" s="10"/>
-      <c r="K70" s="10"/>
-      <c r="L70" s="10"/>
-    </row>
-    <row r="71" spans="1:12">
-      <c r="A71" s="10"/>
-      <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10"/>
-      <c r="G71" s="10"/>
-      <c r="H71" s="10"/>
-      <c r="I71" s="10"/>
-      <c r="J71" s="10"/>
-      <c r="K71" s="10"/>
-      <c r="L71" s="10"/>
+    <row r="63" spans="1:12" s="15" customFormat="1">
+      <c r="A63" s="14" t="s">
+        <v>601</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>602</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G63" s="14" t="s">
+        <v>603</v>
+      </c>
+      <c r="H63" s="14" t="s">
+        <v>610</v>
+      </c>
+      <c r="I63" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J63" s="14"/>
+      <c r="K63" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="L63" s="14"/>
+    </row>
+    <row r="64" spans="1:12" s="15" customFormat="1">
+      <c r="A64" s="14" t="s">
+        <v>601</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>602</v>
+      </c>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G64" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H64" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I64" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J64" s="14"/>
+      <c r="K64" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="L64" s="14"/>
+    </row>
+    <row r="65" spans="1:12" s="15" customFormat="1">
+      <c r="A65" s="14" t="s">
+        <v>601</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>602</v>
+      </c>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G65" s="14" t="s">
+        <v>604</v>
+      </c>
+      <c r="H65" s="14" t="s">
+        <v>606</v>
+      </c>
+      <c r="I65" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="J65" s="14" t="s">
+        <v>607</v>
+      </c>
+      <c r="K65" s="14" t="s">
+        <v>611</v>
+      </c>
+      <c r="L65" s="14"/>
+    </row>
+    <row r="66" spans="1:12" s="15" customFormat="1">
+      <c r="A66" s="14" t="s">
+        <v>601</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>602</v>
+      </c>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G66" s="14" t="s">
+        <v>605</v>
+      </c>
+      <c r="H66" s="14" t="s">
+        <v>608</v>
+      </c>
+      <c r="I66" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="J66" s="14" t="s">
+        <v>609</v>
+      </c>
+      <c r="K66" s="14" t="s">
+        <v>612</v>
+      </c>
+      <c r="L66" s="14"/>
+    </row>
+    <row r="67" spans="1:12" s="15" customFormat="1">
+      <c r="A67" s="14" t="s">
+        <v>601</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>602</v>
+      </c>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G67" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H67" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="I67" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J67" s="14"/>
+      <c r="K67" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="L67" s="14"/>
+    </row>
+    <row r="68" spans="1:12" s="15" customFormat="1">
+      <c r="A68" s="14" t="s">
+        <v>601</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>602</v>
+      </c>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G68" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H68" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="I68" s="14" t="s">
+        <v>581</v>
+      </c>
+      <c r="J68" s="14"/>
+      <c r="K68" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="L68" s="14"/>
+    </row>
+    <row r="69" spans="1:12" s="15" customFormat="1">
+      <c r="A69" s="14" t="s">
+        <v>601</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>602</v>
+      </c>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G69" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H69" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="I69" s="14" t="s">
+        <v>581</v>
+      </c>
+      <c r="J69" s="14"/>
+      <c r="K69" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="L69" s="14"/>
+    </row>
+    <row r="70" spans="1:12" s="15" customFormat="1">
+      <c r="A70" s="14"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="14"/>
+      <c r="J70" s="14"/>
+      <c r="K70" s="14"/>
+      <c r="L70" s="14"/>
+    </row>
+    <row r="71" spans="1:12" s="15" customFormat="1">
+      <c r="A71" s="14"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="14"/>
+      <c r="J71" s="14"/>
+      <c r="K71" s="14"/>
+      <c r="L71" s="14"/>
+    </row>
+    <row r="72" spans="1:12" s="15" customFormat="1">
+      <c r="A72" s="14"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="14"/>
+      <c r="J72" s="14"/>
+      <c r="K72" s="14"/>
+      <c r="L72" s="14"/>
+    </row>
+    <row r="73" spans="1:12" s="15" customFormat="1">
+      <c r="A73" s="14"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="14"/>
+      <c r="H73" s="14"/>
+      <c r="I73" s="14"/>
+      <c r="J73" s="14"/>
+      <c r="K73" s="14"/>
+      <c r="L73" s="14"/>
+    </row>
+    <row r="74" spans="1:12" s="15" customFormat="1">
+      <c r="A74" s="14"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="14"/>
+      <c r="H74" s="14"/>
+      <c r="I74" s="14"/>
+      <c r="J74" s="14"/>
+      <c r="K74" s="14"/>
+      <c r="L74" s="14"/>
+    </row>
+    <row r="75" spans="1:12" s="15" customFormat="1">
+      <c r="A75" s="14"/>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c r="G75" s="14"/>
+      <c r="H75" s="14"/>
+      <c r="I75" s="14"/>
+      <c r="J75" s="14"/>
+      <c r="K75" s="14"/>
+      <c r="L75" s="14"/>
+    </row>
+    <row r="76" spans="1:12" s="15" customFormat="1">
+      <c r="A76" s="14"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="14"/>
+      <c r="H76" s="14"/>
+      <c r="I76" s="14"/>
+      <c r="J76" s="14"/>
+      <c r="K76" s="14"/>
+      <c r="L76" s="14"/>
+    </row>
+    <row r="77" spans="1:12" s="15" customFormat="1">
+      <c r="A77" s="14"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c r="G77" s="14"/>
+      <c r="H77" s="14"/>
+      <c r="I77" s="14"/>
+      <c r="J77" s="14"/>
+      <c r="K77" s="14"/>
+      <c r="L77" s="14"/>
+    </row>
+    <row r="78" spans="1:12" s="15" customFormat="1">
+      <c r="A78" s="14"/>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="14"/>
+      <c r="H78" s="14"/>
+      <c r="I78" s="14"/>
+      <c r="J78" s="14"/>
+      <c r="K78" s="14"/>
+      <c r="L78" s="14"/>
+    </row>
+    <row r="79" spans="1:12" s="15" customFormat="1">
+      <c r="A79" s="14"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c r="G79" s="14"/>
+      <c r="H79" s="14"/>
+      <c r="I79" s="14"/>
+      <c r="J79" s="14"/>
+      <c r="K79" s="14"/>
+      <c r="L79" s="14"/>
+    </row>
+    <row r="80" spans="1:12" s="15" customFormat="1">
+      <c r="A80" s="14"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c r="G80" s="14"/>
+      <c r="H80" s="14"/>
+      <c r="I80" s="14"/>
+      <c r="J80" s="14"/>
+      <c r="K80" s="14"/>
+      <c r="L80" s="14"/>
+    </row>
+    <row r="81" spans="1:12" s="15" customFormat="1">
+      <c r="A81" s="14"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="14"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="14"/>
+      <c r="J81" s="14"/>
+      <c r="K81" s="14"/>
+      <c r="L81" s="14"/>
+    </row>
+    <row r="82" spans="1:12" s="15" customFormat="1">
+      <c r="A82" s="14"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c r="G82" s="14"/>
+      <c r="H82" s="14"/>
+      <c r="I82" s="14"/>
+      <c r="J82" s="14"/>
+      <c r="K82" s="14"/>
+      <c r="L82" s="14"/>
+    </row>
+    <row r="83" spans="1:12" s="15" customFormat="1">
+      <c r="A83" s="14"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c r="G83" s="14"/>
+      <c r="H83" s="14"/>
+      <c r="I83" s="14"/>
+      <c r="J83" s="14"/>
+      <c r="K83" s="14"/>
+      <c r="L83" s="14"/>
+    </row>
+    <row r="84" spans="1:12" s="15" customFormat="1">
+      <c r="A84" s="14"/>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c r="G84" s="14"/>
+      <c r="H84" s="14"/>
+      <c r="I84" s="14"/>
+      <c r="J84" s="14"/>
+      <c r="K84" s="14"/>
+      <c r="L84" s="14"/>
+    </row>
+    <row r="85" spans="1:12" s="15" customFormat="1">
+      <c r="A85" s="14"/>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c r="G85" s="14"/>
+      <c r="H85" s="14"/>
+      <c r="I85" s="14"/>
+      <c r="J85" s="14"/>
+      <c r="K85" s="14"/>
+      <c r="L85" s="14"/>
+    </row>
+    <row r="86" spans="1:12" s="15" customFormat="1">
+      <c r="A86" s="14"/>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c r="G86" s="14"/>
+      <c r="H86" s="14"/>
+      <c r="I86" s="14"/>
+      <c r="J86" s="14"/>
+      <c r="K86" s="14"/>
+      <c r="L86" s="14"/>
+    </row>
+    <row r="87" spans="1:12" s="15" customFormat="1">
+      <c r="A87" s="14"/>
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c r="G87" s="14"/>
+      <c r="H87" s="14"/>
+      <c r="I87" s="14"/>
+      <c r="J87" s="14"/>
+      <c r="K87" s="14"/>
+      <c r="L87" s="14"/>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88" s="10"/>
+      <c r="B88" s="10"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="10"/>
+      <c r="I88" s="10"/>
+      <c r="J88" s="10"/>
+      <c r="K88" s="10"/>
+      <c r="L88" s="10"/>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89" s="10"/>
+      <c r="B89" s="10"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="10"/>
+      <c r="I89" s="10"/>
+      <c r="J89" s="10"/>
+      <c r="K89" s="10"/>
+      <c r="L89" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L71" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
+  <autoFilter ref="A1:L89" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I71" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I89" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
       <formula1>"VARCHAR,INT,DECIMAL,DATE,TIME,DATETIME"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:F71" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:F89" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
       <formula1>",1"</formula1>
     </dataValidation>
   </dataValidations>

--- a/joshua-docs/02_design/90_db/90_DB設計.xlsx
+++ b/joshua-docs/02_design/90_db/90_DB設計.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\joshua-app\git\joshua\joshua-docs\02_design\90_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781BAB0A-5773-4487-89E4-E7EF77C44E4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E5A12D-08AC-441D-A4C7-25F317614087}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9450" yWindow="1230" windowWidth="17370" windowHeight="13905" tabRatio="761" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="17790" tabRatio="761" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
@@ -2400,7 +2400,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2481,6 +2481,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2531,7 +2538,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2578,6 +2585,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2897,8 +2910,8 @@
   <dimension ref="A1:L89"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C55" sqref="C55"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4720,209 +4733,209 @@
       </c>
       <c r="L62" s="10"/>
     </row>
-    <row r="63" spans="1:12" s="15" customFormat="1">
-      <c r="A63" s="14" t="s">
+    <row r="63" spans="1:12" s="17" customFormat="1">
+      <c r="A63" s="16" t="s">
         <v>601</v>
       </c>
-      <c r="B63" s="14" t="s">
+      <c r="B63" s="16" t="s">
         <v>602</v>
       </c>
-      <c r="C63" s="14" t="s">
+      <c r="C63" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D63" s="14" t="s">
+      <c r="D63" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14" t="s">
+      <c r="E63" s="16"/>
+      <c r="F63" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G63" s="14" t="s">
+      <c r="G63" s="16" t="s">
         <v>603</v>
       </c>
-      <c r="H63" s="14" t="s">
+      <c r="H63" s="16" t="s">
         <v>610</v>
       </c>
-      <c r="I63" s="14" t="s">
+      <c r="I63" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="J63" s="14"/>
-      <c r="K63" s="14" t="s">
+      <c r="J63" s="16"/>
+      <c r="K63" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="L63" s="14"/>
-    </row>
-    <row r="64" spans="1:12" s="15" customFormat="1">
-      <c r="A64" s="14" t="s">
+      <c r="L63" s="16"/>
+    </row>
+    <row r="64" spans="1:12" s="17" customFormat="1">
+      <c r="A64" s="16" t="s">
         <v>601</v>
       </c>
-      <c r="B64" s="14" t="s">
+      <c r="B64" s="16" t="s">
         <v>602</v>
       </c>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14" t="s">
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G64" s="14" t="s">
+      <c r="G64" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H64" s="14" t="s">
+      <c r="H64" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="I64" s="14" t="s">
+      <c r="I64" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="J64" s="14"/>
-      <c r="K64" s="14" t="s">
+      <c r="J64" s="16"/>
+      <c r="K64" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="L64" s="14"/>
-    </row>
-    <row r="65" spans="1:12" s="15" customFormat="1">
-      <c r="A65" s="14" t="s">
+      <c r="L64" s="16"/>
+    </row>
+    <row r="65" spans="1:12" s="17" customFormat="1">
+      <c r="A65" s="16" t="s">
         <v>601</v>
       </c>
-      <c r="B65" s="14" t="s">
+      <c r="B65" s="16" t="s">
         <v>602</v>
       </c>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14" t="s">
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G65" s="14" t="s">
+      <c r="G65" s="16" t="s">
         <v>604</v>
       </c>
-      <c r="H65" s="14" t="s">
+      <c r="H65" s="16" t="s">
         <v>606</v>
       </c>
-      <c r="I65" s="14" t="s">
+      <c r="I65" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="J65" s="14" t="s">
+      <c r="J65" s="16" t="s">
         <v>607</v>
       </c>
-      <c r="K65" s="14" t="s">
+      <c r="K65" s="16" t="s">
         <v>611</v>
       </c>
-      <c r="L65" s="14"/>
-    </row>
-    <row r="66" spans="1:12" s="15" customFormat="1">
-      <c r="A66" s="14" t="s">
+      <c r="L65" s="16"/>
+    </row>
+    <row r="66" spans="1:12" s="17" customFormat="1">
+      <c r="A66" s="16" t="s">
         <v>601</v>
       </c>
-      <c r="B66" s="14" t="s">
+      <c r="B66" s="16" t="s">
         <v>602</v>
       </c>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14" t="s">
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G66" s="14" t="s">
+      <c r="G66" s="16" t="s">
         <v>605</v>
       </c>
-      <c r="H66" s="14" t="s">
+      <c r="H66" s="16" t="s">
         <v>608</v>
       </c>
-      <c r="I66" s="14" t="s">
+      <c r="I66" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="J66" s="14" t="s">
+      <c r="J66" s="16" t="s">
         <v>609</v>
       </c>
-      <c r="K66" s="14" t="s">
+      <c r="K66" s="16" t="s">
         <v>612</v>
       </c>
-      <c r="L66" s="14"/>
-    </row>
-    <row r="67" spans="1:12" s="15" customFormat="1">
-      <c r="A67" s="14" t="s">
+      <c r="L66" s="16"/>
+    </row>
+    <row r="67" spans="1:12" s="17" customFormat="1">
+      <c r="A67" s="16" t="s">
         <v>601</v>
       </c>
-      <c r="B67" s="14" t="s">
+      <c r="B67" s="16" t="s">
         <v>602</v>
       </c>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14" t="s">
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G67" s="14" t="s">
+      <c r="G67" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H67" s="14" t="s">
+      <c r="H67" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="I67" s="14" t="s">
+      <c r="I67" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="J67" s="14"/>
-      <c r="K67" s="14" t="s">
+      <c r="J67" s="16"/>
+      <c r="K67" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="L67" s="14"/>
-    </row>
-    <row r="68" spans="1:12" s="15" customFormat="1">
-      <c r="A68" s="14" t="s">
+      <c r="L67" s="16"/>
+    </row>
+    <row r="68" spans="1:12" s="17" customFormat="1">
+      <c r="A68" s="16" t="s">
         <v>601</v>
       </c>
-      <c r="B68" s="14" t="s">
+      <c r="B68" s="16" t="s">
         <v>602</v>
       </c>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14" t="s">
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G68" s="14" t="s">
+      <c r="G68" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="H68" s="14" t="s">
+      <c r="H68" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="I68" s="14" t="s">
+      <c r="I68" s="16" t="s">
         <v>581</v>
       </c>
-      <c r="J68" s="14"/>
-      <c r="K68" s="14" t="s">
+      <c r="J68" s="16"/>
+      <c r="K68" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="L68" s="14"/>
-    </row>
-    <row r="69" spans="1:12" s="15" customFormat="1">
-      <c r="A69" s="14" t="s">
+      <c r="L68" s="16"/>
+    </row>
+    <row r="69" spans="1:12" s="17" customFormat="1">
+      <c r="A69" s="16" t="s">
         <v>601</v>
       </c>
-      <c r="B69" s="14" t="s">
+      <c r="B69" s="16" t="s">
         <v>602</v>
       </c>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14" t="s">
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G69" s="14" t="s">
+      <c r="G69" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H69" s="14" t="s">
+      <c r="H69" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="I69" s="14" t="s">
+      <c r="I69" s="16" t="s">
         <v>581</v>
       </c>
-      <c r="J69" s="14"/>
-      <c r="K69" s="14" t="s">
+      <c r="J69" s="16"/>
+      <c r="K69" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="L69" s="14"/>
+      <c r="L69" s="16"/>
     </row>
     <row r="70" spans="1:12" s="15" customFormat="1">
       <c r="A70" s="14"/>
